--- a/software/testing/CV/multi_marker_paper_method/output.xlsx
+++ b/software/testing/CV/multi_marker_paper_method/output.xlsx
@@ -1940,1504 +1940,1504 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-4.479203689566306</v>
+        <v>-35.10391424141799</v>
       </c>
       <c r="C2" t="n">
-        <v>-6.087627236478028</v>
+        <v>-47.49862785015111</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.162586300405779</v>
+        <v>-56.9209395461488</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.239112508633907</v>
+        <v>-63.49371715766533</v>
       </c>
       <c r="F2" t="n">
-        <v>-8.815790138461477</v>
+        <v>-69.21040679355414</v>
       </c>
       <c r="G2" t="n">
-        <v>-9.244446022283407</v>
+        <v>-71.95959105220781</v>
       </c>
       <c r="H2" t="n">
-        <v>-9.676514306487123</v>
+        <v>-74.89662149786101</v>
       </c>
       <c r="I2" t="n">
-        <v>-9.749702739967848</v>
+        <v>-77.71401378868768</v>
       </c>
       <c r="J2" t="n">
-        <v>-9.908188034082706</v>
+        <v>-77.32897162132714</v>
       </c>
       <c r="K2" t="n">
-        <v>-10.12124085474041</v>
+        <v>-78.33428475161108</v>
       </c>
       <c r="L2" t="n">
-        <v>-10.15966647324401</v>
+        <v>-79.06730981021373</v>
       </c>
       <c r="M2" t="n">
-        <v>-10.17266744955272</v>
+        <v>-78.72142488174042</v>
       </c>
       <c r="N2" t="n">
-        <v>-10.31849532500229</v>
+        <v>-79.17109007849696</v>
       </c>
       <c r="O2" t="n">
-        <v>-10.40189853827255</v>
+        <v>-79.37977829377066</v>
       </c>
       <c r="P2" t="n">
-        <v>-10.46098720635886</v>
+        <v>-78.56518974574546</v>
       </c>
       <c r="Q2" t="n">
-        <v>-10.49693469196509</v>
+        <v>-79.01554041298751</v>
       </c>
       <c r="R2" t="n">
-        <v>-10.46924571661945</v>
+        <v>-79.00195524041038</v>
       </c>
       <c r="S2" t="n">
-        <v>-10.92817190916859</v>
+        <v>-78.1352386656923</v>
       </c>
       <c r="T2" t="n">
-        <v>-11.2985626077184</v>
+        <v>-77.30574070178986</v>
       </c>
       <c r="U2" t="n">
-        <v>-11.31207616361369</v>
+        <v>-76.69638157280662</v>
       </c>
       <c r="V2" t="n">
-        <v>-12.24641103488174</v>
+        <v>-76.76639803420723</v>
       </c>
       <c r="W2" t="n">
-        <v>-13.10837286780641</v>
+        <v>-76.74177099541647</v>
       </c>
       <c r="X2" t="n">
-        <v>-15.22951621109008</v>
+        <v>-76.93474594776383</v>
       </c>
       <c r="Y2" t="n">
-        <v>-14.88816361994382</v>
+        <v>-76.28547446574203</v>
       </c>
       <c r="Z2" t="n">
-        <v>-14.57766432048932</v>
+        <v>-76.16896633219653</v>
       </c>
       <c r="AA2" t="n">
-        <v>-15.18031122056973</v>
+        <v>-75.97159828655128</v>
       </c>
       <c r="AB2" t="n">
-        <v>-15.70620534042774</v>
+        <v>-75.86853735561299</v>
       </c>
       <c r="AC2" t="n">
-        <v>-16.58222471123608</v>
+        <v>-75.91325597375406</v>
       </c>
       <c r="AD2" t="n">
-        <v>-17.81128508375954</v>
+        <v>-75.7127726550125</v>
       </c>
       <c r="AE2" t="n">
-        <v>-17.3259654176496</v>
+        <v>-75.45645493221808</v>
       </c>
       <c r="AF2" t="n">
-        <v>-17.56676502747802</v>
+        <v>-75.25652521591623</v>
       </c>
       <c r="AG2" t="n">
-        <v>-18.84391411342402</v>
+        <v>-75.26575512846239</v>
       </c>
       <c r="AH2" t="n">
-        <v>-18.14080875662267</v>
+        <v>-75.33353151340177</v>
       </c>
       <c r="AI2" t="n">
-        <v>-17.48759073890882</v>
+        <v>-75.29481127549226</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-16.87606674664385</v>
+        <v>-75.09244578609656</v>
       </c>
       <c r="AK2" t="n">
-        <v>-16.26130955806893</v>
+        <v>-74.96602246327735</v>
       </c>
       <c r="AL2" t="n">
-        <v>-15.65047172580422</v>
+        <v>-74.68899898336157</v>
       </c>
       <c r="AM2" t="n">
-        <v>-15.06273524195631</v>
+        <v>-74.65741298657149</v>
       </c>
       <c r="AN2" t="n">
-        <v>-14.49758820929727</v>
+        <v>-74.22524719745252</v>
       </c>
       <c r="AO2" t="n">
-        <v>-14.09781625586115</v>
+        <v>-74.08619678732788</v>
       </c>
       <c r="AP2" t="n">
-        <v>-13.72344266041802</v>
+        <v>-74.19169660139532</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-13.37918154024554</v>
+        <v>-74.35397251989427</v>
       </c>
       <c r="AR2" t="n">
-        <v>-12.93242886996016</v>
+        <v>-74.60983285030207</v>
       </c>
       <c r="AS2" t="n">
-        <v>-12.48996629398368</v>
+        <v>-74.22715497127929</v>
       </c>
       <c r="AT2" t="n">
-        <v>-12.08945811512849</v>
+        <v>-73.96556119553776</v>
       </c>
       <c r="AU2" t="n">
-        <v>-11.69457396226291</v>
+        <v>-74.13874148267611</v>
       </c>
       <c r="AV2" t="n">
-        <v>-11.37357447598583</v>
+        <v>-73.8825408219419</v>
       </c>
       <c r="AW2" t="n">
-        <v>-11.06877426677362</v>
+        <v>-73.82609641092137</v>
       </c>
       <c r="AX2" t="n">
-        <v>-10.76828328131277</v>
+        <v>-73.48793074920911</v>
       </c>
       <c r="AY2" t="n">
-        <v>-10.5293910440004</v>
+        <v>-72.94393872716087</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-10.30509268171077</v>
+        <v>-72.68786751742168</v>
       </c>
       <c r="BA2" t="n">
-        <v>-10.06384962772849</v>
+        <v>-72.86003720676648</v>
       </c>
       <c r="BB2" t="n">
-        <v>-9.910075223851221</v>
+        <v>-72.64797493392167</v>
       </c>
       <c r="BC2" t="n">
-        <v>-9.770751313234843</v>
+        <v>-72.19754184732759</v>
       </c>
       <c r="BD2" t="n">
-        <v>-9.590354297850675</v>
+        <v>-72.09014739886456</v>
       </c>
       <c r="BE2" t="n">
-        <v>-9.408524994735323</v>
+        <v>-71.95031269178314</v>
       </c>
       <c r="BF2" t="n">
-        <v>-9.313572135782168</v>
+        <v>-71.97156469667071</v>
       </c>
       <c r="BG2" t="n">
-        <v>-9.228319651707501</v>
+        <v>-71.84348785113839</v>
       </c>
       <c r="BH2" t="n">
-        <v>-9.15415477427481</v>
+        <v>-71.47538117910591</v>
       </c>
       <c r="BI2" t="n">
-        <v>-9.090015918154812</v>
+        <v>-71.18167323234624</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-9.034919117873789</v>
+        <v>-70.77178718584078</v>
       </c>
       <c r="BK2" t="n">
-        <v>-8.986471766506652</v>
+        <v>-70.90763749912568</v>
       </c>
       <c r="BL2" t="n">
-        <v>-8.946853745844955</v>
+        <v>-70.82247630322915</v>
       </c>
       <c r="BM2" t="n">
-        <v>-8.898244757763944</v>
+        <v>-70.66751741407678</v>
       </c>
       <c r="BN2" t="n">
-        <v>-8.874370864408966</v>
+        <v>-70.28298370760689</v>
       </c>
       <c r="BO2" t="n">
-        <v>-8.854900463122378</v>
+        <v>-70.1968549520623</v>
       </c>
       <c r="BP2" t="n">
-        <v>-8.830276247166301</v>
+        <v>-69.45429019633426</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-8.770264269765404</v>
+        <v>-69.33341875964857</v>
       </c>
       <c r="BR2" t="n">
-        <v>-8.702009496405168</v>
+        <v>-69.15579424783482</v>
       </c>
       <c r="BS2" t="n">
-        <v>-8.701118504730301</v>
+        <v>-69.15104993721867</v>
       </c>
       <c r="BT2" t="n">
-        <v>-8.71353236308151</v>
+        <v>-68.98874913879595</v>
       </c>
       <c r="BU2" t="n">
-        <v>-8.729594367048188</v>
+        <v>-69.47956105553493</v>
       </c>
       <c r="BV2" t="n">
-        <v>-8.748557610241974</v>
+        <v>-69.55638089463903</v>
       </c>
       <c r="BW2" t="n">
-        <v>-8.770785345412795</v>
+        <v>-69.23215762905643</v>
       </c>
       <c r="BX2" t="n">
-        <v>-8.741164177630523</v>
+        <v>-69.53572517835238</v>
       </c>
       <c r="BY2" t="n">
-        <v>-8.699399981919049</v>
+        <v>-70.61546298026317</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-8.733545193790281</v>
+        <v>-69.68144712300146</v>
       </c>
       <c r="CA2" t="n">
-        <v>-8.768097017811188</v>
+        <v>-70.20623442596018</v>
       </c>
       <c r="CB2" t="n">
-        <v>-8.868131350443536</v>
+        <v>-68.79751781878848</v>
       </c>
       <c r="CC2" t="n">
-        <v>-8.900240796160821</v>
+        <v>-67.68867273691919</v>
       </c>
       <c r="CD2" t="n">
-        <v>-8.932362986213414</v>
+        <v>-67.58385095666436</v>
       </c>
       <c r="CE2" t="n">
-        <v>-8.96345905378411</v>
+        <v>-65.33450029207798</v>
       </c>
       <c r="CF2" t="n">
-        <v>-8.994612488460888</v>
+        <v>-48.7425884543987</v>
       </c>
       <c r="CG2" t="n">
-        <v>-9.025488175361382</v>
+        <v>-48.55682572384879</v>
       </c>
       <c r="CH2" t="n">
-        <v>-9.057889207635709</v>
+        <v>-48.9899308540111</v>
       </c>
       <c r="CI2" t="n">
-        <v>-9.089452472328453</v>
+        <v>-52.11256222370102</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-9.119971937071154</v>
+        <v>-55.67626292786964</v>
       </c>
       <c r="CK2" t="n">
-        <v>-9.150867198831106</v>
+        <v>-58.39076936523535</v>
       </c>
       <c r="CL2" t="n">
-        <v>-9.18021303055289</v>
+        <v>-63.3842527911079</v>
       </c>
       <c r="CM2" t="n">
-        <v>-9.209943952235903</v>
+        <v>-66.68086990552587</v>
       </c>
       <c r="CN2" t="n">
-        <v>-9.238568054116046</v>
+        <v>-69.78537168670812</v>
       </c>
       <c r="CO2" t="n">
-        <v>-9.265607917694776</v>
+        <v>-73.64350160963482</v>
       </c>
       <c r="CP2" t="n">
-        <v>-9.291605512896048</v>
+        <v>-76.35251235341406</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-9.317653432634499</v>
+        <v>-79.15178924663964</v>
       </c>
       <c r="CR2" t="n">
-        <v>-9.406023021749357</v>
+        <v>-82.35057967940999</v>
       </c>
       <c r="CS2" t="n">
-        <v>-9.42449881676159</v>
+        <v>-84.26693185081878</v>
       </c>
       <c r="CT2" t="n">
-        <v>-9.44281327320958</v>
+        <v>-94.4084520813509</v>
       </c>
       <c r="CU2" t="n">
-        <v>-9.523758378223345</v>
+        <v>-101.0194061804737</v>
       </c>
       <c r="CV2" t="n">
-        <v>-9.536325342199804</v>
+        <v>-91.82052486518545</v>
       </c>
       <c r="CW2" t="n">
-        <v>-9.547509149937156</v>
+        <v>-115.4870327574596</v>
       </c>
       <c r="CX2" t="n">
-        <v>-9.557073343391567</v>
+        <v>-120.1396671090942</v>
       </c>
       <c r="CY2" t="n">
-        <v>-9.565750106028167</v>
+        <v>-124.4406938953439</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-9.576316676679959</v>
+        <v>-122.4712631337142</v>
       </c>
       <c r="DA2" t="n">
-        <v>-9.531424925731253</v>
+        <v>-124.1900051492769</v>
       </c>
       <c r="DB2" t="n">
-        <v>-9.488501491933917</v>
+        <v>-123.4471855420296</v>
       </c>
       <c r="DC2" t="n">
-        <v>-9.43083674010723</v>
+        <v>-121.7267444903803</v>
       </c>
       <c r="DD2" t="n">
-        <v>-9.363768665426386</v>
+        <v>-118.7679399555077</v>
       </c>
       <c r="DE2" t="n">
-        <v>-9.381216035868421</v>
+        <v>-116.9937645067866</v>
       </c>
       <c r="DF2" t="n">
-        <v>-9.397540193908998</v>
+        <v>-115.5777376128874</v>
       </c>
       <c r="DG2" t="n">
-        <v>-9.398158293993822</v>
+        <v>-113.683652524032</v>
       </c>
       <c r="DH2" t="n">
-        <v>-9.415102210003203</v>
+        <v>-111.8286032928899</v>
       </c>
       <c r="DI2" t="n">
-        <v>-9.432349101863025</v>
+        <v>-110.7537275816485</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-9.447846239477206</v>
+        <v>-108.4081850870215</v>
       </c>
       <c r="DK2" t="n">
-        <v>-9.408673690092483</v>
+        <v>-110.9109314067845</v>
       </c>
       <c r="DL2" t="n">
-        <v>-9.425069965777441</v>
+        <v>-111.5127272939855</v>
       </c>
       <c r="DM2" t="n">
-        <v>-9.441348633426415</v>
+        <v>-112.4391921756277</v>
       </c>
       <c r="DN2" t="n">
-        <v>-9.519830511266344</v>
+        <v>-105.8693861944697</v>
       </c>
       <c r="DO2" t="n">
-        <v>-9.53030733552189</v>
+        <v>-110.046516050524</v>
       </c>
       <c r="DP2" t="n">
-        <v>-9.539596295829472</v>
+        <v>-113.0558136281415</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-9.547885715394109</v>
+        <v>-112.7186169723353</v>
       </c>
       <c r="DR2" t="n">
-        <v>-9.555481223155878</v>
+        <v>-115.1684971925035</v>
       </c>
       <c r="DS2" t="n">
-        <v>-9.563313863487165</v>
+        <v>-115.0655870467901</v>
       </c>
       <c r="DT2" t="n">
-        <v>-9.554194060065235</v>
+        <v>-100.0961144827416</v>
       </c>
       <c r="DU2" t="n">
-        <v>-9.561660701506234</v>
+        <v>-102.2547493332423</v>
       </c>
       <c r="DV2" t="n">
-        <v>-9.567561112521931</v>
+        <v>-96.63429598017781</v>
       </c>
       <c r="DW2" t="n">
-        <v>-9.557729020208406</v>
+        <v>-81.04372245212858</v>
       </c>
       <c r="DX2" t="n">
-        <v>-9.563630726209871</v>
+        <v>-92.93274001405763</v>
       </c>
       <c r="DY2" t="n">
-        <v>-9.569247966640239</v>
+        <v>-91.34791847354411</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-9.520199993735067</v>
+        <v>-91.92298537983862</v>
       </c>
       <c r="EA2" t="n">
-        <v>-9.456529021780879</v>
+        <v>-88.59218927235675</v>
       </c>
       <c r="EB2" t="n">
-        <v>-9.413855224519953</v>
+        <v>-90.06531873947912</v>
       </c>
       <c r="EC2" t="n">
-        <v>-9.356546032646055</v>
+        <v>-89.48969168032517</v>
       </c>
       <c r="ED2" t="n">
-        <v>-9.372067915098295</v>
+        <v>-83.84228826764263</v>
       </c>
       <c r="EE2" t="n">
-        <v>-9.386710429526579</v>
+        <v>-75.51408469389175</v>
       </c>
       <c r="EF2" t="n">
-        <v>-9.401286082659366</v>
+        <v>-76.9224065017472</v>
       </c>
       <c r="EG2" t="n">
-        <v>-9.414726627310001</v>
+        <v>-79.06311965556873</v>
       </c>
       <c r="EH2" t="n">
-        <v>-9.428296897908371</v>
+        <v>-67.57032994692986</v>
       </c>
       <c r="EI2" t="n">
-        <v>-9.442176938467007</v>
+        <v>-71.183114247112</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-9.439138059996484</v>
+        <v>-72.52846075741508</v>
       </c>
       <c r="EK2" t="n">
-        <v>-9.451383774180435</v>
+        <v>-75.24969502785819</v>
       </c>
       <c r="EL2" t="n">
-        <v>-9.463732039524896</v>
+        <v>-73.57312605828331</v>
       </c>
       <c r="EM2" t="n">
-        <v>-9.475445601024862</v>
+        <v>-76.08224012625801</v>
       </c>
       <c r="EN2" t="n">
-        <v>-9.487796407213359</v>
+        <v>-77.99997638439177</v>
       </c>
       <c r="EO2" t="n">
-        <v>-9.444948911293542</v>
+        <v>-78.97359321022738</v>
       </c>
       <c r="EP2" t="n">
-        <v>-9.387319528133913</v>
+        <v>-68.49296114364461</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-9.320767117214597</v>
+        <v>-71.83548547129338</v>
       </c>
       <c r="ER2" t="n">
-        <v>-9.340354515870512</v>
+        <v>-75.8672261336651</v>
       </c>
       <c r="ES2" t="n">
-        <v>-9.358889630217224</v>
+        <v>-84.66507903636844</v>
       </c>
       <c r="ET2" t="n">
-        <v>-9.376325301016916</v>
+        <v>-87.61536246481207</v>
       </c>
       <c r="EU2" t="n">
-        <v>-9.393052633298437</v>
+        <v>-91.04271550834353</v>
       </c>
       <c r="EV2" t="n">
-        <v>-9.408474202584674</v>
+        <v>-85.54076648681828</v>
       </c>
       <c r="EW2" t="n">
-        <v>-9.424250970045112</v>
+        <v>-88.18939558490788</v>
       </c>
       <c r="EX2" t="n">
-        <v>-9.440528341250673</v>
+        <v>-90.51920309635724</v>
       </c>
       <c r="EY2" t="n">
-        <v>-9.402179489175946</v>
+        <v>-88.9789641752472</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-9.349087090007874</v>
+        <v>-101.0121239430575</v>
       </c>
       <c r="FA2" t="n">
-        <v>-9.314883592536518</v>
+        <v>-101.658806364355</v>
       </c>
       <c r="FB2" t="n">
-        <v>-9.282681925403526</v>
+        <v>-106.0228075973653</v>
       </c>
       <c r="FC2" t="n">
-        <v>-9.235488654796518</v>
+        <v>-107.1334159930979</v>
       </c>
       <c r="FD2" t="n">
-        <v>-9.252001402727581</v>
+        <v>-109.0267781463906</v>
       </c>
       <c r="FE2" t="n">
-        <v>-9.278781554226194</v>
+        <v>-101.5553902468873</v>
       </c>
       <c r="FF2" t="n">
-        <v>-9.303817131525548</v>
+        <v>-90.54352810595375</v>
       </c>
       <c r="FG2" t="n">
-        <v>-9.31233928401044</v>
+        <v>-92.43367732157641</v>
       </c>
       <c r="FH2" t="n">
-        <v>-9.336050902386742</v>
+        <v>-99.52046718347719</v>
       </c>
       <c r="FI2" t="n">
-        <v>-9.35776030772346</v>
+        <v>-92.85900482015644</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-9.378773699197051</v>
+        <v>-98.99063298225097</v>
       </c>
       <c r="FK2" t="n">
-        <v>-9.400003541708312</v>
+        <v>-99.05924636802476</v>
       </c>
       <c r="FL2" t="n">
-        <v>-9.403361988041585</v>
+        <v>-102.553120766359</v>
       </c>
       <c r="FM2" t="n">
-        <v>-9.422298506462644</v>
+        <v>-103.3623450148883</v>
       </c>
       <c r="FN2" t="n">
-        <v>-9.440877970370437</v>
+        <v>-102.8997923848262</v>
       </c>
       <c r="FO2" t="n">
-        <v>-9.457928044781619</v>
+        <v>-106.7135539937571</v>
       </c>
       <c r="FP2" t="n">
-        <v>-9.47299715256859</v>
+        <v>-117.3451206603204</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-9.551935020086939</v>
+        <v>-116.1504196355763</v>
       </c>
       <c r="FR2" t="n">
-        <v>-9.562219030785675</v>
+        <v>-122.3071620502202</v>
       </c>
       <c r="FS2" t="n">
-        <v>-9.571216132295712</v>
+        <v>-122.1089022875165</v>
       </c>
       <c r="FT2" t="n">
-        <v>-9.564346907932853</v>
+        <v>-123.5475587591532</v>
       </c>
       <c r="FU2" t="n">
-        <v>-9.519796623667558</v>
+        <v>-124.0653482692644</v>
       </c>
       <c r="FV2" t="n">
-        <v>-9.461979925763965</v>
+        <v>-126.5483585620506</v>
       </c>
       <c r="FW2" t="n">
-        <v>-9.393060627157137</v>
+        <v>-131.9161125916983</v>
       </c>
       <c r="FX2" t="n">
-        <v>-9.355563692147667</v>
+        <v>-136.4670030765852</v>
       </c>
       <c r="FY2" t="n">
-        <v>-9.304644744195974</v>
+        <v>-136.7430420053086</v>
       </c>
       <c r="FZ2" t="n">
-        <v>-9.325653553507442</v>
+        <v>-142.2580975186894</v>
       </c>
       <c r="GA2" t="n">
-        <v>-9.345282338558182</v>
+        <v>-140.9880601293308</v>
       </c>
       <c r="GB2" t="n">
-        <v>-9.364424754742437</v>
+        <v>-140.9352298101183</v>
       </c>
       <c r="GC2" t="n">
-        <v>-9.3837876557998</v>
+        <v>-139.1217919071487</v>
       </c>
       <c r="GD2" t="n">
-        <v>-9.348739582030671</v>
+        <v>-131.6668574862498</v>
       </c>
       <c r="GE2" t="n">
-        <v>-9.315599388521592</v>
+        <v>-131.0236215505813</v>
       </c>
       <c r="GF2" t="n">
-        <v>-9.26738799211177</v>
+        <v>-129.48666643609</v>
       </c>
       <c r="GG2" t="n">
-        <v>-9.291628081592322</v>
+        <v>-132.0576005896686</v>
       </c>
       <c r="GH2" t="n">
-        <v>-9.31492437658944</v>
+        <v>-131.5007828149273</v>
       </c>
       <c r="GI2" t="n">
-        <v>-9.33666837026637</v>
+        <v>-133.7747222284903</v>
       </c>
       <c r="GJ2" t="n">
-        <v>-9.357759803449165</v>
+        <v>-152.5152454827513</v>
       </c>
       <c r="GK2" t="n">
-        <v>-9.378911882462285</v>
+        <v>-148.8634374913245</v>
       </c>
       <c r="GL2" t="n">
-        <v>-9.397957963450754</v>
+        <v>-145.3206064339504</v>
       </c>
       <c r="GM2" t="n">
-        <v>-9.417057433722768</v>
+        <v>-146.739230934878</v>
       </c>
       <c r="GN2" t="n">
-        <v>-9.434833017909035</v>
+        <v>-139.5187272667126</v>
       </c>
       <c r="GO2" t="n">
-        <v>-9.450994980338212</v>
+        <v>-130.7297875742897</v>
       </c>
       <c r="GP2" t="n">
-        <v>-9.413262578898092</v>
+        <v>-129.1189447536106</v>
       </c>
       <c r="GQ2" t="n">
-        <v>-9.430331968198391</v>
+        <v>-120.3227229875399</v>
       </c>
       <c r="GR2" t="n">
-        <v>-9.446442993438357</v>
+        <v>-110.2344093916597</v>
       </c>
       <c r="GS2" t="n">
-        <v>-9.461024526969629</v>
+        <v>-111.1409779579878</v>
       </c>
       <c r="GT2" t="n">
-        <v>-9.476898992916109</v>
+        <v>-104.6437109803801</v>
       </c>
       <c r="GU2" t="n">
-        <v>-9.491774172275528</v>
+        <v>-105.7754118396737</v>
       </c>
       <c r="GV2" t="n">
-        <v>-9.506545765549511</v>
+        <v>-109.8384062179654</v>
       </c>
       <c r="GW2" t="n">
-        <v>-9.583088312310498</v>
+        <v>-110.5746935531253</v>
       </c>
       <c r="GX2" t="n">
-        <v>-9.537363960245525</v>
+        <v>-104.1900326255539</v>
       </c>
       <c r="GY2" t="n">
-        <v>-9.476857104108616</v>
+        <v>-96.20206414581152</v>
       </c>
       <c r="GZ2" t="n">
-        <v>-9.515784332630073</v>
+        <v>-98.36162485827458</v>
       </c>
       <c r="HA2" t="n">
-        <v>-9.550436561827553</v>
+        <v>-92.55690027314867</v>
       </c>
       <c r="HB2" t="n">
-        <v>-9.585740779997771</v>
+        <v>-114.7535641575748</v>
       </c>
       <c r="HC2" t="n">
-        <v>-9.617617876196665</v>
+        <v>-116.4688870287654</v>
       </c>
       <c r="HD2" t="n">
-        <v>-9.52692324805388</v>
+        <v>-116.6697692641008</v>
       </c>
       <c r="HE2" t="n">
-        <v>-9.967367295832981</v>
+        <v>-117.1170850089611</v>
       </c>
       <c r="HF2" t="n">
-        <v>-10.85520781810475</v>
+        <v>-116.4469995746756</v>
       </c>
       <c r="HG2" t="n">
-        <v>-11.69506848430222</v>
+        <v>-114.6048450159403</v>
       </c>
       <c r="HH2" t="n">
-        <v>-14.55424578426148</v>
+        <v>-106.9826703504748</v>
       </c>
       <c r="HI2" t="n">
-        <v>-25.58551038683233</v>
+        <v>-97.91351880369388</v>
       </c>
       <c r="HJ2" t="n">
-        <v>-25.12705306531699</v>
+        <v>-99.5017495729854</v>
       </c>
       <c r="HK2" t="n">
-        <v>-25.73019539627582</v>
+        <v>-95.4261517475415</v>
       </c>
       <c r="HL2" t="n">
-        <v>-26.79231781356683</v>
+        <v>-98.71873869806583</v>
       </c>
       <c r="HM2" t="n">
-        <v>-25.76252512444012</v>
+        <v>-91.68961265115189</v>
       </c>
       <c r="HN2" t="n">
-        <v>-24.8957870359269</v>
+        <v>-83.02459572764931</v>
       </c>
       <c r="HO2" t="n">
-        <v>-24.58751960414763</v>
+        <v>-87.02826430660581</v>
       </c>
       <c r="HP2" t="n">
-        <v>-23.5334372764047</v>
+        <v>-82.60185457438173</v>
       </c>
       <c r="HQ2" t="n">
-        <v>-22.82719588044951</v>
+        <v>-76.61248371828104</v>
       </c>
       <c r="HR2" t="n">
-        <v>-21.75853889988672</v>
+        <v>-78.68501843380383</v>
       </c>
       <c r="HS2" t="n">
-        <v>-21.05070584404634</v>
+        <v>-72.97564771531444</v>
       </c>
       <c r="HT2" t="n">
-        <v>-19.87452199524565</v>
+        <v>-65.58981405904427</v>
       </c>
       <c r="HU2" t="n">
-        <v>-18.89078771377059</v>
+        <v>-70.79992618850916</v>
       </c>
       <c r="HV2" t="n">
-        <v>-17.79396556541911</v>
+        <v>-73.10744028570517</v>
       </c>
       <c r="HW2" t="n">
-        <v>-16.97691336670733</v>
+        <v>-76.58670116823436</v>
       </c>
       <c r="HX2" t="n">
-        <v>-16.54173073579903</v>
+        <v>-79.02393253798961</v>
       </c>
       <c r="HY2" t="n">
-        <v>-15.57894588968595</v>
+        <v>-81.39133130309702</v>
       </c>
       <c r="HZ2" t="n">
-        <v>-14.66714014664233</v>
+        <v>-82.4894729482612</v>
       </c>
       <c r="IA2" t="n">
-        <v>-13.89313569751067</v>
+        <v>-85.10967207803476</v>
       </c>
       <c r="IB2" t="n">
-        <v>-13.07070717013448</v>
+        <v>-81.74595425025844</v>
       </c>
       <c r="IC2" t="n">
-        <v>-12.29807449123468</v>
+        <v>-76.72289292861309</v>
       </c>
       <c r="ID2" t="n">
-        <v>-12.04375954590765</v>
+        <v>-79.32415417091455</v>
       </c>
       <c r="IE2" t="n">
-        <v>-11.49105485442581</v>
+        <v>-75.84164851263697</v>
       </c>
       <c r="IF2" t="n">
-        <v>-10.97728402008847</v>
+        <v>-79.17225003532668</v>
       </c>
       <c r="IG2" t="n">
-        <v>-10.65275443736985</v>
+        <v>-75.7692923268895</v>
       </c>
       <c r="IH2" t="n">
-        <v>-9.960617715678756</v>
+        <v>-71.82725898793647</v>
       </c>
       <c r="II2" t="n">
-        <v>-9.637802229417234</v>
+        <v>-75.7074556139959</v>
       </c>
       <c r="IJ2" t="n">
-        <v>-9.333082720965116</v>
+        <v>-72.59538371011459</v>
       </c>
       <c r="IK2" t="n">
-        <v>-8.792614049212839</v>
+        <v>-76.20885734381312</v>
       </c>
       <c r="IL2" t="n">
-        <v>-8.493086529758367</v>
+        <v>-73.14014609623663</v>
       </c>
       <c r="IM2" t="n">
-        <v>-8.009471632102672</v>
+        <v>-69.51278014335156</v>
       </c>
       <c r="IN2" t="n">
-        <v>-7.616982654415915</v>
+        <v>-73.27694622971052</v>
       </c>
       <c r="IO2" t="n">
-        <v>-7.265188794875976</v>
+        <v>-69.03021429910544</v>
       </c>
       <c r="IP2" t="n">
-        <v>-6.968089937349623</v>
+        <v>-93.56403879634971</v>
       </c>
       <c r="IQ2" t="n">
-        <v>-6.680277781840173</v>
+        <v>-93.97299249673721</v>
       </c>
       <c r="IR2" t="n">
-        <v>-6.439508941243932</v>
+        <v>-87.93971812852355</v>
       </c>
       <c r="IS2" t="n">
-        <v>-6.209439865895372</v>
+        <v>-90.99944753695648</v>
       </c>
       <c r="IT2" t="n">
-        <v>-6.027224139684959</v>
+        <v>-86.97285672784328</v>
       </c>
       <c r="IU2" t="n">
-        <v>-5.845982721978827</v>
+        <v>-88.7252260282812</v>
       </c>
       <c r="IV2" t="n">
-        <v>-5.70563953918885</v>
+        <v>-85.94440579815254</v>
       </c>
       <c r="IW2" t="n">
-        <v>-5.57010788765671</v>
+        <v>-82.73503468808886</v>
       </c>
       <c r="IX2" t="n">
-        <v>-5.476461384688499</v>
+        <v>-83.23765113652497</v>
       </c>
       <c r="IY2" t="n">
-        <v>-5.404913702234569</v>
+        <v>-78.67881672827168</v>
       </c>
       <c r="IZ2" t="n">
-        <v>-5.323664278421179</v>
+        <v>-82.07078943778031</v>
       </c>
       <c r="JA2" t="n">
-        <v>-5.278288548969529</v>
+        <v>-77.83030791805578</v>
       </c>
       <c r="JB2" t="n">
-        <v>-5.229099186740457</v>
+        <v>-81.27062715132345</v>
       </c>
       <c r="JC2" t="n">
-        <v>-5.212131300389966</v>
+        <v>-78.69220065332948</v>
       </c>
       <c r="JD2" t="n">
-        <v>-5.184256701720874</v>
+        <v>-74.34714130698603</v>
       </c>
       <c r="JE2" t="n">
-        <v>-5.169206235658271</v>
+        <v>-75.84415872854797</v>
       </c>
       <c r="JF2" t="n">
-        <v>-5.164514052560793</v>
+        <v>-71.76368115176039</v>
       </c>
       <c r="JG2" t="n">
-        <v>-5.190611848364413</v>
+        <v>-67.31705846192595</v>
       </c>
       <c r="JH2" t="n">
-        <v>-5.234511867463078</v>
+        <v>-72.90893323691816</v>
       </c>
       <c r="JI2" t="n">
-        <v>-5.253958089440112</v>
+        <v>-68.80922273470654</v>
       </c>
       <c r="JJ2" t="n">
-        <v>-5.30240504718073</v>
+        <v>-73.22658429004204</v>
       </c>
       <c r="JK2" t="n">
-        <v>-5.351178740597773</v>
+        <v>-70.10314401274552</v>
       </c>
       <c r="JL2" t="n">
-        <v>-5.404017037918004</v>
+        <v>-66.56342420321211</v>
       </c>
       <c r="JM2" t="n">
-        <v>-5.478130744252762</v>
+        <v>-71.62058454080781</v>
       </c>
       <c r="JN2" t="n">
-        <v>-5.534293185991227</v>
+        <v>-75.60263515300204</v>
       </c>
       <c r="JO2" t="n">
-        <v>-5.614022703894786</v>
+        <v>-97.06491396097971</v>
       </c>
       <c r="JP2" t="n">
-        <v>-5.67671793905392</v>
+        <v>-99.60308908463838</v>
       </c>
       <c r="JQ2" t="n">
-        <v>-5.7547977346154</v>
+        <v>-94.22052114403468</v>
       </c>
       <c r="JR2" t="n">
-        <v>-5.837914386084866</v>
+        <v>-87.04300132680527</v>
       </c>
       <c r="JS2" t="n">
-        <v>-5.900524447602452</v>
+        <v>-90.97045509940217</v>
       </c>
       <c r="JT2" t="n">
-        <v>-5.981976462357951</v>
+        <v>-97.24810381784779</v>
       </c>
       <c r="JU2" t="n">
-        <v>-6.042534837176339</v>
+        <v>-97.17437359767965</v>
       </c>
       <c r="JV2" t="n">
-        <v>-6.087460359889342</v>
+        <v>-91.38697692877841</v>
       </c>
       <c r="JW2" t="n">
-        <v>-6.132228435675686</v>
+        <v>-93.21875340181641</v>
       </c>
       <c r="JX2" t="n">
-        <v>-6.191201445725072</v>
+        <v>-94.93442896817324</v>
       </c>
       <c r="JY2" t="n">
-        <v>-6.249079656495679</v>
+        <v>-95.42065793919549</v>
       </c>
       <c r="JZ2" t="n">
-        <v>-6.323686752611527</v>
+        <v>-89.64200744545087</v>
       </c>
       <c r="KA2" t="n">
-        <v>-7.099303424894686</v>
+        <v>-63.71577795064634</v>
       </c>
       <c r="KB2" t="n">
-        <v>-9.767248270625139</v>
+        <v>-68.78130446873132</v>
       </c>
       <c r="KC2" t="n">
-        <v>-12.25306679673796</v>
+        <v>-73.95900251578865</v>
       </c>
       <c r="KD2" t="n">
-        <v>-12.18746155569586</v>
+        <v>-79.06316945526289</v>
       </c>
       <c r="KE2" t="n">
-        <v>-12.34984447021496</v>
+        <v>-79.39541933393937</v>
       </c>
       <c r="KF2" t="n">
-        <v>-13.11949043560471</v>
+        <v>-79.75565737769226</v>
       </c>
       <c r="KG2" t="n">
-        <v>-12.8384584896777</v>
+        <v>-83.68994823923592</v>
       </c>
       <c r="KH2" t="n">
-        <v>-12.88255745831904</v>
+        <v>-88.40248196542431</v>
       </c>
       <c r="KI2" t="n">
-        <v>-13.33027613408193</v>
+        <v>-90.73413145895286</v>
       </c>
       <c r="KJ2" t="n">
-        <v>-12.84382625734172</v>
+        <v>-86.01956162176776</v>
       </c>
       <c r="KK2" t="n">
-        <v>-12.53687269930343</v>
+        <v>-109.4673845514066</v>
       </c>
       <c r="KL2" t="n">
-        <v>-12.07597577320798</v>
+        <v>-109.1282936700916</v>
       </c>
       <c r="KM2" t="n">
-        <v>-11.76839776030398</v>
+        <v>-108.5082741169719</v>
       </c>
       <c r="KN2" t="n">
-        <v>-11.35907286772175</v>
+        <v>-102.2373802806273</v>
       </c>
       <c r="KO2" t="n">
-        <v>-11.03223486599211</v>
+        <v>-103.5547062320141</v>
       </c>
       <c r="KP2" t="n">
-        <v>-10.66261654347857</v>
+        <v>-105.3708205135083</v>
       </c>
       <c r="KQ2" t="n">
-        <v>-10.40509299183265</v>
+        <v>-106.7638456922349</v>
       </c>
       <c r="KR2" t="n">
-        <v>-10.05185889477382</v>
+        <v>-100.6980526429421</v>
       </c>
       <c r="KS2" t="n">
-        <v>-9.81484223181379</v>
+        <v>-92.84109610737396</v>
       </c>
       <c r="KT2" t="n">
-        <v>-9.547122509415944</v>
+        <v>-93.73257375458897</v>
       </c>
       <c r="KU2" t="n">
-        <v>-9.356206344262267</v>
+        <v>-95.88981837864166</v>
       </c>
       <c r="KV2" t="n">
-        <v>-9.086293318439385</v>
+        <v>-87.81137591128063</v>
       </c>
       <c r="KW2" t="n">
-        <v>-8.831491106808137</v>
+        <v>-95.20793922901538</v>
       </c>
       <c r="KX2" t="n">
-        <v>-8.611241838231551</v>
+        <v>-94.13907671451187</v>
       </c>
       <c r="KY2" t="n">
-        <v>-8.337489727348265</v>
+        <v>-99.57750302818921</v>
       </c>
       <c r="KZ2" t="n">
-        <v>-8.170892524824929</v>
+        <v>-107.1985324578042</v>
       </c>
       <c r="LA2" t="n">
-        <v>-8.154080053072999</v>
+        <v>-111.0790395951903</v>
       </c>
       <c r="LB2" t="n">
-        <v>-7.972518697801393</v>
+        <v>-104.2045328462893</v>
       </c>
       <c r="LC2" t="n">
-        <v>-7.803712131776479</v>
+        <v>-97.94674408893661</v>
       </c>
       <c r="LD2" t="n">
-        <v>-7.638703696953447</v>
+        <v>-101.788826857146</v>
       </c>
       <c r="LE2" t="n">
-        <v>-7.525826128365821</v>
+        <v>-107.8103559657095</v>
       </c>
       <c r="LF2" t="n">
-        <v>-7.422828319258714</v>
+        <v>-108.3098516122553</v>
       </c>
       <c r="LG2" t="n">
-        <v>-7.287426598891668</v>
+        <v>-108.7512029023263</v>
       </c>
       <c r="LH2" t="n">
-        <v>-7.157309063597555</v>
+        <v>-103.5521292305498</v>
       </c>
       <c r="LI2" t="n">
-        <v>-7.060058376799132</v>
+        <v>-107.2641273426575</v>
       </c>
       <c r="LJ2" t="n">
-        <v>-6.938661524491493</v>
+        <v>-109.3829814555938</v>
       </c>
       <c r="LK2" t="n">
-        <v>-6.89002144677267</v>
+        <v>-101.5111819969394</v>
       </c>
       <c r="LL2" t="n">
-        <v>-6.824483292928682</v>
+        <v>-100.667109625117</v>
       </c>
       <c r="LM2" t="n">
-        <v>-6.7449485480314</v>
+        <v>-93.62538240733836</v>
       </c>
       <c r="LN2" t="n">
-        <v>-6.713433715457319</v>
+        <v>-86.67930972055056</v>
       </c>
       <c r="LO2" t="n">
-        <v>-6.691907762777921</v>
+        <v>-89.15792206753514</v>
       </c>
       <c r="LP2" t="n">
-        <v>-6.67556127528175</v>
+        <v>-90.37810179708762</v>
       </c>
       <c r="LQ2" t="n">
-        <v>-6.680121539742199</v>
+        <v>-91.59312320530817</v>
       </c>
       <c r="LR2" t="n">
-        <v>-6.643960077862037</v>
+        <v>-91.66668683827893</v>
       </c>
       <c r="LS2" t="n">
-        <v>-6.62336509827364</v>
+        <v>-93.44170089373553</v>
       </c>
       <c r="LT2" t="n">
-        <v>-6.618621853532669</v>
+        <v>-94.64284964330867</v>
       </c>
       <c r="LU2" t="n">
-        <v>-6.631419673450295</v>
+        <v>-98.86082654596352</v>
       </c>
       <c r="LV2" t="n">
-        <v>-6.632386404211508</v>
+        <v>-103.3905859210653</v>
       </c>
       <c r="LW2" t="n">
-        <v>-6.620338207730935</v>
+        <v>-109.7071283791726</v>
       </c>
       <c r="LX2" t="n">
-        <v>-6.624480781771761</v>
+        <v>-102.2726867447005</v>
       </c>
       <c r="LY2" t="n">
-        <v>-6.605075640805858</v>
+        <v>-107.5207932641566</v>
       </c>
       <c r="LZ2" t="n">
-        <v>-6.589201501827032</v>
+        <v>-108.3924049059932</v>
       </c>
       <c r="MA2" t="n">
-        <v>-6.592596888140405</v>
+        <v>-106.4995446502239</v>
       </c>
       <c r="MB2" t="n">
-        <v>-6.617167454561815</v>
+        <v>-106.4636484944706</v>
       </c>
       <c r="MC2" t="n">
-        <v>-6.64682083398765</v>
+        <v>-107.2121237608918</v>
       </c>
       <c r="MD2" t="n">
-        <v>-6.652709297948015</v>
+        <v>-115.2847711942391</v>
       </c>
       <c r="ME2" t="n">
-        <v>-6.679916237749161</v>
+        <v>-109.4535205056571</v>
       </c>
       <c r="MF2" t="n">
-        <v>-6.686686184259949</v>
+        <v>-109.232937758232</v>
       </c>
       <c r="MG2" t="n">
-        <v>-6.713123592256282</v>
+        <v>-105.0008943290119</v>
       </c>
       <c r="MH2" t="n">
-        <v>-6.706154841453069</v>
+        <v>-126.0985217742125</v>
       </c>
       <c r="MI2" t="n">
-        <v>-6.715679379266604</v>
+        <v>-130.2119685089565</v>
       </c>
       <c r="MJ2" t="n">
-        <v>-6.728420893698049</v>
+        <v>-125.1837247566461</v>
       </c>
       <c r="MK2" t="n">
-        <v>-6.756060229367446</v>
+        <v>-124.1284377160434</v>
       </c>
       <c r="ML2" t="n">
-        <v>-6.767888930669844</v>
+        <v>-143.4781301222616</v>
       </c>
       <c r="MM2" t="n">
-        <v>-6.799872307461293</v>
+        <v>-138.4002529563367</v>
       </c>
       <c r="MN2" t="n">
-        <v>-6.812320575446867</v>
+        <v>-138.0589440709757</v>
       </c>
       <c r="MO2" t="n">
-        <v>-6.839253816890053</v>
+        <v>-137.7075141411138</v>
       </c>
       <c r="MP2" t="n">
-        <v>-6.834122894037407</v>
+        <v>-143.9666534877697</v>
       </c>
       <c r="MQ2" t="n">
-        <v>-6.844709122788696</v>
+        <v>-152.1916781588552</v>
       </c>
       <c r="MR2" t="n">
-        <v>-6.853503545619546</v>
+        <v>-160.7647856296325</v>
       </c>
       <c r="MS2" t="n">
-        <v>-6.862346336082983</v>
+        <v>-178.4542772391913</v>
       </c>
       <c r="MT2" t="n">
-        <v>-6.889925136865958</v>
+        <v>-170.0782726045366</v>
       </c>
       <c r="MU2" t="n">
-        <v>-6.89274738980354</v>
+        <v>-161.9941960201987</v>
       </c>
       <c r="MV2" t="n">
-        <v>-6.908878213127873</v>
+        <v>-165.9941241396614</v>
       </c>
       <c r="MW2" t="n">
-        <v>-6.920028384810628</v>
+        <v>-156.6729822459838</v>
       </c>
       <c r="MX2" t="n">
-        <v>-6.930836512863624</v>
+        <v>-151.5074990694866</v>
       </c>
       <c r="MY2" t="n">
-        <v>-6.960295656281224</v>
+        <v>-142.7799297356394</v>
       </c>
       <c r="MZ2" t="n">
-        <v>-6.95370216225729</v>
+        <v>-160.8190635742384</v>
       </c>
       <c r="NA2" t="n">
-        <v>-6.958279127456347</v>
+        <v>-156.8295479945616</v>
       </c>
       <c r="NB2" t="n">
-        <v>-6.968493126439609</v>
+        <v>-152.9775289634738</v>
       </c>
       <c r="NC2" t="n">
-        <v>-6.977380296657569</v>
+        <v>-143.3314561205678</v>
       </c>
       <c r="ND2" t="n">
-        <v>-6.986029090092424</v>
+        <v>-141.9336249426983</v>
       </c>
       <c r="NE2" t="n">
-        <v>-6.994247672330979</v>
+        <v>-147.4861291647916</v>
       </c>
       <c r="NF2" t="n">
-        <v>-7.016415513238518</v>
+        <v>-158.0229363474818</v>
       </c>
       <c r="NG2" t="n">
-        <v>-7.021595565453993</v>
+        <v>-155.6679571464386</v>
       </c>
       <c r="NH2" t="n">
-        <v>-7.045169880386049</v>
+        <v>-146.3200931189025</v>
       </c>
       <c r="NI2" t="n">
-        <v>-7.049818856346313</v>
+        <v>-150.3776341354313</v>
       </c>
       <c r="NJ2" t="n">
-        <v>-7.068356000690684</v>
+        <v>-155.5671563215722</v>
       </c>
       <c r="NK2" t="n">
-        <v>-7.091328733644313</v>
+        <v>-161.5623959476076</v>
       </c>
       <c r="NL2" t="n">
-        <v>-7.864494409760331</v>
+        <v>-157.8043401280062</v>
       </c>
       <c r="NM2" t="n">
-        <v>-10.76819435553558</v>
+        <v>-148.1894756582271</v>
       </c>
       <c r="NN2" t="n">
-        <v>-13.42734790192262</v>
+        <v>-145.6703776081742</v>
       </c>
       <c r="NO2" t="n">
-        <v>-13.29116245385421</v>
+        <v>-136.6402168365219</v>
       </c>
       <c r="NP2" t="n">
-        <v>-13.81543727906445</v>
+        <v>-132.1034408727587</v>
       </c>
       <c r="NQ2" t="n">
-        <v>-17.06076701512119</v>
+        <v>-139.4315302962056</v>
       </c>
       <c r="NR2" t="n">
-        <v>-16.45153225866171</v>
+        <v>-132.0541419571911</v>
       </c>
       <c r="NS2" t="n">
-        <v>-15.85218324947406</v>
+        <v>-130.0367600151916</v>
       </c>
       <c r="NT2" t="n">
-        <v>-15.39413674034813</v>
+        <v>-129.1265044869866</v>
       </c>
       <c r="NU2" t="n">
-        <v>-14.74884171165771</v>
+        <v>-122.2630861351189</v>
       </c>
       <c r="NV2" t="n">
-        <v>-14.59183512792314</v>
+        <v>-115.7471696694332</v>
       </c>
       <c r="NW2" t="n">
-        <v>-13.98086464257502</v>
+        <v>-114.677522297331</v>
       </c>
       <c r="NX2" t="n">
-        <v>-13.42108722279265</v>
+        <v>-114.6482964619376</v>
       </c>
       <c r="NY2" t="n">
-        <v>-12.96032066179025</v>
+        <v>-111.2243883169963</v>
       </c>
       <c r="NZ2" t="n">
-        <v>-12.42745763737909</v>
+        <v>-118.5052093850805</v>
       </c>
       <c r="OA2" t="n">
-        <v>-11.94501233787005</v>
+        <v>-133.2853748148997</v>
       </c>
       <c r="OB2" t="n">
-        <v>-11.4458281810285</v>
+        <v>-126.7240934947851</v>
       </c>
       <c r="OC2" t="n">
-        <v>-11.08805162327595</v>
+        <v>-133.5593123121507</v>
       </c>
       <c r="OD2" t="n">
-        <v>-10.67582046432752</v>
+        <v>-141.1470895253964</v>
       </c>
       <c r="OE2" t="n">
-        <v>-10.27776045808855</v>
+        <v>-134.071949370993</v>
       </c>
       <c r="OF2" t="n">
-        <v>-9.901232852129109</v>
+        <v>-140.316659590056</v>
       </c>
       <c r="OG2" t="n">
-        <v>-9.551380822552256</v>
+        <v>-145.2583523667819</v>
       </c>
       <c r="OH2" t="n">
-        <v>-9.268317972075538</v>
+        <v>-137.8996721665823</v>
       </c>
       <c r="OI2" t="n">
-        <v>-9.135265494944228</v>
+        <v>-143.8980623888602</v>
       </c>
       <c r="OJ2" t="n">
-        <v>-8.780429308247484</v>
+        <v>-147.5654208204973</v>
       </c>
       <c r="OK2" t="n">
-        <v>-8.520866963595955</v>
+        <v>-150.4926098238746</v>
       </c>
       <c r="OL2" t="n">
-        <v>-8.37142753969613</v>
+        <v>-142.7892953688034</v>
       </c>
       <c r="OM2" t="n">
-        <v>-8.141945682834258</v>
+        <v>-135.4548569776748</v>
       </c>
       <c r="ON2" t="n">
-        <v>-8.03304662621445</v>
+        <v>-133.1065594895998</v>
       </c>
       <c r="OO2" t="n">
-        <v>-7.829690250370827</v>
+        <v>-126.2235834219981</v>
       </c>
       <c r="OP2" t="n">
-        <v>-7.686533828932713</v>
+        <v>-124.5427540203176</v>
       </c>
       <c r="OQ2" t="n">
-        <v>-7.524971757980668</v>
+        <v>-118.3187061378394</v>
       </c>
       <c r="OR2" t="n">
-        <v>-7.377542819300832</v>
+        <v>-125.5017234296795</v>
       </c>
       <c r="OS2" t="n">
-        <v>-7.26222920377681</v>
+        <v>-133.4449742776694</v>
       </c>
       <c r="OT2" t="n">
-        <v>-7.11618205462624</v>
+        <v>-129.1605286523792</v>
       </c>
       <c r="OU2" t="n">
-        <v>-7.013543147860372</v>
+        <v>-135.5723642572771</v>
       </c>
       <c r="OV2" t="n">
-        <v>-6.881042354611488</v>
+        <v>-128.5153698777469</v>
       </c>
       <c r="OW2" t="n">
-        <v>-6.812096342006515</v>
+        <v>-135.0877346535551</v>
       </c>
       <c r="OX2" t="n">
-        <v>-6.703504391492839</v>
+        <v>-128.2448239756229</v>
       </c>
       <c r="OY2" t="n">
-        <v>-6.646829563665788</v>
+        <v>-126.7510103209642</v>
       </c>
       <c r="OZ2" t="n">
-        <v>-6.561219211447399</v>
+        <v>-126.7145063144593</v>
       </c>
       <c r="PA2" t="n">
-        <v>-6.518444233354798</v>
+        <v>-120.0764702748671</v>
       </c>
       <c r="PB2" t="n">
-        <v>-6.376311929524091</v>
+        <v>-126.2665807850317</v>
       </c>
       <c r="PC2" t="n">
-        <v>-6.246905054310005</v>
+        <v>-133.205696209282</v>
       </c>
       <c r="PD2" t="n">
-        <v>-6.244154976169322</v>
+        <v>-126.3891533608922</v>
       </c>
       <c r="PE2" t="n">
-        <v>-6.246430518512275</v>
+        <v>-124.1765345730059</v>
       </c>
       <c r="PF2" t="n">
-        <v>-6.268534127729228</v>
+        <v>-122.9109860077373</v>
       </c>
       <c r="PG2" t="n">
-        <v>-6.238739091031622</v>
+        <v>-119.2735163682572</v>
       </c>
       <c r="PH2" t="n">
-        <v>-6.255226111879423</v>
+        <v>-113.4506459731084</v>
       </c>
       <c r="PI2" t="n">
-        <v>-6.23052041248032</v>
+        <v>-121.0361227476508</v>
       </c>
       <c r="PJ2" t="n">
-        <v>-6.248617350143935</v>
+        <v>-115.1768963855705</v>
       </c>
       <c r="PK2" t="n">
-        <v>-6.160097522178863</v>
+        <v>-109.6465143849016</v>
       </c>
       <c r="PL2" t="n">
-        <v>-6.190504583753558</v>
+        <v>-117.4392173523119</v>
       </c>
       <c r="PM2" t="n">
-        <v>-6.137070581824359</v>
+        <v>-111.8247769064327</v>
       </c>
       <c r="PN2" t="n">
-        <v>-6.158405842603015</v>
+        <v>-111.2962633256756</v>
       </c>
       <c r="PO2" t="n">
-        <v>-6.188411949482842</v>
+        <v>-110.3931730312299</v>
       </c>
       <c r="PP2" t="n">
-        <v>-6.155887919400486</v>
+        <v>-118.0267404055567</v>
       </c>
       <c r="PQ2" t="n">
-        <v>-6.203564437102292</v>
+        <v>-112.5349840716118</v>
       </c>
       <c r="PR2" t="n">
-        <v>-6.180683225297482</v>
+        <v>-120.3588863760801</v>
       </c>
       <c r="PS2" t="n">
-        <v>-6.240871686825863</v>
+        <v>-129.0492792295964</v>
       </c>
       <c r="PT2" t="n">
-        <v>-6.258645201698095</v>
+        <v>-124.3760302608455</v>
       </c>
       <c r="PU2" t="n">
-        <v>-6.318227284799249</v>
+        <v>-132.924552419064</v>
       </c>
       <c r="PV2" t="n">
-        <v>-6.336644019483042</v>
+        <v>-130.849001647628</v>
       </c>
       <c r="PW2" t="n">
-        <v>-6.355882496034672</v>
+        <v>-129.0953612392292</v>
       </c>
       <c r="PX2" t="n">
-        <v>-6.4164851909287</v>
+        <v>-124.5141639631022</v>
       </c>
       <c r="PY2" t="n">
-        <v>-6.356475198353067</v>
+        <v>-123.3620460698194</v>
       </c>
       <c r="PZ2" t="n">
-        <v>-6.411505191815563</v>
+        <v>-123.7038676884806</v>
       </c>
       <c r="QA2" t="n">
-        <v>-6.390481408943846</v>
+        <v>-122.6502941379995</v>
       </c>
       <c r="QB2" t="n">
-        <v>-6.445209346237958</v>
+        <v>-123.146267817327</v>
       </c>
       <c r="QC2" t="n">
-        <v>-6.423150524822627</v>
+        <v>-120.9262919289614</v>
       </c>
       <c r="QD2" t="n">
-        <v>-6.479295453948754</v>
+        <v>-121.1149509452529</v>
       </c>
       <c r="QE2" t="n">
-        <v>-6.424206879100324</v>
+        <v>-122.2177685564307</v>
       </c>
       <c r="QF2" t="n">
-        <v>-6.44342696020061</v>
+        <v>-128.0845416945168</v>
       </c>
       <c r="QG2" t="n">
-        <v>-6.499795288482917</v>
+        <v>-127.0661594958251</v>
       </c>
       <c r="QH2" t="n">
-        <v>-6.480014061285028</v>
+        <v>-122.7393705837508</v>
       </c>
       <c r="QI2" t="n">
-        <v>-6.537109348979809</v>
+        <v>-130.2981534910927</v>
       </c>
       <c r="QJ2" t="n">
-        <v>-6.514140570575331</v>
+        <v>-138.7321827646067</v>
       </c>
       <c r="QK2" t="n">
-        <v>-6.528818357875648</v>
+        <v>-137.9639070739599</v>
       </c>
       <c r="QL2" t="n">
-        <v>-6.515138569668961</v>
+        <v>-137.5244106216968</v>
       </c>
       <c r="QM2" t="n">
-        <v>-6.58143387963424</v>
+        <v>-137.7495718198766</v>
       </c>
       <c r="QN2" t="n">
-        <v>-6.565708694600939</v>
+        <v>-142.1184929875909</v>
       </c>
       <c r="QO2" t="n">
-        <v>-6.62983886019036</v>
+        <v>-140.9179396276126</v>
       </c>
       <c r="QP2" t="n">
-        <v>-6.570881871029966</v>
+        <v>-145.2008798599734</v>
       </c>
       <c r="QQ2" t="n">
-        <v>-6.624063745474688</v>
+        <v>-144.4559733922362</v>
       </c>
       <c r="QR2" t="n">
-        <v>-6.638335710842399</v>
+        <v>-144.2922833398997</v>
       </c>
       <c r="QS2" t="n">
-        <v>-6.689158231460751</v>
+        <v>-142.0408139352852</v>
       </c>
       <c r="QT2" t="n">
-        <v>-6.668670516675046</v>
+        <v>-146.2221550492713</v>
       </c>
       <c r="QU2" t="n">
-        <v>-6.727931492587241</v>
+        <v>-152.1877746539431</v>
       </c>
       <c r="QV2" t="n">
-        <v>-6.665000893217535</v>
+        <v>-156.1539286886186</v>
       </c>
       <c r="QW2" t="n">
-        <v>-6.715059156392677</v>
+        <v>-154.207115677813</v>
       </c>
       <c r="QX2" t="n">
-        <v>-6.688742176792452</v>
+        <v>-158.6952204870364</v>
       </c>
       <c r="QY2" t="n">
-        <v>-6.65197682459052</v>
+        <v>-162.8982411396009</v>
       </c>
       <c r="QZ2" t="n">
-        <v>-6.685784499490309</v>
+        <v>-167.863311714878</v>
       </c>
       <c r="RA2" t="n">
-        <v>-6.623311109266478</v>
+        <v>-171.1514418544975</v>
       </c>
       <c r="RB2" t="n">
-        <v>-6.634107874313983</v>
+        <v>-169.1115069169927</v>
       </c>
       <c r="RC2" t="n">
-        <v>-6.579512349562373</v>
+        <v>-167.9049217418441</v>
       </c>
       <c r="RD2" t="n">
-        <v>-6.643038265596196</v>
+        <v>-167.4555424033108</v>
       </c>
       <c r="RE2" t="n">
-        <v>-6.617796625884718</v>
+        <v>-169.5353868636481</v>
       </c>
       <c r="RF2" t="n">
-        <v>-6.669476185302884</v>
+        <v>-173.164809706854</v>
       </c>
       <c r="RG2" t="n">
-        <v>-6.687455718334387</v>
+        <v>-177.6034602425505</v>
       </c>
       <c r="RH2" t="n">
-        <v>-6.745177893072573</v>
+        <v>-179.1387487881944</v>
       </c>
       <c r="RI2" t="n">
-        <v>-6.758897631316316</v>
+        <v>-183.5474044391317</v>
       </c>
       <c r="RJ2" t="n">
-        <v>-6.738718043567597</v>
+        <v>-185.1020293782008</v>
       </c>
       <c r="RK2" t="n">
-        <v>-6.719357262392643</v>
+        <v>-187.5831945375161</v>
       </c>
       <c r="RL2" t="n">
-        <v>-6.681399319963892</v>
+        <v>-180.2123173645276</v>
       </c>
       <c r="RM2" t="n">
-        <v>-6.705718294833614</v>
+        <v>-183.2219213999093</v>
       </c>
       <c r="RN2" t="n">
-        <v>-6.720514861164391</v>
+        <v>-187.2176047446179</v>
       </c>
       <c r="RO2" t="n">
-        <v>-6.685376553784094</v>
+        <v>-191.9662749847136</v>
       </c>
       <c r="RP2" t="n">
-        <v>-6.807286232022113</v>
+        <v>-193.514602391576</v>
       </c>
       <c r="RQ2" t="n">
-        <v>-7.007613324974687</v>
+        <v>-196.0007856145907</v>
       </c>
       <c r="RR2" t="n">
-        <v>-7.192002502219302</v>
+        <v>-197.3462818591261</v>
       </c>
       <c r="RS2" t="n">
-        <v>-7.303806794016142</v>
+        <v>-199.6743942558588</v>
       </c>
       <c r="RT2" t="n">
-        <v>-7.222968436592459</v>
+        <v>-203.0780277261717</v>
       </c>
       <c r="RU2" t="n">
-        <v>-7.144944286071514</v>
+        <v>-204.4720840130596</v>
       </c>
       <c r="RV2" t="n">
-        <v>-8.011784741471699</v>
+        <v>-206.9118819070873</v>
       </c>
       <c r="RW2" t="n">
-        <v>-12.97489802606025</v>
+        <v>-194.9937554365082</v>
       </c>
       <c r="RX2" t="n">
-        <v>-38.10871161280175</v>
+        <v>-183.616608517795</v>
       </c>
       <c r="RY2" t="n">
-        <v>-36.70892681070038</v>
+        <v>-185.7267806916694</v>
       </c>
       <c r="RZ2" t="n">
-        <v>-35.30554724256511</v>
+        <v>-188.9098539501223</v>
       </c>
       <c r="SA2" t="n">
-        <v>-38.47950283910419</v>
+        <v>-190.6885345940777</v>
       </c>
       <c r="SB2" t="n">
-        <v>-36.76507659826401</v>
+        <v>-193.5509362394126</v>
       </c>
       <c r="SC2" t="n">
-        <v>-35.24957262288186</v>
+        <v>-195.0390119797417</v>
       </c>
       <c r="SD2" t="n">
-        <v>-33.8268091408361</v>
+        <v>-197.6141137185094</v>
       </c>
       <c r="SE2" t="n">
-        <v>-32.16308688730037</v>
+        <v>-199.184280512461</v>
       </c>
       <c r="SF2" t="n">
-        <v>-30.60701100171688</v>
+        <v>-199.2956950857472</v>
       </c>
       <c r="SG2" t="n">
-        <v>-29.17743364174423</v>
+        <v>-200.4961172624836</v>
       </c>
     </row>
     <row r="3">
@@ -3445,1504 +3445,1504 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.820010180764789</v>
+        <v>284.1461294711114</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.410208938753346</v>
+        <v>388.6627231179451</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.803468588815449</v>
+        <v>457.7117759298916</v>
       </c>
       <c r="E3" t="n">
-        <v>-3.196492523721027</v>
+        <v>502.2487464962589</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.339171816712427</v>
+        <v>538.8124851869107</v>
       </c>
       <c r="G3" t="n">
-        <v>-3.438582972135468</v>
+        <v>566.0779830989298</v>
       </c>
       <c r="H3" t="n">
-        <v>-3.521916290264503</v>
+        <v>584.9545890362085</v>
       </c>
       <c r="I3" t="n">
-        <v>-3.591091793119733</v>
+        <v>599.604407432642</v>
       </c>
       <c r="J3" t="n">
-        <v>-3.646032070395431</v>
+        <v>607.3958479620215</v>
       </c>
       <c r="K3" t="n">
-        <v>-3.64833246001718</v>
+        <v>613.159116541525</v>
       </c>
       <c r="L3" t="n">
-        <v>-3.743994579431722</v>
+        <v>615.8956713855696</v>
       </c>
       <c r="M3" t="n">
-        <v>-3.815979098615677</v>
+        <v>617.7551952325751</v>
       </c>
       <c r="N3" t="n">
-        <v>-3.881237023015061</v>
+        <v>614.7178494469882</v>
       </c>
       <c r="O3" t="n">
-        <v>-3.966424067200256</v>
+        <v>615.2260919585291</v>
       </c>
       <c r="P3" t="n">
-        <v>-4.033044785028148</v>
+        <v>614.743587135334</v>
       </c>
       <c r="Q3" t="n">
-        <v>-4.032123441257795</v>
+        <v>615.4990908719968</v>
       </c>
       <c r="R3" t="n">
-        <v>-4.030398812933567</v>
+        <v>613.4532916502342</v>
       </c>
       <c r="S3" t="n">
-        <v>-4.154590940589674</v>
+        <v>611.1961382074528</v>
       </c>
       <c r="T3" t="n">
-        <v>-4.23680723445446</v>
+        <v>607.1316136314679</v>
       </c>
       <c r="U3" t="n">
-        <v>-4.227543844846463</v>
+        <v>609.8202017080312</v>
       </c>
       <c r="V3" t="n">
-        <v>-4.511420006547539</v>
+        <v>607.9688674620722</v>
       </c>
       <c r="W3" t="n">
-        <v>-5.102145037022154</v>
+        <v>605.6964721557118</v>
       </c>
       <c r="X3" t="n">
-        <v>-5.555861260858131</v>
+        <v>604.3604446093378</v>
       </c>
       <c r="Y3" t="n">
-        <v>-5.428547006375512</v>
+        <v>604.2281020638027</v>
       </c>
       <c r="Z3" t="n">
-        <v>-5.313041938508957</v>
+        <v>601.7581508815105</v>
       </c>
       <c r="AA3" t="n">
-        <v>-5.477253281912684</v>
+        <v>600.1279239742526</v>
       </c>
       <c r="AB3" t="n">
-        <v>-5.619965844766432</v>
+        <v>598.6619531975072</v>
       </c>
       <c r="AC3" t="n">
-        <v>-5.745805792924915</v>
+        <v>597.8312264015614</v>
       </c>
       <c r="AD3" t="n">
-        <v>-5.955341083792007</v>
+        <v>597.9194441698696</v>
       </c>
       <c r="AE3" t="n">
-        <v>-5.848506722720074</v>
+        <v>596.4738174739286</v>
       </c>
       <c r="AF3" t="n">
-        <v>-5.896644965329499</v>
+        <v>592.3765568003215</v>
       </c>
       <c r="AG3" t="n">
-        <v>-6.244739747024917</v>
+        <v>591.360339390883</v>
       </c>
       <c r="AH3" t="n">
-        <v>-6.037735609645347</v>
+        <v>590.0193901470485</v>
       </c>
       <c r="AI3" t="n">
-        <v>-5.845580200115521</v>
+        <v>589.516971213759</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-5.644017510934848</v>
+        <v>585.8664077691645</v>
       </c>
       <c r="AK3" t="n">
-        <v>-5.468595745567808</v>
+        <v>585.3394535725635</v>
       </c>
       <c r="AL3" t="n">
-        <v>-5.276094754745303</v>
+        <v>585.4762611660518</v>
       </c>
       <c r="AM3" t="n">
-        <v>-5.143991993932573</v>
+        <v>586.2743428378661</v>
       </c>
       <c r="AN3" t="n">
-        <v>-4.996386111248288</v>
+        <v>584.383226547691</v>
       </c>
       <c r="AO3" t="n">
-        <v>-4.879759368903991</v>
+        <v>584.6378219363646</v>
       </c>
       <c r="AP3" t="n">
-        <v>-4.770602713993683</v>
+        <v>583.6071001859826</v>
       </c>
       <c r="AQ3" t="n">
-        <v>-4.647823757522084</v>
+        <v>582.6875579544262</v>
       </c>
       <c r="AR3" t="n">
-        <v>-4.522839845959341</v>
+        <v>582.1762287064118</v>
       </c>
       <c r="AS3" t="n">
-        <v>-4.377951419088239</v>
+        <v>581.0660549437875</v>
       </c>
       <c r="AT3" t="n">
-        <v>-4.276114882203354</v>
+        <v>581.3728488638529</v>
       </c>
       <c r="AU3" t="n">
-        <v>-4.150914216472708</v>
+        <v>580.7717995348848</v>
       </c>
       <c r="AV3" t="n">
-        <v>-4.058508890721686</v>
+        <v>580.2239155011735</v>
       </c>
       <c r="AW3" t="n">
-        <v>-4.005870654521924</v>
+        <v>579.2997993743293</v>
       </c>
       <c r="AX3" t="n">
-        <v>-3.934916925424248</v>
+        <v>579.74463901579</v>
       </c>
       <c r="AY3" t="n">
-        <v>-3.888346045804827</v>
+        <v>580.238129103626</v>
       </c>
       <c r="AZ3" t="n">
-        <v>-3.827383843286678</v>
+        <v>576.960979140732</v>
       </c>
       <c r="BA3" t="n">
-        <v>-3.762964130066435</v>
+        <v>583.1952105659647</v>
       </c>
       <c r="BB3" t="n">
-        <v>-3.748447092180494</v>
+        <v>583.2242670720534</v>
       </c>
       <c r="BC3" t="n">
-        <v>-3.715696601577243</v>
+        <v>581.4665102686153</v>
       </c>
       <c r="BD3" t="n">
-        <v>-3.691455272789751</v>
+        <v>581.5363998691181</v>
       </c>
       <c r="BE3" t="n">
-        <v>-3.64787867366857</v>
+        <v>581.3116030046546</v>
       </c>
       <c r="BF3" t="n">
-        <v>-3.646514411882186</v>
+        <v>580.5051231284052</v>
       </c>
       <c r="BG3" t="n">
-        <v>-3.645556224166671</v>
+        <v>577.3780366436363</v>
       </c>
       <c r="BH3" t="n">
-        <v>-3.629374910003626</v>
+        <v>575.7950528485188</v>
       </c>
       <c r="BI3" t="n">
-        <v>-3.632257876392116</v>
+        <v>576.0548442181801</v>
       </c>
       <c r="BJ3" t="n">
-        <v>-3.636280863132063</v>
+        <v>573.5927104341275</v>
       </c>
       <c r="BK3" t="n">
-        <v>-3.641126556053664</v>
+        <v>573.4274205935146</v>
       </c>
       <c r="BL3" t="n">
-        <v>-3.626823131417956</v>
+        <v>573.3598614903678</v>
       </c>
       <c r="BM3" t="n">
-        <v>-3.611056219681879</v>
+        <v>573.7377802437105</v>
       </c>
       <c r="BN3" t="n">
-        <v>-3.621095821744035</v>
+        <v>574.8386945976217</v>
       </c>
       <c r="BO3" t="n">
-        <v>-3.614309936642477</v>
+        <v>574.6556385370127</v>
       </c>
       <c r="BP3" t="n">
-        <v>-3.598867777040368</v>
+        <v>576.0806179992753</v>
       </c>
       <c r="BQ3" t="n">
-        <v>-3.596167384707175</v>
+        <v>577.8303754357165</v>
       </c>
       <c r="BR3" t="n">
-        <v>-3.570631229025579</v>
+        <v>574.9762480826388</v>
       </c>
       <c r="BS3" t="n">
-        <v>-3.564082942811989</v>
+        <v>573.1567737860955</v>
       </c>
       <c r="BT3" t="n">
-        <v>-3.58253210266755</v>
+        <v>570.8985960456122</v>
       </c>
       <c r="BU3" t="n">
-        <v>-3.599871321294979</v>
+        <v>568.7671150596985</v>
       </c>
       <c r="BV3" t="n">
-        <v>-3.617075746881666</v>
+        <v>569.4950341075577</v>
       </c>
       <c r="BW3" t="n">
-        <v>-3.613957309051203</v>
+        <v>571.0449270611538</v>
       </c>
       <c r="BX3" t="n">
-        <v>-3.61668498244608</v>
+        <v>568.9556208663447</v>
       </c>
       <c r="BY3" t="n">
-        <v>-3.597901342713825</v>
+        <v>567.9411675689333</v>
       </c>
       <c r="BZ3" t="n">
-        <v>-3.618512776926083</v>
+        <v>567.6746199101129</v>
       </c>
       <c r="CA3" t="n">
-        <v>-3.620707253296128</v>
+        <v>571.1354001955871</v>
       </c>
       <c r="CB3" t="n">
-        <v>-3.636733855597939</v>
+        <v>572.3568565356662</v>
       </c>
       <c r="CC3" t="n">
-        <v>-3.656952349863936</v>
+        <v>567.1224260347093</v>
       </c>
       <c r="CD3" t="n">
-        <v>-3.658840302809418</v>
+        <v>547.253225020988</v>
       </c>
       <c r="CE3" t="n">
-        <v>-3.6770162267117</v>
+        <v>546.2046164142196</v>
       </c>
       <c r="CF3" t="n">
-        <v>-3.694534174575022</v>
+        <v>510.2384644592092</v>
       </c>
       <c r="CG3" t="n">
-        <v>-3.691884389629569</v>
+        <v>483.3027392040289</v>
       </c>
       <c r="CH3" t="n">
-        <v>-3.710653790450684</v>
+        <v>467.3777295062804</v>
       </c>
       <c r="CI3" t="n">
-        <v>-3.710972082642173</v>
+        <v>445.7895505655231</v>
       </c>
       <c r="CJ3" t="n">
-        <v>-3.728343567626093</v>
+        <v>447.6975626027497</v>
       </c>
       <c r="CK3" t="n">
-        <v>-3.744757768256436</v>
+        <v>436.9976013400579</v>
       </c>
       <c r="CL3" t="n">
-        <v>-3.742418918852365</v>
+        <v>412.6913318845193</v>
       </c>
       <c r="CM3" t="n">
-        <v>-3.758703803074989</v>
+        <v>400.3545585413841</v>
       </c>
       <c r="CN3" t="n">
-        <v>-3.758342990992531</v>
+        <v>401.626959486775</v>
       </c>
       <c r="CO3" t="n">
-        <v>-3.773930521534225</v>
+        <v>398.8104000362885</v>
       </c>
       <c r="CP3" t="n">
-        <v>-3.788682814950178</v>
+        <v>398.6720669634756</v>
       </c>
       <c r="CQ3" t="n">
-        <v>-3.782815490442522</v>
+        <v>406.6222822894375</v>
       </c>
       <c r="CR3" t="n">
-        <v>-3.793152663482271</v>
+        <v>398.7556965587282</v>
       </c>
       <c r="CS3" t="n">
-        <v>-3.806022860759503</v>
+        <v>407.049233497341</v>
       </c>
       <c r="CT3" t="n">
-        <v>-3.798110120493053</v>
+        <v>433.2439851546445</v>
       </c>
       <c r="CU3" t="n">
-        <v>-3.806776347104755</v>
+        <v>411.8665031159523</v>
       </c>
       <c r="CV3" t="n">
-        <v>-3.819457477070185</v>
+        <v>348.4403207800779</v>
       </c>
       <c r="CW3" t="n">
-        <v>-3.813714528410409</v>
+        <v>316.1297864255209</v>
       </c>
       <c r="CX3" t="n">
-        <v>-3.824917345942459</v>
+        <v>292.0528323077529</v>
       </c>
       <c r="CY3" t="n">
-        <v>-3.83541793888835</v>
+        <v>269.6466122770816</v>
       </c>
       <c r="CZ3" t="n">
-        <v>-3.82692365489476</v>
+        <v>259.8867167310652</v>
       </c>
       <c r="DA3" t="n">
-        <v>-3.821877382638906</v>
+        <v>242.0684084972424</v>
       </c>
       <c r="DB3" t="n">
-        <v>-3.816972421831281</v>
+        <v>230.5553049053272</v>
       </c>
       <c r="DC3" t="n">
-        <v>-3.790277736251783</v>
+        <v>225.4763099283273</v>
       </c>
       <c r="DD3" t="n">
-        <v>-3.760484187906472</v>
+        <v>218.139351463582</v>
       </c>
       <c r="DE3" t="n">
-        <v>-3.773969574315559</v>
+        <v>210.1505904043791</v>
       </c>
       <c r="DF3" t="n">
-        <v>-3.769113561792586</v>
+        <v>204.6354816240101</v>
       </c>
       <c r="DG3" t="n">
-        <v>-3.758600519646717</v>
+        <v>204.264088671921</v>
       </c>
       <c r="DH3" t="n">
-        <v>-3.772798278608318</v>
+        <v>204.3719486963203</v>
       </c>
       <c r="DI3" t="n">
-        <v>-3.766521125349465</v>
+        <v>201.1173553525054</v>
       </c>
       <c r="DJ3" t="n">
-        <v>-3.77971441876555</v>
+        <v>195.5198620667102</v>
       </c>
       <c r="DK3" t="n">
-        <v>-3.776463305570798</v>
+        <v>191.2507903522101</v>
       </c>
       <c r="DL3" t="n">
-        <v>-3.789120549522162</v>
+        <v>185.4075092265851</v>
       </c>
       <c r="DM3" t="n">
-        <v>-3.784520428738641</v>
+        <v>179.7795314126101</v>
       </c>
       <c r="DN3" t="n">
-        <v>-3.792299257312627</v>
+        <v>172.0146667705778</v>
       </c>
       <c r="DO3" t="n">
-        <v>-3.80447774941804</v>
+        <v>163.1708114602512</v>
       </c>
       <c r="DP3" t="n">
-        <v>-3.798261516671422</v>
+        <v>147.7347345853499</v>
       </c>
       <c r="DQ3" t="n">
-        <v>-3.809693370787076</v>
+        <v>136.6467049138255</v>
       </c>
       <c r="DR3" t="n">
-        <v>-3.820482905791968</v>
+        <v>128.8415288189141</v>
       </c>
       <c r="DS3" t="n">
-        <v>-3.810626142345273</v>
+        <v>122.3829539278343</v>
       </c>
       <c r="DT3" t="n">
-        <v>-3.797897042012579</v>
+        <v>103.6977104626362</v>
       </c>
       <c r="DU3" t="n">
-        <v>-3.809093328698042</v>
+        <v>102.7572983207578</v>
       </c>
       <c r="DV3" t="n">
-        <v>-3.801550486402946</v>
+        <v>106.1780779940123</v>
       </c>
       <c r="DW3" t="n">
-        <v>-3.788591131514721</v>
+        <v>92.8421894267547</v>
       </c>
       <c r="DX3" t="n">
-        <v>-3.80084199589761</v>
+        <v>77.53878534283612</v>
       </c>
       <c r="DY3" t="n">
-        <v>-3.796892803152895</v>
+        <v>80.70925184778204</v>
       </c>
       <c r="DZ3" t="n">
-        <v>-3.791649126363796</v>
+        <v>86.89893682644117</v>
       </c>
       <c r="EA3" t="n">
-        <v>-3.764491121781416</v>
+        <v>81.8363163580086</v>
       </c>
       <c r="EB3" t="n">
-        <v>-3.761506945286233</v>
+        <v>86.14657986032871</v>
       </c>
       <c r="EC3" t="n">
-        <v>-3.736608608652475</v>
+        <v>92.54921004100636</v>
       </c>
       <c r="ED3" t="n">
-        <v>-3.751169310172839</v>
+        <v>85.78909297803536</v>
       </c>
       <c r="EE3" t="n">
-        <v>-3.747402369528966</v>
+        <v>65.11272320372848</v>
       </c>
       <c r="EF3" t="n">
-        <v>-3.761607074982375</v>
+        <v>70.69486948700899</v>
       </c>
       <c r="EG3" t="n">
-        <v>-3.757288003283959</v>
+        <v>74.377495799415</v>
       </c>
       <c r="EH3" t="n">
-        <v>-3.770948461935712</v>
+        <v>62.04135395699721</v>
       </c>
       <c r="EI3" t="n">
-        <v>-3.763936551795589</v>
+        <v>67.42370805598613</v>
       </c>
       <c r="EJ3" t="n">
-        <v>-3.754013792992653</v>
+        <v>63.2118812301126</v>
       </c>
       <c r="EK3" t="n">
-        <v>-3.767922851924746</v>
+        <v>71.43766748003293</v>
       </c>
       <c r="EL3" t="n">
-        <v>-3.781979902336324</v>
+        <v>69.53984883324601</v>
       </c>
       <c r="EM3" t="n">
-        <v>-3.795319251298686</v>
+        <v>75.08620265287188</v>
       </c>
       <c r="EN3" t="n">
-        <v>-3.791812204638942</v>
+        <v>82.73973833810737</v>
       </c>
       <c r="EO3" t="n">
-        <v>-3.788013211580953</v>
+        <v>76.47135789082897</v>
       </c>
       <c r="EP3" t="n">
-        <v>-3.762241875572158</v>
+        <v>63.82405614336184</v>
       </c>
       <c r="EQ3" t="n">
-        <v>-3.733693029197363</v>
+        <v>68.89253966635577</v>
       </c>
       <c r="ER3" t="n">
-        <v>-3.749538301966472</v>
+        <v>72.61946180429264</v>
       </c>
       <c r="ES3" t="n">
-        <v>-3.747014521786701</v>
+        <v>77.11156904349923</v>
       </c>
       <c r="ET3" t="n">
-        <v>-3.761684708874149</v>
+        <v>83.02633024964416</v>
       </c>
       <c r="EU3" t="n">
-        <v>-3.775650964938757</v>
+        <v>89.37463549839009</v>
       </c>
       <c r="EV3" t="n">
-        <v>-3.77104318039396</v>
+        <v>91.78281877998967</v>
       </c>
       <c r="EW3" t="n">
-        <v>-3.78514083136697</v>
+        <v>96.68313120762842</v>
       </c>
       <c r="EX3" t="n">
-        <v>-3.782369884212719</v>
+        <v>102.3116636341416</v>
       </c>
       <c r="EY3" t="n">
-        <v>-3.7798655497596</v>
+        <v>95.11819985177847</v>
       </c>
       <c r="EZ3" t="n">
-        <v>-3.755528317819246</v>
+        <v>85.06905821795121</v>
       </c>
       <c r="FA3" t="n">
-        <v>-3.753814506419495</v>
+        <v>93.17262670913993</v>
       </c>
       <c r="FB3" t="n">
-        <v>-3.752236569177567</v>
+        <v>90.72341910906184</v>
       </c>
       <c r="FC3" t="n">
-        <v>-3.728652681338625</v>
+        <v>96.46558133676666</v>
       </c>
       <c r="FD3" t="n">
-        <v>-3.721402272241908</v>
+        <v>100.8906904719964</v>
       </c>
       <c r="FE3" t="n">
-        <v>-3.73818159558606</v>
+        <v>94.16931027633733</v>
       </c>
       <c r="FF3" t="n">
-        <v>-3.736292588730884</v>
+        <v>81.2776346982665</v>
       </c>
       <c r="FG3" t="n">
-        <v>-3.728461190485741</v>
+        <v>84.61703140907855</v>
       </c>
       <c r="FH3" t="n">
-        <v>-3.744461516392966</v>
+        <v>84.64804138471466</v>
       </c>
       <c r="FI3" t="n">
-        <v>-3.741582822853422</v>
+        <v>89.5562342601839</v>
       </c>
       <c r="FJ3" t="n">
-        <v>-3.757797408827674</v>
+        <v>90.09048401306156</v>
       </c>
       <c r="FK3" t="n">
-        <v>-3.757075751489654</v>
+        <v>93.46292495240763</v>
       </c>
       <c r="FL3" t="n">
-        <v>-3.748876278177848</v>
+        <v>96.53196448516594</v>
       </c>
       <c r="FM3" t="n">
-        <v>-3.763942067715019</v>
+        <v>99.39484301680066</v>
       </c>
       <c r="FN3" t="n">
-        <v>-3.761642497891453</v>
+        <v>95.30916765245992</v>
       </c>
       <c r="FO3" t="n">
-        <v>-3.776102133791274</v>
+        <v>91.42511916343393</v>
       </c>
       <c r="FP3" t="n">
-        <v>-3.771669822090947</v>
+        <v>84.97468687718158</v>
       </c>
       <c r="FQ3" t="n">
-        <v>-3.781189880860067</v>
+        <v>86.63991471409662</v>
       </c>
       <c r="FR3" t="n">
-        <v>-3.795283818755515</v>
+        <v>79.88853113589292</v>
       </c>
       <c r="FS3" t="n">
-        <v>-3.790942756397083</v>
+        <v>86.53419955201208</v>
       </c>
       <c r="FT3" t="n">
-        <v>-3.780797854985534</v>
+        <v>93.54666373736703</v>
       </c>
       <c r="FU3" t="n">
-        <v>-3.77870977983524</v>
+        <v>102.007947777621</v>
       </c>
       <c r="FV3" t="n">
-        <v>-3.756070149597078</v>
+        <v>106.8137966298128</v>
       </c>
       <c r="FW3" t="n">
-        <v>-3.728808134735459</v>
+        <v>110.3626499654431</v>
       </c>
       <c r="FX3" t="n">
-        <v>-3.728360182291878</v>
+        <v>115.2504546933719</v>
       </c>
       <c r="FY3" t="n">
-        <v>-3.707179665372955</v>
+        <v>118.0349471195726</v>
       </c>
       <c r="FZ3" t="n">
-        <v>-3.724509552911099</v>
+        <v>119.8601846778503</v>
       </c>
       <c r="GA3" t="n">
-        <v>-3.723198583121973</v>
+        <v>124.464339293952</v>
       </c>
       <c r="GB3" t="n">
-        <v>-3.73986364943526</v>
+        <v>129.6349082680817</v>
       </c>
       <c r="GC3" t="n">
-        <v>-3.739390693269302</v>
+        <v>134.6994672913774</v>
       </c>
       <c r="GD3" t="n">
-        <v>-3.739431767542564</v>
+        <v>145.8855210143583</v>
       </c>
       <c r="GE3" t="n">
-        <v>-3.739508971910899</v>
+        <v>147.9295251125614</v>
       </c>
       <c r="GF3" t="n">
-        <v>-3.717481743807501</v>
+        <v>148.5167185738225</v>
       </c>
       <c r="GG3" t="n">
-        <v>-3.734726267131419</v>
+        <v>149.3800222719303</v>
       </c>
       <c r="GH3" t="n">
-        <v>-3.751150742119623</v>
+        <v>150.323193749293</v>
       </c>
       <c r="GI3" t="n">
-        <v>-3.748884522075448</v>
+        <v>151.4917087997263</v>
       </c>
       <c r="GJ3" t="n">
-        <v>-3.764554520222493</v>
+        <v>163.8753822378181</v>
       </c>
       <c r="GK3" t="n">
-        <v>-3.763055905541029</v>
+        <v>165.6417084807359</v>
       </c>
       <c r="GL3" t="n">
-        <v>-3.777945683357605</v>
+        <v>167.2009971637089</v>
       </c>
       <c r="GM3" t="n">
-        <v>-3.775674319701991</v>
+        <v>166.7328808335778</v>
       </c>
       <c r="GN3" t="n">
-        <v>-3.790254944360666</v>
+        <v>175.8324194290882</v>
       </c>
       <c r="GO3" t="n">
-        <v>-3.786152426304691</v>
+        <v>186.0688008837055</v>
       </c>
       <c r="GP3" t="n">
-        <v>-3.783634085841054</v>
+        <v>185.7291538527134</v>
       </c>
       <c r="GQ3" t="n">
-        <v>-3.797171036069227</v>
+        <v>193.0748595485271</v>
       </c>
       <c r="GR3" t="n">
-        <v>-3.809930068769028</v>
+        <v>201.5584234600204</v>
       </c>
       <c r="GS3" t="n">
-        <v>-3.804055008507663</v>
+        <v>200.2322342811259</v>
       </c>
       <c r="GT3" t="n">
-        <v>-3.816202426529833</v>
+        <v>206.326775230873</v>
       </c>
       <c r="GU3" t="n">
-        <v>-3.827609012545854</v>
+        <v>200.0622639347925</v>
       </c>
       <c r="GV3" t="n">
-        <v>-3.821831563972169</v>
+        <v>193.583060627682</v>
       </c>
       <c r="GW3" t="n">
-        <v>-3.828017372610024</v>
+        <v>192.5044374241699</v>
       </c>
       <c r="GX3" t="n">
-        <v>-3.822492097584385</v>
+        <v>197.6399046378702</v>
       </c>
       <c r="GY3" t="n">
-        <v>-3.795144543566138</v>
+        <v>203.9399762648713</v>
       </c>
       <c r="GZ3" t="n">
-        <v>-3.787519877893698</v>
+        <v>202.7788686508233</v>
       </c>
       <c r="HA3" t="n">
-        <v>-3.759459570373489</v>
+        <v>207.839143579274</v>
       </c>
       <c r="HB3" t="n">
-        <v>-3.75941707036933</v>
+        <v>213.8003305317535</v>
       </c>
       <c r="HC3" t="n">
-        <v>-3.739752034046135</v>
+        <v>209.9149413872978</v>
       </c>
       <c r="HD3" t="n">
-        <v>-3.526766351787892</v>
+        <v>207.6606117509875</v>
       </c>
       <c r="HE3" t="n">
-        <v>-3.401329733189017</v>
+        <v>209.985802750444</v>
       </c>
       <c r="HF3" t="n">
-        <v>-3.780507550812086</v>
+        <v>213.8325956551804</v>
       </c>
       <c r="HG3" t="n">
-        <v>-4.140638015635266</v>
+        <v>210.4373258583578</v>
       </c>
       <c r="HH3" t="n">
-        <v>-3.810053914867376</v>
+        <v>214.5609865065838</v>
       </c>
       <c r="HI3" t="n">
-        <v>-8.927104408719615</v>
+        <v>220.1102873897752</v>
       </c>
       <c r="HJ3" t="n">
-        <v>-8.970540851377029</v>
+        <v>214.7251815610524</v>
       </c>
       <c r="HK3" t="n">
-        <v>-9.466942370883036</v>
+        <v>218.2325587882775</v>
       </c>
       <c r="HL3" t="n">
-        <v>-10.17226407705138</v>
+        <v>212.9647536477572</v>
       </c>
       <c r="HM3" t="n">
-        <v>-9.948065603212809</v>
+        <v>214.6235036718854</v>
       </c>
       <c r="HN3" t="n">
-        <v>-9.767371389524012</v>
+        <v>217.4341097787136</v>
       </c>
       <c r="HO3" t="n">
-        <v>-9.854205015500218</v>
+        <v>213.1747336614224</v>
       </c>
       <c r="HP3" t="n">
-        <v>-9.558052641290455</v>
+        <v>215.9794348121702</v>
       </c>
       <c r="HQ3" t="n">
-        <v>-9.382308188428825</v>
+        <v>220.4457765906348</v>
       </c>
       <c r="HR3" t="n">
-        <v>-9.062156479366836</v>
+        <v>214.7034342547828</v>
       </c>
       <c r="HS3" t="n">
-        <v>-8.849507030454795</v>
+        <v>216.0309605959272</v>
       </c>
       <c r="HT3" t="n">
-        <v>-8.391879267129578</v>
+        <v>218.5834927835826</v>
       </c>
       <c r="HU3" t="n">
-        <v>-8.000181385295582</v>
+        <v>213.6132260855531</v>
       </c>
       <c r="HV3" t="n">
-        <v>-7.516784774379357</v>
+        <v>214.3055209109972</v>
       </c>
       <c r="HW3" t="n">
-        <v>-6.937756317609654</v>
+        <v>209.1799251241488</v>
       </c>
       <c r="HX3" t="n">
-        <v>-6.421108563491595</v>
+        <v>203.3938068162832</v>
       </c>
       <c r="HY3" t="n">
-        <v>-6.256716053190766</v>
+        <v>204.2391957570185</v>
       </c>
       <c r="HZ3" t="n">
-        <v>-6.101366248191016</v>
+        <v>206.7729596792065</v>
       </c>
       <c r="IA3" t="n">
-        <v>-5.960995160995894</v>
+        <v>202.5375480303586</v>
       </c>
       <c r="IB3" t="n">
-        <v>-5.787989327822633</v>
+        <v>205.6502150430241</v>
       </c>
       <c r="IC3" t="n">
-        <v>-5.625507384375791</v>
+        <v>210.3002651568479</v>
       </c>
       <c r="ID3" t="n">
-        <v>-5.684469718301599</v>
+        <v>204.3239552793373</v>
       </c>
       <c r="IE3" t="n">
-        <v>-5.442573585259261</v>
+        <v>206.597831682487</v>
       </c>
       <c r="IF3" t="n">
-        <v>-5.215238263146834</v>
+        <v>201.9252470303352</v>
       </c>
       <c r="IG3" t="n">
-        <v>-5.08671238452103</v>
+        <v>204.3041637785733</v>
       </c>
       <c r="IH3" t="n">
-        <v>-4.811569293523297</v>
+        <v>208.6828990579759</v>
       </c>
       <c r="II3" t="n">
-        <v>-4.584650191995658</v>
+        <v>203.068937871693</v>
       </c>
       <c r="IJ3" t="n">
-        <v>-4.371808531579321</v>
+        <v>205.362754420326</v>
       </c>
       <c r="IK3" t="n">
-        <v>-4.295939068309852</v>
+        <v>200.6645804443932</v>
       </c>
       <c r="IL3" t="n">
-        <v>-4.300087115555001</v>
+        <v>203.0745192856552</v>
       </c>
       <c r="IM3" t="n">
-        <v>-4.273103839985055</v>
+        <v>207.4876541056075</v>
       </c>
       <c r="IN3" t="n">
-        <v>-4.241794671408019</v>
+        <v>202.6363545571028</v>
       </c>
       <c r="IO3" t="n">
-        <v>-4.282127255304607</v>
+        <v>204.8111896594216</v>
       </c>
       <c r="IP3" t="n">
-        <v>-4.313481693237245</v>
+        <v>209.4885034194044</v>
       </c>
       <c r="IQ3" t="n">
-        <v>-4.359839881999539</v>
+        <v>205.1040345259356</v>
       </c>
       <c r="IR3" t="n">
-        <v>-4.393670783630017</v>
+        <v>206.2954134578509</v>
       </c>
       <c r="IS3" t="n">
-        <v>-4.442102034857597</v>
+        <v>201.8936300208306</v>
       </c>
       <c r="IT3" t="n">
-        <v>-4.480732589351874</v>
+        <v>203.5371565562264</v>
       </c>
       <c r="IU3" t="n">
-        <v>-4.526754011849285</v>
+        <v>198.0516507113339</v>
       </c>
       <c r="IV3" t="n">
-        <v>-4.558708222358434</v>
+        <v>201.2658166570263</v>
       </c>
       <c r="IW3" t="n">
-        <v>-4.607387705686428</v>
+        <v>206.5290800116718</v>
       </c>
       <c r="IX3" t="n">
-        <v>-4.645380395789535</v>
+        <v>201.5600664607364</v>
       </c>
       <c r="IY3" t="n">
-        <v>-4.664265553304289</v>
+        <v>204.5804263292692</v>
       </c>
       <c r="IZ3" t="n">
-        <v>-4.714424388079459</v>
+        <v>199.8307592423698</v>
       </c>
       <c r="JA3" t="n">
-        <v>-4.752473054520062</v>
+        <v>202.4534554937389</v>
       </c>
       <c r="JB3" t="n">
-        <v>-4.789639433845216</v>
+        <v>198.2957960839593</v>
       </c>
       <c r="JC3" t="n">
-        <v>-4.810973378491425</v>
+        <v>200.9710725814027</v>
       </c>
       <c r="JD3" t="n">
-        <v>-4.852078592049915</v>
+        <v>205.0926240157214</v>
       </c>
       <c r="JE3" t="n">
-        <v>-4.896586363600138</v>
+        <v>198.9907401296528</v>
       </c>
       <c r="JF3" t="n">
-        <v>-4.939264941733516</v>
+        <v>202.1647846153291</v>
       </c>
       <c r="JG3" t="n">
-        <v>-4.970850831418264</v>
+        <v>207.3984439803306</v>
       </c>
       <c r="JH3" t="n">
-        <v>-4.98786276344801</v>
+        <v>202.2383953225196</v>
       </c>
       <c r="JI3" t="n">
-        <v>-5.017983763558843</v>
+        <v>204.6618015286104</v>
       </c>
       <c r="JJ3" t="n">
-        <v>-5.035823845391283</v>
+        <v>199.4111761003315</v>
       </c>
       <c r="JK3" t="n">
-        <v>-5.04141835927995</v>
+        <v>202.6523456877928</v>
       </c>
       <c r="JL3" t="n">
-        <v>-5.046697257739998</v>
+        <v>207.9507740802041</v>
       </c>
       <c r="JM3" t="n">
-        <v>-5.037081407329171</v>
+        <v>203.176751021509</v>
       </c>
       <c r="JN3" t="n">
-        <v>-5.029167963260719</v>
+        <v>203.8412385028057</v>
       </c>
       <c r="JO3" t="n">
-        <v>-5.016694791802983</v>
+        <v>207.4053801318213</v>
       </c>
       <c r="JP3" t="n">
-        <v>-5.020385829232172</v>
+        <v>203.0689908895656</v>
       </c>
       <c r="JQ3" t="n">
-        <v>-5.00563047601823</v>
+        <v>204.498045140047</v>
       </c>
       <c r="JR3" t="n">
-        <v>-4.974205700226185</v>
+        <v>207.1844028700329</v>
       </c>
       <c r="JS3" t="n">
-        <v>-4.980113019660478</v>
+        <v>199.8498190727765</v>
       </c>
       <c r="JT3" t="n">
-        <v>-4.971462063958104</v>
+        <v>181.4790532791981</v>
       </c>
       <c r="JU3" t="n">
-        <v>-4.978068979112198</v>
+        <v>179.182868063035</v>
       </c>
       <c r="JV3" t="n">
-        <v>-5.011797915245539</v>
+        <v>182.7811075927462</v>
       </c>
       <c r="JW3" t="n">
-        <v>-5.043855933971431</v>
+        <v>174.1531480664451</v>
       </c>
       <c r="JX3" t="n">
-        <v>-5.062273057213297</v>
+        <v>166.0245025620671</v>
       </c>
       <c r="JY3" t="n">
-        <v>-5.064237066131551</v>
+        <v>164.9014461927111</v>
       </c>
       <c r="JZ3" t="n">
-        <v>-5.051153222185848</v>
+        <v>169.9851201735937</v>
       </c>
       <c r="KA3" t="n">
-        <v>-5.224875045311791</v>
+        <v>153.8213434682282</v>
       </c>
       <c r="KB3" t="n">
-        <v>-5.646025199484491</v>
+        <v>148.0139249387356</v>
       </c>
       <c r="KC3" t="n">
-        <v>-5.953469266940927</v>
+        <v>133.8219256785862</v>
       </c>
       <c r="KD3" t="n">
-        <v>-6.559086160855769</v>
+        <v>121.0730755261276</v>
       </c>
       <c r="KE3" t="n">
-        <v>-6.746204266907133</v>
+        <v>117.1082922844483</v>
       </c>
       <c r="KF3" t="n">
-        <v>-6.899466440758188</v>
+        <v>105.869944373614</v>
       </c>
       <c r="KG3" t="n">
-        <v>-6.955932059048003</v>
+        <v>102.8857728782388</v>
       </c>
       <c r="KH3" t="n">
-        <v>-6.756853472827169</v>
+        <v>91.32632485305638</v>
       </c>
       <c r="KI3" t="n">
-        <v>-6.629518599912729</v>
+        <v>93.6500558469186</v>
       </c>
       <c r="KJ3" t="n">
-        <v>-6.510038593753365</v>
+        <v>103.2533493567848</v>
       </c>
       <c r="KK3" t="n">
-        <v>-6.460682660543176</v>
+        <v>115.3240317433363</v>
       </c>
       <c r="KL3" t="n">
-        <v>-6.34084728970238</v>
+        <v>117.0817564772166</v>
       </c>
       <c r="KM3" t="n">
-        <v>-6.21562492802927</v>
+        <v>119.3781003488968</v>
       </c>
       <c r="KN3" t="n">
-        <v>-6.170712092472155</v>
+        <v>127.5171287715175</v>
       </c>
       <c r="KO3" t="n">
-        <v>-6.143490649663592</v>
+        <v>123.8069539111789</v>
       </c>
       <c r="KP3" t="n">
-        <v>-6.112250740878233</v>
+        <v>112.431272422936</v>
       </c>
       <c r="KQ3" t="n">
-        <v>-6.132535374933903</v>
+        <v>114.6655185414742</v>
       </c>
       <c r="KR3" t="n">
-        <v>-6.038348702118792</v>
+        <v>124.2408135905961</v>
       </c>
       <c r="KS3" t="n">
-        <v>-5.904912863522799</v>
+        <v>134.8840713471923</v>
       </c>
       <c r="KT3" t="n">
-        <v>-5.823590605254957</v>
+        <v>135.2512480870298</v>
       </c>
       <c r="KU3" t="n">
-        <v>-5.687458499703403</v>
+        <v>133.9047299704353</v>
       </c>
       <c r="KV3" t="n">
-        <v>-5.635264724988224</v>
+        <v>140.4065913864621</v>
       </c>
       <c r="KW3" t="n">
-        <v>-5.586157775720283</v>
+        <v>136.8640598589943</v>
       </c>
       <c r="KX3" t="n">
-        <v>-5.376692514245458</v>
+        <v>142.5506944398095</v>
       </c>
       <c r="KY3" t="n">
-        <v>-5.331967368552676</v>
+        <v>139.1266467193788</v>
       </c>
       <c r="KZ3" t="n">
-        <v>-5.102325257331501</v>
+        <v>135.5961599907946</v>
       </c>
       <c r="LA3" t="n">
-        <v>-4.937979260580474</v>
+        <v>129.3725307194963</v>
       </c>
       <c r="LB3" t="n">
-        <v>-4.931347761916055</v>
+        <v>135.9151501983268</v>
       </c>
       <c r="LC3" t="n">
-        <v>-4.927008726685809</v>
+        <v>144.0530860936889</v>
       </c>
       <c r="LD3" t="n">
-        <v>-4.94160082282691</v>
+        <v>138.4264725893288</v>
       </c>
       <c r="LE3" t="n">
-        <v>-4.977558320134833</v>
+        <v>132.1322090322802</v>
       </c>
       <c r="LF3" t="n">
-        <v>-5.013264768606799</v>
+        <v>130.4554516149491</v>
       </c>
       <c r="LG3" t="n">
-        <v>-5.037057691486531</v>
+        <v>128.891356754288</v>
       </c>
       <c r="LH3" t="n">
-        <v>-5.018131066701021</v>
+        <v>126.9806205485545</v>
       </c>
       <c r="LI3" t="n">
-        <v>-4.935350076650833</v>
+        <v>128.3206696160174</v>
       </c>
       <c r="LJ3" t="n">
-        <v>-4.975939445377094</v>
+        <v>126.3700888778963</v>
       </c>
       <c r="LK3" t="n">
-        <v>-4.97804131605332</v>
+        <v>132.5518030137402</v>
       </c>
       <c r="LL3" t="n">
-        <v>-5.015908941507755</v>
+        <v>129.6067744446811</v>
       </c>
       <c r="LM3" t="n">
-        <v>-5.040878674999978</v>
+        <v>135.0590928983062</v>
       </c>
       <c r="LN3" t="n">
-        <v>-5.062996508734707</v>
+        <v>141.909637110365</v>
       </c>
       <c r="LO3" t="n">
-        <v>-5.099846826729252</v>
+        <v>139.060755242399</v>
       </c>
       <c r="LP3" t="n">
-        <v>-5.135466085554825</v>
+        <v>143.240296969359</v>
       </c>
       <c r="LQ3" t="n">
-        <v>-5.160927241652325</v>
+        <v>148.8959985993357</v>
       </c>
       <c r="LR3" t="n">
-        <v>-5.22214099765927</v>
+        <v>146.1018703730507</v>
       </c>
       <c r="LS3" t="n">
-        <v>-5.273870751077498</v>
+        <v>148.9963818499325</v>
       </c>
       <c r="LT3" t="n">
-        <v>-5.295157378531436</v>
+        <v>145.0016238873647</v>
       </c>
       <c r="LU3" t="n">
-        <v>-5.305240864518455</v>
+        <v>147.7463416240473</v>
       </c>
       <c r="LV3" t="n">
-        <v>-5.341085963855523</v>
+        <v>151.8483623270719</v>
       </c>
       <c r="LW3" t="n">
-        <v>-5.313924288353529</v>
+        <v>144.1501250449129</v>
       </c>
       <c r="LX3" t="n">
-        <v>-5.269181201039506</v>
+        <v>148.88322799702</v>
       </c>
       <c r="LY3" t="n">
-        <v>-5.274231585180991</v>
+        <v>141.361716494136</v>
       </c>
       <c r="LZ3" t="n">
-        <v>-5.279092769642444</v>
+        <v>144.155060057836</v>
       </c>
       <c r="MA3" t="n">
-        <v>-5.256242602493712</v>
+        <v>140.2693625320288</v>
       </c>
       <c r="MB3" t="n">
-        <v>-5.220273925725236</v>
+        <v>143.0372834956694</v>
       </c>
       <c r="MC3" t="n">
-        <v>-5.167963161011394</v>
+        <v>147.213647971513</v>
       </c>
       <c r="MD3" t="n">
-        <v>-5.150787606628537</v>
+        <v>139.5024253334795</v>
       </c>
       <c r="ME3" t="n">
-        <v>-5.120877744154996</v>
+        <v>144.579354327702</v>
       </c>
       <c r="MF3" t="n">
-        <v>-5.108548298976054</v>
+        <v>140.2213754545504</v>
       </c>
       <c r="MG3" t="n">
-        <v>-5.083085948791277</v>
+        <v>145.2384677636824</v>
       </c>
       <c r="MH3" t="n">
-        <v>-5.099930020087391</v>
+        <v>152.1572137157755</v>
       </c>
       <c r="MI3" t="n">
-        <v>-5.104805693883426</v>
+        <v>143.098601823679</v>
       </c>
       <c r="MJ3" t="n">
-        <v>-5.093828758765347</v>
+        <v>139.196304656766</v>
       </c>
       <c r="MK3" t="n">
-        <v>-5.065505005328486</v>
+        <v>141.7117531130466</v>
       </c>
       <c r="ML3" t="n">
-        <v>-5.056792667111458</v>
+        <v>146.2095478224738</v>
       </c>
       <c r="MM3" t="n">
-        <v>-5.035032353814914</v>
+        <v>142.0732664781917</v>
       </c>
       <c r="MN3" t="n">
-        <v>-5.029237157957533</v>
+        <v>144.3066205438935</v>
       </c>
       <c r="MO3" t="n">
-        <v>-5.005917220843117</v>
+        <v>147.9017645407441</v>
       </c>
       <c r="MP3" t="n">
-        <v>-5.029970245511085</v>
+        <v>139.9684109058188</v>
       </c>
       <c r="MQ3" t="n">
-        <v>-5.041691883057005</v>
+        <v>136.4233587423452</v>
       </c>
       <c r="MR3" t="n">
-        <v>-5.043631912869794</v>
+        <v>134.0362622664065</v>
       </c>
       <c r="MS3" t="n">
-        <v>-5.04580197863672</v>
+        <v>140.5290260414443</v>
       </c>
       <c r="MT3" t="n">
-        <v>-5.035319363515862</v>
+        <v>136.6943873015165</v>
       </c>
       <c r="MU3" t="n">
-        <v>-5.042792768207791</v>
+        <v>133.0650910618001</v>
       </c>
       <c r="MV3" t="n">
-        <v>-5.033790011668364</v>
+        <v>125.9371648403949</v>
       </c>
       <c r="MW3" t="n">
-        <v>-5.031139749186363</v>
+        <v>130.6034150554724</v>
       </c>
       <c r="MX3" t="n">
-        <v>-5.028902099322846</v>
+        <v>126.88396739437</v>
       </c>
       <c r="MY3" t="n">
-        <v>-5.012682177962771</v>
+        <v>131.5628033041538</v>
       </c>
       <c r="MZ3" t="n">
-        <v>-5.039528703300872</v>
+        <v>138.0411729500021</v>
       </c>
       <c r="NA3" t="n">
-        <v>-5.05019162964099</v>
+        <v>133.2288157371436</v>
       </c>
       <c r="NB3" t="n">
-        <v>-5.040579366723647</v>
+        <v>128.6714702361515</v>
       </c>
       <c r="NC3" t="n">
-        <v>-5.039018030189117</v>
+        <v>133.2500577388689</v>
       </c>
       <c r="ND3" t="n">
-        <v>-5.037850310645778</v>
+        <v>128.7240048087639</v>
       </c>
       <c r="NE3" t="n">
-        <v>-5.036918459391208</v>
+        <v>124.9339011910941</v>
       </c>
       <c r="NF3" t="n">
-        <v>-5.017934889198143</v>
+        <v>121.6082949926636</v>
       </c>
       <c r="NG3" t="n">
-        <v>-5.018259610611961</v>
+        <v>118.0334912996013</v>
       </c>
       <c r="NH3" t="n">
-        <v>-5.004386919386001</v>
+        <v>123.7439076319408</v>
       </c>
       <c r="NI3" t="n">
-        <v>-5.005796476092848</v>
+        <v>117.1557152173618</v>
       </c>
       <c r="NJ3" t="n">
-        <v>-4.989018304561245</v>
+        <v>114.5062209174008</v>
       </c>
       <c r="NK3" t="n">
-        <v>-4.956125589008808</v>
+        <v>112.9323548882283</v>
       </c>
       <c r="NL3" t="n">
-        <v>-5.219555300281508</v>
+        <v>110.3373941302454</v>
       </c>
       <c r="NM3" t="n">
-        <v>-5.87632612773905</v>
+        <v>116.2904679240169</v>
       </c>
       <c r="NN3" t="n">
-        <v>-6.367801595601734</v>
+        <v>113.2940023094268</v>
       </c>
       <c r="NO3" t="n">
-        <v>-6.695952833154148</v>
+        <v>119.1787746295832</v>
       </c>
       <c r="NP3" t="n">
-        <v>-6.938285659294904</v>
+        <v>116.1024326243714</v>
       </c>
       <c r="NQ3" t="n">
-        <v>-8.236199026887219</v>
+        <v>115.2439610341068</v>
       </c>
       <c r="NR3" t="n">
-        <v>-8.012729155380768</v>
+        <v>112.4765060374782</v>
       </c>
       <c r="NS3" t="n">
-        <v>-7.793816018895003</v>
+        <v>116.4889407519095</v>
       </c>
       <c r="NT3" t="n">
-        <v>-7.433442608837375</v>
+        <v>121.8031846315022</v>
       </c>
       <c r="NU3" t="n">
-        <v>-7.260842754155557</v>
+        <v>118.6927342073943</v>
       </c>
       <c r="NV3" t="n">
-        <v>-7.339466620138774</v>
+        <v>115.7326435735513</v>
       </c>
       <c r="NW3" t="n">
-        <v>-7.239614353238299</v>
+        <v>119.4045621097778</v>
       </c>
       <c r="NX3" t="n">
-        <v>-7.022647773261449</v>
+        <v>124.3153139622427</v>
       </c>
       <c r="NY3" t="n">
-        <v>-6.882692425121784</v>
+        <v>121.6603979054182</v>
       </c>
       <c r="NZ3" t="n">
-        <v>-6.785721423831751</v>
+        <v>121.004052716246</v>
       </c>
       <c r="OA3" t="n">
-        <v>-6.673910412218953</v>
+        <v>120.8922190723851</v>
       </c>
       <c r="OB3" t="n">
-        <v>-6.575455200573837</v>
+        <v>117.9402785378514</v>
       </c>
       <c r="OC3" t="n">
-        <v>-6.533946327581826</v>
+        <v>117.513147373601</v>
       </c>
       <c r="OD3" t="n">
-        <v>-6.431709469596132</v>
+        <v>118.1459632933443</v>
       </c>
       <c r="OE3" t="n">
-        <v>-6.263349685743175</v>
+        <v>115.4112789587664</v>
       </c>
       <c r="OF3" t="n">
-        <v>-6.103375997766139</v>
+        <v>115.2161537571661</v>
       </c>
       <c r="OG3" t="n">
-        <v>-5.761358195932205</v>
+        <v>109.5863692845184</v>
       </c>
       <c r="OH3" t="n">
-        <v>-5.697459817982589</v>
+        <v>107.2731515750917</v>
       </c>
       <c r="OI3" t="n">
-        <v>-5.489169173735922</v>
+        <v>107.4414681713426</v>
       </c>
       <c r="OJ3" t="n">
-        <v>-5.419750554128319</v>
+        <v>101.8222027884644</v>
       </c>
       <c r="OK3" t="n">
-        <v>-5.302407782384967</v>
+        <v>96.59613964238692</v>
       </c>
       <c r="OL3" t="n">
-        <v>-5.117856010613751</v>
+        <v>95.14897249294337</v>
       </c>
       <c r="OM3" t="n">
-        <v>-5.084555583756171</v>
+        <v>93.83410489651337</v>
       </c>
       <c r="ON3" t="n">
-        <v>-4.855863375844638</v>
+        <v>99.17803855604834</v>
       </c>
       <c r="OO3" t="n">
-        <v>-4.886752272210546</v>
+        <v>97.73736066376296</v>
       </c>
       <c r="OP3" t="n">
-        <v>-4.906980846070094</v>
+        <v>102.8403915433785</v>
       </c>
       <c r="OQ3" t="n">
-        <v>-4.918562142412019</v>
+        <v>101.3238754661598</v>
       </c>
       <c r="OR3" t="n">
-        <v>-4.931916554379075</v>
+        <v>102.2761536382251</v>
       </c>
       <c r="OS3" t="n">
-        <v>-4.936716735403074</v>
+        <v>104.2306971349218</v>
       </c>
       <c r="OT3" t="n">
-        <v>-4.958058411490156</v>
+        <v>103.2149232049434</v>
       </c>
       <c r="OU3" t="n">
-        <v>-4.96750768492879</v>
+        <v>104.1309664324937</v>
       </c>
       <c r="OV3" t="n">
-        <v>-5.00592377249756</v>
+        <v>102.7091155234197</v>
       </c>
       <c r="OW3" t="n">
-        <v>-4.991004329438383</v>
+        <v>103.620097376271</v>
       </c>
       <c r="OX3" t="n">
-        <v>-5.015072598877641</v>
+        <v>102.1962554372022</v>
       </c>
       <c r="OY3" t="n">
-        <v>-4.995923492678235</v>
+        <v>107.3289533734873</v>
       </c>
       <c r="OZ3" t="n">
-        <v>-5.021408740298569</v>
+        <v>113.5675916801117</v>
       </c>
       <c r="PA3" t="n">
-        <v>-5.042787689609016</v>
+        <v>111.7874432680695</v>
       </c>
       <c r="PB3" t="n">
-        <v>-5.030587817456006</v>
+        <v>112.4709572901662</v>
       </c>
       <c r="PC3" t="n">
-        <v>-5.020079682319269</v>
+        <v>114.1538522381345</v>
       </c>
       <c r="PD3" t="n">
-        <v>-5.042615708957116</v>
+        <v>112.1590865121435</v>
       </c>
       <c r="PE3" t="n">
-        <v>-5.07195322359508</v>
+        <v>116.8705675699481</v>
       </c>
       <c r="PF3" t="n">
-        <v>-5.090822959565767</v>
+        <v>122.757937758282</v>
       </c>
       <c r="PG3" t="n">
-        <v>-5.112352361804959</v>
+        <v>120.8469411839871</v>
       </c>
       <c r="PH3" t="n">
-        <v>-5.131419783495034</v>
+        <v>118.4623043861592</v>
       </c>
       <c r="PI3" t="n">
-        <v>-5.160845416337682</v>
+        <v>118.5335499507583</v>
       </c>
       <c r="PJ3" t="n">
-        <v>-5.189087860680896</v>
+        <v>116.2252974072147</v>
       </c>
       <c r="PK3" t="n">
-        <v>-5.181331103637683</v>
+        <v>114.0224533792901</v>
       </c>
       <c r="PL3" t="n">
-        <v>-5.211532400268334</v>
+        <v>114.254531364969</v>
       </c>
       <c r="PM3" t="n">
-        <v>-5.23749907432439</v>
+        <v>112.1949202771899</v>
       </c>
       <c r="PN3" t="n">
-        <v>-5.290754556241026</v>
+        <v>116.7947424234934</v>
       </c>
       <c r="PO3" t="n">
-        <v>-5.314067648738288</v>
+        <v>114.9637760959153</v>
       </c>
       <c r="PP3" t="n">
-        <v>-5.316201008665571</v>
+        <v>115.0220083564245</v>
       </c>
       <c r="PQ3" t="n">
-        <v>-5.340250563261259</v>
+        <v>112.8615344124693</v>
       </c>
       <c r="PR3" t="n">
-        <v>-5.34129281545176</v>
+        <v>113.1500357298158</v>
       </c>
       <c r="PS3" t="n">
-        <v>-5.349809144389776</v>
+        <v>114.4557890902781</v>
       </c>
       <c r="PT3" t="n">
-        <v>-5.35919475796588</v>
+        <v>112.169838827413</v>
       </c>
       <c r="PU3" t="n">
-        <v>-5.36574432090485</v>
+        <v>112.2429776202471</v>
       </c>
       <c r="PV3" t="n">
-        <v>-5.374393652422317</v>
+        <v>109.9232901769288</v>
       </c>
       <c r="PW3" t="n">
-        <v>-5.382441393923749</v>
+        <v>114.7018962835534</v>
       </c>
       <c r="PX3" t="n">
-        <v>-5.387839132144936</v>
+        <v>112.116682145159</v>
       </c>
       <c r="PY3" t="n">
-        <v>-5.369614238553194</v>
+        <v>116.4035379800968</v>
       </c>
       <c r="PZ3" t="n">
-        <v>-5.389402235449865</v>
+        <v>121.8104886586069</v>
       </c>
       <c r="QA3" t="n">
-        <v>-5.394384917225326</v>
+        <v>118.8049241664259</v>
       </c>
       <c r="QB3" t="n">
-        <v>-5.410411198687247</v>
+        <v>122.5617651695364</v>
       </c>
       <c r="QC3" t="n">
-        <v>-5.404355977501764</v>
+        <v>120.3274122145887</v>
       </c>
       <c r="QD3" t="n">
-        <v>-5.421661672863533</v>
+        <v>124.2126700711763</v>
       </c>
       <c r="QE3" t="n">
-        <v>-5.40142083196889</v>
+        <v>129.2762519904312</v>
       </c>
       <c r="QF3" t="n">
-        <v>-5.416408660539727</v>
+        <v>122.434929096422</v>
       </c>
       <c r="QG3" t="n">
-        <v>-5.430305146557986</v>
+        <v>126.1419593300077</v>
       </c>
       <c r="QH3" t="n">
-        <v>-5.423645158571039</v>
+        <v>122.6909250814976</v>
       </c>
       <c r="QI3" t="n">
-        <v>-5.439029605166397</v>
+        <v>121.1755782619638</v>
       </c>
       <c r="QJ3" t="n">
-        <v>-5.425988352485611</v>
+        <v>120.6423392078466</v>
       </c>
       <c r="QK3" t="n">
-        <v>-5.418826082616742</v>
+        <v>116.2314582076643</v>
       </c>
       <c r="QL3" t="n">
-        <v>-5.403494111447025</v>
+        <v>118.9655252077865</v>
       </c>
       <c r="QM3" t="n">
-        <v>-5.407350748453126</v>
+        <v>122.7520715496479</v>
       </c>
       <c r="QN3" t="n">
-        <v>-5.392332492770925</v>
+        <v>115.9393521777232</v>
       </c>
       <c r="QO3" t="n">
-        <v>-5.39648491087299</v>
+        <v>119.1509774756491</v>
       </c>
       <c r="QP3" t="n">
-        <v>-5.37373215585334</v>
+        <v>112.9403929526693</v>
       </c>
       <c r="QQ3" t="n">
-        <v>-5.385259008681302</v>
+        <v>116.0713633521288</v>
       </c>
       <c r="QR3" t="n">
-        <v>-5.399705330719409</v>
+        <v>120.240848964493</v>
       </c>
       <c r="QS3" t="n">
-        <v>-5.413169040188961</v>
+        <v>116.855687816518</v>
       </c>
       <c r="QT3" t="n">
-        <v>-5.397565908558543</v>
+        <v>110.6316069882133</v>
       </c>
       <c r="QU3" t="n">
-        <v>-5.401160218535095</v>
+        <v>109.2641071840518</v>
       </c>
       <c r="QV3" t="n">
-        <v>-5.380295099209777</v>
+        <v>102.5096431752891</v>
       </c>
       <c r="QW3" t="n">
-        <v>-5.396636035885698</v>
+        <v>105.9438121641891</v>
       </c>
       <c r="QX3" t="n">
-        <v>-5.399062799970133</v>
+        <v>99.81667007213615</v>
       </c>
       <c r="QY3" t="n">
-        <v>-5.411593062226032</v>
+        <v>94.03706564404065</v>
       </c>
       <c r="QZ3" t="n">
-        <v>-5.451925108429721</v>
+        <v>88.90649611591697</v>
       </c>
       <c r="RA3" t="n">
-        <v>-5.427685977864578</v>
+        <v>84.34449899471045</v>
       </c>
       <c r="RB3" t="n">
-        <v>-5.425377512256517</v>
+        <v>82.15970345543123</v>
       </c>
       <c r="RC3" t="n">
-        <v>-5.397613285239155</v>
+        <v>80.82137010156652</v>
       </c>
       <c r="RD3" t="n">
-        <v>-5.403645826862562</v>
+        <v>80.36038186317529</v>
       </c>
       <c r="RE3" t="n">
-        <v>-5.396776490242559</v>
+        <v>76.12859504290773</v>
       </c>
       <c r="RF3" t="n">
-        <v>-5.413929478998216</v>
+        <v>76.57655524739158</v>
       </c>
       <c r="RG3" t="n">
-        <v>-5.415997566714347</v>
+        <v>77.89033247854856</v>
       </c>
       <c r="RH3" t="n">
-        <v>-5.415836959862217</v>
+        <v>73.47819543682516</v>
       </c>
       <c r="RI3" t="n">
-        <v>-5.417596398773292</v>
+        <v>74.37234693096445</v>
       </c>
       <c r="RJ3" t="n">
-        <v>-5.426392273516446</v>
+        <v>69.916876971364</v>
       </c>
       <c r="RK3" t="n">
-        <v>-5.434671032628872</v>
+        <v>66.0172242536194</v>
       </c>
       <c r="RL3" t="n">
-        <v>-5.396440380569546</v>
+        <v>66.61279567877827</v>
       </c>
       <c r="RM3" t="n">
-        <v>-5.303011920214882</v>
+        <v>62.94173315271426</v>
       </c>
       <c r="RN3" t="n">
-        <v>-5.192294723484424</v>
+        <v>59.82899154970661</v>
       </c>
       <c r="RO3" t="n">
-        <v>-5.074132254454646</v>
+        <v>57.29353663924133</v>
       </c>
       <c r="RP3" t="n">
-        <v>-5.133547776198359</v>
+        <v>54.11371344995129</v>
       </c>
       <c r="RQ3" t="n">
-        <v>-5.415299220180738</v>
+        <v>51.44278621841933</v>
       </c>
       <c r="RR3" t="n">
-        <v>-5.635001441348059</v>
+        <v>48.10238441226114</v>
       </c>
       <c r="RS3" t="n">
-        <v>-5.759947021048604</v>
+        <v>45.2270325232091</v>
       </c>
       <c r="RT3" t="n">
-        <v>-5.862722371721572</v>
+        <v>42.82672590918311</v>
       </c>
       <c r="RU3" t="n">
-        <v>-5.959124379327367</v>
+        <v>40.47753296928415</v>
       </c>
       <c r="RV3" t="n">
-        <v>-8.902525890868509</v>
+        <v>38.5772894940271</v>
       </c>
       <c r="RW3" t="n">
-        <v>-15.44325426130295</v>
+        <v>39.33733689211017</v>
       </c>
       <c r="RX3" t="n">
-        <v>-28.75148329921578</v>
+        <v>40.15428287397964</v>
       </c>
       <c r="RY3" t="n">
-        <v>-27.76251232453124</v>
+        <v>38.32623153458966</v>
       </c>
       <c r="RZ3" t="n">
-        <v>-26.7691057981196</v>
+        <v>36.90633650721468</v>
       </c>
       <c r="SA3" t="n">
-        <v>-28.91516160609094</v>
+        <v>35.20280626325135</v>
       </c>
       <c r="SB3" t="n">
-        <v>-27.74025758816861</v>
+        <v>33.88420140050282</v>
       </c>
       <c r="SC3" t="n">
-        <v>-26.60318904340856</v>
+        <v>32.5666588198557</v>
       </c>
       <c r="SD3" t="n">
-        <v>-25.50371805270687</v>
+        <v>31.61391447392468</v>
       </c>
       <c r="SE3" t="n">
-        <v>-24.26379173270989</v>
+        <v>30.3831665133793</v>
       </c>
       <c r="SF3" t="n">
-        <v>-23.08622691948505</v>
+        <v>29.46803855253505</v>
       </c>
       <c r="SG3" t="n">
-        <v>-22.12617179584909</v>
+        <v>28.89435273119552</v>
       </c>
     </row>
   </sheetData>

--- a/software/testing/CV/multi_marker_paper_method/output.xlsx
+++ b/software/testing/CV/multi_marker_paper_method/output.xlsx
@@ -1940,1504 +1940,1504 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-35.10391424141799</v>
+        <v>-176.9919847558486</v>
       </c>
       <c r="C2" t="n">
-        <v>-47.49862785015111</v>
+        <v>-247.3485840843554</v>
       </c>
       <c r="D2" t="n">
-        <v>-56.9209395461488</v>
+        <v>-284.424728621254</v>
       </c>
       <c r="E2" t="n">
-        <v>-63.49371715766533</v>
+        <v>-312.0148582640551</v>
       </c>
       <c r="F2" t="n">
-        <v>-69.21040679355414</v>
+        <v>-331.294932803951</v>
       </c>
       <c r="G2" t="n">
-        <v>-71.95959105220781</v>
+        <v>-330.4251192535509</v>
       </c>
       <c r="H2" t="n">
-        <v>-74.89662149786101</v>
+        <v>-342.9956959072738</v>
       </c>
       <c r="I2" t="n">
-        <v>-77.71401378868768</v>
+        <v>-362.1563755082933</v>
       </c>
       <c r="J2" t="n">
-        <v>-77.32897162132714</v>
+        <v>-368.4554866350691</v>
       </c>
       <c r="K2" t="n">
-        <v>-78.33428475161108</v>
+        <v>-361.2142793956311</v>
       </c>
       <c r="L2" t="n">
-        <v>-79.06730981021373</v>
+        <v>-366.3931437147751</v>
       </c>
       <c r="M2" t="n">
-        <v>-78.72142488174042</v>
+        <v>-357.142601155165</v>
       </c>
       <c r="N2" t="n">
-        <v>-79.17109007849696</v>
+        <v>-366.2926478813221</v>
       </c>
       <c r="O2" t="n">
-        <v>-79.37977829377066</v>
+        <v>-363.3809393055899</v>
       </c>
       <c r="P2" t="n">
-        <v>-78.56518974574546</v>
+        <v>-363.5507860105927</v>
       </c>
       <c r="Q2" t="n">
-        <v>-79.01554041298751</v>
+        <v>-365.5816006444072</v>
       </c>
       <c r="R2" t="n">
-        <v>-79.00195524041038</v>
+        <v>-356.7977282507349</v>
       </c>
       <c r="S2" t="n">
-        <v>-78.1352386656923</v>
+        <v>-356.9276975973432</v>
       </c>
       <c r="T2" t="n">
-        <v>-77.30574070178986</v>
+        <v>-360.2111012805642</v>
       </c>
       <c r="U2" t="n">
-        <v>-76.69638157280662</v>
+        <v>-353.4655412879357</v>
       </c>
       <c r="V2" t="n">
-        <v>-76.76639803420723</v>
+        <v>-358.6969830659204</v>
       </c>
       <c r="W2" t="n">
-        <v>-76.74177099541647</v>
+        <v>-353.8479858168449</v>
       </c>
       <c r="X2" t="n">
-        <v>-76.93474594776383</v>
+        <v>-357.3412519085256</v>
       </c>
       <c r="Y2" t="n">
-        <v>-76.28547446574203</v>
+        <v>-359.3593536537451</v>
       </c>
       <c r="Z2" t="n">
-        <v>-76.16896633219653</v>
+        <v>-351.1265358074181</v>
       </c>
       <c r="AA2" t="n">
-        <v>-75.97159828655128</v>
+        <v>-349.6318744219969</v>
       </c>
       <c r="AB2" t="n">
-        <v>-75.86853735561299</v>
+        <v>-342.386260386641</v>
       </c>
       <c r="AC2" t="n">
-        <v>-75.91325597375406</v>
+        <v>-347.082839796627</v>
       </c>
       <c r="AD2" t="n">
-        <v>-75.7127726550125</v>
+        <v>-349.8751910319214</v>
       </c>
       <c r="AE2" t="n">
-        <v>-75.45645493221808</v>
+        <v>-344.1253822435976</v>
       </c>
       <c r="AF2" t="n">
-        <v>-75.25652521591623</v>
+        <v>-343.2869276538318</v>
       </c>
       <c r="AG2" t="n">
-        <v>-75.26575512846239</v>
+        <v>-347.4717593090639</v>
       </c>
       <c r="AH2" t="n">
-        <v>-75.33353151340177</v>
+        <v>-347.0942085151162</v>
       </c>
       <c r="AI2" t="n">
-        <v>-75.29481127549226</v>
+        <v>-348.2678889989113</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-75.09244578609656</v>
+        <v>-347.3204330292867</v>
       </c>
       <c r="AK2" t="n">
-        <v>-74.96602246327735</v>
+        <v>-346.416767459381</v>
       </c>
       <c r="AL2" t="n">
-        <v>-74.68899898336157</v>
+        <v>-347.0313451585944</v>
       </c>
       <c r="AM2" t="n">
-        <v>-74.65741298657149</v>
+        <v>-348.591337011346</v>
       </c>
       <c r="AN2" t="n">
-        <v>-74.22524719745252</v>
+        <v>-347.8999165120215</v>
       </c>
       <c r="AO2" t="n">
-        <v>-74.08619678732788</v>
+        <v>-347.2271080019345</v>
       </c>
       <c r="AP2" t="n">
-        <v>-74.19169660139532</v>
+        <v>-347.6213781742702</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-74.35397251989427</v>
+        <v>-348.3329651986761</v>
       </c>
       <c r="AR2" t="n">
-        <v>-74.60983285030207</v>
+        <v>-343.3704196891547</v>
       </c>
       <c r="AS2" t="n">
-        <v>-74.22715497127929</v>
+        <v>-344.2229737019915</v>
       </c>
       <c r="AT2" t="n">
-        <v>-73.96556119553776</v>
+        <v>-344.2489315477129</v>
       </c>
       <c r="AU2" t="n">
-        <v>-74.13874148267611</v>
+        <v>-341.7154749013716</v>
       </c>
       <c r="AV2" t="n">
-        <v>-73.8825408219419</v>
+        <v>-342.420737105356</v>
       </c>
       <c r="AW2" t="n">
-        <v>-73.82609641092137</v>
+        <v>-343.8439910459591</v>
       </c>
       <c r="AX2" t="n">
-        <v>-73.48793074920911</v>
+        <v>-345.1683367040437</v>
       </c>
       <c r="AY2" t="n">
-        <v>-72.94393872716087</v>
+        <v>-346.595476993474</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-72.68786751742168</v>
+        <v>-347.4474104873038</v>
       </c>
       <c r="BA2" t="n">
-        <v>-72.86003720676648</v>
+        <v>-345.0862943381561</v>
       </c>
       <c r="BB2" t="n">
-        <v>-72.64797493392167</v>
+        <v>-344.3902151928822</v>
       </c>
       <c r="BC2" t="n">
-        <v>-72.19754184732759</v>
+        <v>-345.5595629022278</v>
       </c>
       <c r="BD2" t="n">
-        <v>-72.09014739886456</v>
+        <v>-341.923435260115</v>
       </c>
       <c r="BE2" t="n">
-        <v>-71.95031269178314</v>
+        <v>-342.5251440169355</v>
       </c>
       <c r="BF2" t="n">
-        <v>-71.97156469667071</v>
+        <v>-338.2121053700758</v>
       </c>
       <c r="BG2" t="n">
-        <v>-71.84348785113839</v>
+        <v>-339.2093767163548</v>
       </c>
       <c r="BH2" t="n">
-        <v>-71.47538117910591</v>
+        <v>-342.49894903862</v>
       </c>
       <c r="BI2" t="n">
-        <v>-71.18167323234624</v>
+        <v>-340.2666265644692</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-70.77178718584078</v>
+        <v>-342.8477210149267</v>
       </c>
       <c r="BK2" t="n">
-        <v>-70.90763749912568</v>
+        <v>-342.0317354483187</v>
       </c>
       <c r="BL2" t="n">
-        <v>-70.82247630322915</v>
+        <v>-337.2576962977507</v>
       </c>
       <c r="BM2" t="n">
-        <v>-70.66751741407678</v>
+        <v>-337.779002043382</v>
       </c>
       <c r="BN2" t="n">
-        <v>-70.28298370760689</v>
+        <v>-338.6725364700668</v>
       </c>
       <c r="BO2" t="n">
-        <v>-70.1968549520623</v>
+        <v>-334.7402582660277</v>
       </c>
       <c r="BP2" t="n">
-        <v>-69.45429019633426</v>
+        <v>-335.8816263701939</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-69.33341875964857</v>
+        <v>-337.5949132579139</v>
       </c>
       <c r="BR2" t="n">
-        <v>-69.15579424783482</v>
+        <v>-334.0276653472629</v>
       </c>
       <c r="BS2" t="n">
-        <v>-69.15104993721867</v>
+        <v>-333.9615791628901</v>
       </c>
       <c r="BT2" t="n">
-        <v>-68.98874913879595</v>
+        <v>-335.1544848110949</v>
       </c>
       <c r="BU2" t="n">
-        <v>-69.47956105553493</v>
+        <v>-336.3433189858608</v>
       </c>
       <c r="BV2" t="n">
-        <v>-69.55638089463903</v>
+        <v>-334.5882292918631</v>
       </c>
       <c r="BW2" t="n">
-        <v>-69.23215762905643</v>
+        <v>-334.9872477367598</v>
       </c>
       <c r="BX2" t="n">
-        <v>-69.53572517835238</v>
+        <v>-337.119309444765</v>
       </c>
       <c r="BY2" t="n">
-        <v>-70.61546298026317</v>
+        <v>-333.8376526369152</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-69.68144712300146</v>
+        <v>-334.6149694714331</v>
       </c>
       <c r="CA2" t="n">
-        <v>-70.20623442596018</v>
+        <v>-335.176199056951</v>
       </c>
       <c r="CB2" t="n">
-        <v>-68.79751781878848</v>
+        <v>-335.7157270958948</v>
       </c>
       <c r="CC2" t="n">
-        <v>-67.68867273691919</v>
+        <v>-336.0882210275774</v>
       </c>
       <c r="CD2" t="n">
-        <v>-67.58385095666436</v>
+        <v>-331.9926859514146</v>
       </c>
       <c r="CE2" t="n">
-        <v>-65.33450029207798</v>
+        <v>-332.0022593344723</v>
       </c>
       <c r="CF2" t="n">
-        <v>-48.7425884543987</v>
+        <v>-328.577129334568</v>
       </c>
       <c r="CG2" t="n">
-        <v>-48.55682572384879</v>
+        <v>-330.3665570019505</v>
       </c>
       <c r="CH2" t="n">
-        <v>-48.9899308540111</v>
+        <v>-331.8572217519619</v>
       </c>
       <c r="CI2" t="n">
-        <v>-52.11256222370102</v>
+        <v>-329.8739303868023</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-55.67626292786964</v>
+        <v>-330.0266289700113</v>
       </c>
       <c r="CK2" t="n">
-        <v>-58.39076936523535</v>
+        <v>-331.520704582749</v>
       </c>
       <c r="CL2" t="n">
-        <v>-63.3842527911079</v>
+        <v>-328.7322236250448</v>
       </c>
       <c r="CM2" t="n">
-        <v>-66.68086990552587</v>
+        <v>-331.4387950878135</v>
       </c>
       <c r="CN2" t="n">
-        <v>-69.78537168670812</v>
+        <v>-331.9650420286331</v>
       </c>
       <c r="CO2" t="n">
-        <v>-73.64350160963482</v>
+        <v>-328.4302114448961</v>
       </c>
       <c r="CP2" t="n">
-        <v>-76.35251235341406</v>
+        <v>-330.0625036053274</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-79.15178924663964</v>
+        <v>-331.8679628133826</v>
       </c>
       <c r="CR2" t="n">
-        <v>-82.35057967940999</v>
+        <v>-333.8781873443044</v>
       </c>
       <c r="CS2" t="n">
-        <v>-84.26693185081878</v>
+        <v>-335.5474870357739</v>
       </c>
       <c r="CT2" t="n">
-        <v>-94.4084520813509</v>
+        <v>-337.128534366608</v>
       </c>
       <c r="CU2" t="n">
-        <v>-101.0194061804737</v>
+        <v>-338.5529657098531</v>
       </c>
       <c r="CV2" t="n">
-        <v>-91.82052486518545</v>
+        <v>-336.6814051150804</v>
       </c>
       <c r="CW2" t="n">
-        <v>-115.4870327574596</v>
+        <v>-337.56795441972</v>
       </c>
       <c r="CX2" t="n">
-        <v>-120.1396671090942</v>
+        <v>-339.0521941670584</v>
       </c>
       <c r="CY2" t="n">
-        <v>-124.4406938953439</v>
+        <v>-335.2301470363241</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-122.4712631337142</v>
+        <v>-335.9463472503664</v>
       </c>
       <c r="DA2" t="n">
-        <v>-124.1900051492769</v>
+        <v>-337.5844884397563</v>
       </c>
       <c r="DB2" t="n">
-        <v>-123.4471855420296</v>
+        <v>-334.4227401180213</v>
       </c>
       <c r="DC2" t="n">
-        <v>-121.7267444903803</v>
+        <v>-334.4503415336425</v>
       </c>
       <c r="DD2" t="n">
-        <v>-118.7679399555077</v>
+        <v>-337.5862197947056</v>
       </c>
       <c r="DE2" t="n">
-        <v>-116.9937645067866</v>
+        <v>-340.5583805473782</v>
       </c>
       <c r="DF2" t="n">
-        <v>-115.5777376128874</v>
+        <v>-340.2393988125004</v>
       </c>
       <c r="DG2" t="n">
-        <v>-113.683652524032</v>
+        <v>-336.5929785901806</v>
       </c>
       <c r="DH2" t="n">
-        <v>-111.8286032928899</v>
+        <v>-337.0413300304068</v>
       </c>
       <c r="DI2" t="n">
-        <v>-110.7537275816485</v>
+        <v>-338.464791956236</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-108.4081850870215</v>
+        <v>-335.275803446568</v>
       </c>
       <c r="DK2" t="n">
-        <v>-110.9109314067845</v>
+        <v>-336.901353989913</v>
       </c>
       <c r="DL2" t="n">
-        <v>-111.5127272939855</v>
+        <v>-337.6221765362034</v>
       </c>
       <c r="DM2" t="n">
-        <v>-112.4391921756277</v>
+        <v>-334.099981333367</v>
       </c>
       <c r="DN2" t="n">
-        <v>-105.8693861944697</v>
+        <v>-334.6260798104039</v>
       </c>
       <c r="DO2" t="n">
-        <v>-110.046516050524</v>
+        <v>-336.8665617004722</v>
       </c>
       <c r="DP2" t="n">
-        <v>-113.0558136281415</v>
+        <v>-338.9923629106412</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-112.7186169723353</v>
+        <v>-337.7943963424112</v>
       </c>
       <c r="DR2" t="n">
-        <v>-115.1684971925035</v>
+        <v>-337.0866968495686</v>
       </c>
       <c r="DS2" t="n">
-        <v>-115.0655870467901</v>
+        <v>-337.5955203983201</v>
       </c>
       <c r="DT2" t="n">
-        <v>-100.0961144827416</v>
+        <v>-333.4855305918987</v>
       </c>
       <c r="DU2" t="n">
-        <v>-102.2547493332423</v>
+        <v>-333.4094226156218</v>
       </c>
       <c r="DV2" t="n">
-        <v>-96.63429598017781</v>
+        <v>-335.7941960395365</v>
       </c>
       <c r="DW2" t="n">
-        <v>-81.04372245212858</v>
+        <v>-334.7652641258314</v>
       </c>
       <c r="DX2" t="n">
-        <v>-92.93274001405763</v>
+        <v>-336.4462463817244</v>
       </c>
       <c r="DY2" t="n">
-        <v>-91.34791847354411</v>
+        <v>-337.6847199509141</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-91.92298537983862</v>
+        <v>-335.6819964723908</v>
       </c>
       <c r="EA2" t="n">
-        <v>-88.59218927235675</v>
+        <v>-335.3147124218309</v>
       </c>
       <c r="EB2" t="n">
-        <v>-90.06531873947912</v>
+        <v>-335.8127992918526</v>
       </c>
       <c r="EC2" t="n">
-        <v>-89.48969168032517</v>
+        <v>-332.6348032427685</v>
       </c>
       <c r="ED2" t="n">
-        <v>-83.84228826764263</v>
+        <v>-333.1681639320462</v>
       </c>
       <c r="EE2" t="n">
-        <v>-75.51408469389175</v>
+        <v>-336.1469377177067</v>
       </c>
       <c r="EF2" t="n">
-        <v>-76.9224065017472</v>
+        <v>-338.9755319100031</v>
       </c>
       <c r="EG2" t="n">
-        <v>-79.06311965556873</v>
+        <v>-340.3923629854597</v>
       </c>
       <c r="EH2" t="n">
-        <v>-67.57032994692986</v>
+        <v>-342.5060007912364</v>
       </c>
       <c r="EI2" t="n">
-        <v>-71.183114247112</v>
+        <v>-343.8189724417374</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-72.52846075741508</v>
+        <v>-340.5265610559088</v>
       </c>
       <c r="EK2" t="n">
-        <v>-75.24969502785819</v>
+        <v>-341.7660266562759</v>
       </c>
       <c r="EL2" t="n">
-        <v>-73.57312605828331</v>
+        <v>-342.7531692511883</v>
       </c>
       <c r="EM2" t="n">
-        <v>-76.08224012625801</v>
+        <v>-338.5993006681</v>
       </c>
       <c r="EN2" t="n">
-        <v>-77.99997638439177</v>
+        <v>-340.2938503094389</v>
       </c>
       <c r="EO2" t="n">
-        <v>-78.97359321022738</v>
+        <v>-342.6017571727998</v>
       </c>
       <c r="EP2" t="n">
-        <v>-68.49296114364461</v>
+        <v>-344.7815226534109</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-71.83548547129338</v>
+        <v>-344.4076618918749</v>
       </c>
       <c r="ER2" t="n">
-        <v>-75.8672261336651</v>
+        <v>-339.5606212359732</v>
       </c>
       <c r="ES2" t="n">
-        <v>-84.66507903636844</v>
+        <v>-341.6006073782484</v>
       </c>
       <c r="ET2" t="n">
-        <v>-87.61536246481207</v>
+        <v>-342.2983896076611</v>
       </c>
       <c r="EU2" t="n">
-        <v>-91.04271550834353</v>
+        <v>-338.7323333813187</v>
       </c>
       <c r="EV2" t="n">
-        <v>-85.54076648681828</v>
+        <v>-339.1004739399185</v>
       </c>
       <c r="EW2" t="n">
-        <v>-88.18939558490788</v>
+        <v>-340.5374861861559</v>
       </c>
       <c r="EX2" t="n">
-        <v>-90.51920309635724</v>
+        <v>-338.5897313763957</v>
       </c>
       <c r="EY2" t="n">
-        <v>-88.9789641752472</v>
+        <v>-338.3299686309702</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-101.0121239430575</v>
+        <v>-334.592610394979</v>
       </c>
       <c r="FA2" t="n">
-        <v>-101.658806364355</v>
+        <v>-335.9777147340952</v>
       </c>
       <c r="FB2" t="n">
-        <v>-106.0228075973653</v>
+        <v>-336.0679623974336</v>
       </c>
       <c r="FC2" t="n">
-        <v>-107.1334159930979</v>
+        <v>-336.1605630230825</v>
       </c>
       <c r="FD2" t="n">
-        <v>-109.0267781463906</v>
+        <v>-337.8351724267386</v>
       </c>
       <c r="FE2" t="n">
-        <v>-101.5553902468873</v>
+        <v>-336.2994949898105</v>
       </c>
       <c r="FF2" t="n">
-        <v>-90.54352810595375</v>
+        <v>-337.5133689021728</v>
       </c>
       <c r="FG2" t="n">
-        <v>-92.43367732157641</v>
+        <v>-338.6685656058066</v>
       </c>
       <c r="FH2" t="n">
-        <v>-99.52046718347719</v>
+        <v>-340.2276241749374</v>
       </c>
       <c r="FI2" t="n">
-        <v>-92.85900482015644</v>
+        <v>-341.7035516019156</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-98.99063298225097</v>
+        <v>-340.9588435144187</v>
       </c>
       <c r="FK2" t="n">
-        <v>-99.05924636802476</v>
+        <v>-340.8906777095079</v>
       </c>
       <c r="FL2" t="n">
-        <v>-102.553120766359</v>
+        <v>-340.8201662860753</v>
       </c>
       <c r="FM2" t="n">
-        <v>-103.3623450148883</v>
+        <v>-340.4246174035117</v>
       </c>
       <c r="FN2" t="n">
-        <v>-102.8997923848262</v>
+        <v>-335.6293311992635</v>
       </c>
       <c r="FO2" t="n">
-        <v>-106.7135539937571</v>
+        <v>-335.4004384969521</v>
       </c>
       <c r="FP2" t="n">
-        <v>-117.3451206603204</v>
+        <v>-330.9858761727082</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-116.1504196355763</v>
+        <v>-332.8337299129686</v>
       </c>
       <c r="FR2" t="n">
-        <v>-122.3071620502202</v>
+        <v>-332.4164058283372</v>
       </c>
       <c r="FS2" t="n">
-        <v>-122.1089022875165</v>
+        <v>-332.0344717520772</v>
       </c>
       <c r="FT2" t="n">
-        <v>-123.5475587591532</v>
+        <v>-332.5132723753898</v>
       </c>
       <c r="FU2" t="n">
-        <v>-124.0653482692644</v>
+        <v>-332.9808753872359</v>
       </c>
       <c r="FV2" t="n">
-        <v>-126.5483585620506</v>
+        <v>-334.8567616089394</v>
       </c>
       <c r="FW2" t="n">
-        <v>-131.9161125916983</v>
+        <v>-336.6442027301448</v>
       </c>
       <c r="FX2" t="n">
-        <v>-136.4670030765852</v>
+        <v>-336.6769443212093</v>
       </c>
       <c r="FY2" t="n">
-        <v>-136.7430420053086</v>
+        <v>-336.7082642222746</v>
       </c>
       <c r="FZ2" t="n">
-        <v>-142.2580975186894</v>
+        <v>-332.8195332385245</v>
       </c>
       <c r="GA2" t="n">
-        <v>-140.9880601293308</v>
+        <v>-334.9096994550279</v>
       </c>
       <c r="GB2" t="n">
-        <v>-140.9352298101183</v>
+        <v>-334.9629840083799</v>
       </c>
       <c r="GC2" t="n">
-        <v>-139.1217919071487</v>
+        <v>-335.0175488993063</v>
       </c>
       <c r="GD2" t="n">
-        <v>-131.6668574862498</v>
+        <v>-331.4706512607859</v>
       </c>
       <c r="GE2" t="n">
-        <v>-131.0236215505813</v>
+        <v>-333.6342789579914</v>
       </c>
       <c r="GF2" t="n">
-        <v>-129.48666643609</v>
+        <v>-334.7942742120844</v>
       </c>
       <c r="GG2" t="n">
-        <v>-132.0576005896686</v>
+        <v>-335.8992763905585</v>
       </c>
       <c r="GH2" t="n">
-        <v>-131.5007828149273</v>
+        <v>-337.1087412904489</v>
       </c>
       <c r="GI2" t="n">
-        <v>-133.7747222284903</v>
+        <v>-338.2544845747615</v>
       </c>
       <c r="GJ2" t="n">
-        <v>-152.5152454827513</v>
+        <v>-339.3404850580766</v>
       </c>
       <c r="GK2" t="n">
-        <v>-148.8634374913245</v>
+        <v>-340.3635442592325</v>
       </c>
       <c r="GL2" t="n">
-        <v>-145.3206064339504</v>
+        <v>-337.1267696218146</v>
       </c>
       <c r="GM2" t="n">
-        <v>-146.739230934878</v>
+        <v>-338.6722435363207</v>
       </c>
       <c r="GN2" t="n">
-        <v>-139.5187272667126</v>
+        <v>-340.4275919061387</v>
       </c>
       <c r="GO2" t="n">
-        <v>-130.7297875742897</v>
+        <v>-338.6770660887264</v>
       </c>
       <c r="GP2" t="n">
-        <v>-129.1189447536106</v>
+        <v>-339.1734687228959</v>
       </c>
       <c r="GQ2" t="n">
-        <v>-120.3227229875399</v>
+        <v>-339.5438315928344</v>
       </c>
       <c r="GR2" t="n">
-        <v>-110.2344093916597</v>
+        <v>-339.4904983747697</v>
       </c>
       <c r="GS2" t="n">
-        <v>-111.1409779579878</v>
+        <v>-339.2663543398994</v>
       </c>
       <c r="GT2" t="n">
-        <v>-104.6437109803801</v>
+        <v>-340.0069835735245</v>
       </c>
       <c r="GU2" t="n">
-        <v>-105.7754118396737</v>
+        <v>-342.9118217758309</v>
       </c>
       <c r="GV2" t="n">
-        <v>-109.8384062179654</v>
+        <v>-343.6817093686853</v>
       </c>
       <c r="GW2" t="n">
-        <v>-110.5746935531253</v>
+        <v>-344.4719375834573</v>
       </c>
       <c r="GX2" t="n">
-        <v>-104.1900326255539</v>
+        <v>-345.9039698503398</v>
       </c>
       <c r="GY2" t="n">
-        <v>-96.20206414581152</v>
+        <v>-347.244764309194</v>
       </c>
       <c r="GZ2" t="n">
-        <v>-98.36162485827458</v>
+        <v>-346.547319145499</v>
       </c>
       <c r="HA2" t="n">
-        <v>-92.55690027314867</v>
+        <v>-347.1892756318309</v>
       </c>
       <c r="HB2" t="n">
-        <v>-114.7535641575748</v>
+        <v>-343.5879604821498</v>
       </c>
       <c r="HC2" t="n">
-        <v>-116.4688870287654</v>
+        <v>-344.4100628078787</v>
       </c>
       <c r="HD2" t="n">
-        <v>-116.6697692641008</v>
+        <v>-346.561510931125</v>
       </c>
       <c r="HE2" t="n">
-        <v>-117.1170850089611</v>
+        <v>-346.8786148356526</v>
       </c>
       <c r="HF2" t="n">
-        <v>-116.4469995746756</v>
+        <v>-346.5299315191619</v>
       </c>
       <c r="HG2" t="n">
-        <v>-114.6048450159403</v>
+        <v>-343.6746715095245</v>
       </c>
       <c r="HH2" t="n">
-        <v>-106.9826703504748</v>
+        <v>-345.4089679602603</v>
       </c>
       <c r="HI2" t="n">
-        <v>-97.91351880369388</v>
+        <v>-343.4631899009839</v>
       </c>
       <c r="HJ2" t="n">
-        <v>-99.5017495729854</v>
+        <v>-343.6436028237986</v>
       </c>
       <c r="HK2" t="n">
-        <v>-95.4261517475415</v>
+        <v>-340.2045876716393</v>
       </c>
       <c r="HL2" t="n">
-        <v>-98.71873869806583</v>
+        <v>-340.2160657706349</v>
       </c>
       <c r="HM2" t="n">
-        <v>-91.68961265115189</v>
+        <v>-336.0197381280395</v>
       </c>
       <c r="HN2" t="n">
-        <v>-83.02459572764931</v>
+        <v>-328.42553438098</v>
       </c>
       <c r="HO2" t="n">
-        <v>-87.02826430660581</v>
+        <v>-328.3888505959183</v>
       </c>
       <c r="HP2" t="n">
-        <v>-82.60185457438173</v>
+        <v>-323.7065446538127</v>
       </c>
       <c r="HQ2" t="n">
-        <v>-76.61248371828104</v>
+        <v>-325.3742591196705</v>
       </c>
       <c r="HR2" t="n">
-        <v>-78.68501843380383</v>
+        <v>-327.7595852460105</v>
       </c>
       <c r="HS2" t="n">
-        <v>-72.97564771531444</v>
+        <v>-329.6737070313019</v>
       </c>
       <c r="HT2" t="n">
-        <v>-65.58981405904427</v>
+        <v>-331.513952016081</v>
       </c>
       <c r="HU2" t="n">
-        <v>-70.79992618850916</v>
+        <v>-333.2983353372256</v>
       </c>
       <c r="HV2" t="n">
-        <v>-73.10744028570517</v>
+        <v>-333.1628104830298</v>
       </c>
       <c r="HW2" t="n">
-        <v>-76.58670116823436</v>
+        <v>-333.0441284916043</v>
       </c>
       <c r="HX2" t="n">
-        <v>-79.02393253798961</v>
+        <v>-334.5451628230998</v>
       </c>
       <c r="HY2" t="n">
-        <v>-81.39133130309702</v>
+        <v>-336.6277363202618</v>
       </c>
       <c r="HZ2" t="n">
-        <v>-82.4894729482612</v>
+        <v>-338.6058224262791</v>
       </c>
       <c r="IA2" t="n">
-        <v>-85.10967207803476</v>
+        <v>-339.375757090508</v>
       </c>
       <c r="IB2" t="n">
-        <v>-81.74595425025844</v>
+        <v>-335.2407151902565</v>
       </c>
       <c r="IC2" t="n">
-        <v>-76.72289292861309</v>
+        <v>-335.0647203571179</v>
       </c>
       <c r="ID2" t="n">
-        <v>-79.32415417091455</v>
+        <v>-338.4709419632282</v>
       </c>
       <c r="IE2" t="n">
-        <v>-75.84164851263697</v>
+        <v>-338.0666777938931</v>
       </c>
       <c r="IF2" t="n">
-        <v>-79.17225003532668</v>
+        <v>-338.4171517727468</v>
       </c>
       <c r="IG2" t="n">
-        <v>-75.7692923268895</v>
+        <v>-338.7981002146404</v>
       </c>
       <c r="IH2" t="n">
-        <v>-71.82725898793647</v>
+        <v>-339.1548434332524</v>
       </c>
       <c r="II2" t="n">
-        <v>-75.7074556139959</v>
+        <v>-339.9847393494011</v>
       </c>
       <c r="IJ2" t="n">
-        <v>-72.59538371011459</v>
+        <v>-337.9447557836039</v>
       </c>
       <c r="IK2" t="n">
-        <v>-76.20885734381312</v>
+        <v>-339.4544110417775</v>
       </c>
       <c r="IL2" t="n">
-        <v>-73.14014609623663</v>
+        <v>-339.7112476472154</v>
       </c>
       <c r="IM2" t="n">
-        <v>-69.51278014335156</v>
+        <v>-335.6606869188595</v>
       </c>
       <c r="IN2" t="n">
-        <v>-73.27694622971052</v>
+        <v>-336.923264131362</v>
       </c>
       <c r="IO2" t="n">
-        <v>-69.03021429910544</v>
+        <v>-336.7783215652337</v>
       </c>
       <c r="IP2" t="n">
-        <v>-93.56403879634971</v>
+        <v>-331.4757463283902</v>
       </c>
       <c r="IQ2" t="n">
-        <v>-93.97299249673721</v>
+        <v>-332.2741771667337</v>
       </c>
       <c r="IR2" t="n">
-        <v>-87.93971812852355</v>
+        <v>-334.9248452397671</v>
       </c>
       <c r="IS2" t="n">
-        <v>-90.99944753695648</v>
+        <v>-332.4839397392335</v>
       </c>
       <c r="IT2" t="n">
-        <v>-86.97285672784328</v>
+        <v>-333.9156915785748</v>
       </c>
       <c r="IU2" t="n">
-        <v>-88.7252260282812</v>
+        <v>-335.1353696361237</v>
       </c>
       <c r="IV2" t="n">
-        <v>-85.94440579815254</v>
+        <v>-337.4214418445129</v>
       </c>
       <c r="IW2" t="n">
-        <v>-82.73503468808886</v>
+        <v>-338.096513757707</v>
       </c>
       <c r="IX2" t="n">
-        <v>-83.23765113652497</v>
+        <v>-339.4081716928334</v>
       </c>
       <c r="IY2" t="n">
-        <v>-78.67881672827168</v>
+        <v>-335.9667903333632</v>
       </c>
       <c r="IZ2" t="n">
-        <v>-82.07078943778031</v>
+        <v>-338.9723559396368</v>
       </c>
       <c r="JA2" t="n">
-        <v>-77.83030791805578</v>
+        <v>-339.8742456365372</v>
       </c>
       <c r="JB2" t="n">
-        <v>-81.27062715132345</v>
+        <v>-336.7908827966456</v>
       </c>
       <c r="JC2" t="n">
-        <v>-78.69220065332948</v>
+        <v>-338.2975693529578</v>
       </c>
       <c r="JD2" t="n">
-        <v>-74.34714130698603</v>
+        <v>-338.6673855090489</v>
       </c>
       <c r="JE2" t="n">
-        <v>-75.84415872854797</v>
+        <v>-339.4745522214241</v>
       </c>
       <c r="JF2" t="n">
-        <v>-71.76368115176039</v>
+        <v>-336.2339226561102</v>
       </c>
       <c r="JG2" t="n">
-        <v>-67.31705846192595</v>
+        <v>-338.3588114740834</v>
       </c>
       <c r="JH2" t="n">
-        <v>-72.90893323691816</v>
+        <v>-338.8453233479132</v>
       </c>
       <c r="JI2" t="n">
-        <v>-68.80922273470654</v>
+        <v>-341.035025163447</v>
       </c>
       <c r="JJ2" t="n">
-        <v>-73.22658429004204</v>
+        <v>-339.6832229248624</v>
       </c>
       <c r="JK2" t="n">
-        <v>-70.10314401274552</v>
+        <v>-340.5580129819641</v>
       </c>
       <c r="JL2" t="n">
-        <v>-66.56342420321211</v>
+        <v>-341.0045904659441</v>
       </c>
       <c r="JM2" t="n">
-        <v>-71.62058454080781</v>
+        <v>-342.0184885099116</v>
       </c>
       <c r="JN2" t="n">
-        <v>-75.60263515300204</v>
+        <v>-342.9708343772962</v>
       </c>
       <c r="JO2" t="n">
-        <v>-97.06491396097971</v>
+        <v>-346.6370637568804</v>
       </c>
       <c r="JP2" t="n">
-        <v>-99.60308908463838</v>
+        <v>-347.4423881973764</v>
       </c>
       <c r="JQ2" t="n">
-        <v>-94.22052114403468</v>
+        <v>-348.4894397274801</v>
       </c>
       <c r="JR2" t="n">
-        <v>-87.04300132680527</v>
+        <v>-348.9348688467467</v>
       </c>
       <c r="JS2" t="n">
-        <v>-90.97045509940217</v>
+        <v>-348.3922506643888</v>
       </c>
       <c r="JT2" t="n">
-        <v>-97.24810381784779</v>
+        <v>-348.7628431519156</v>
       </c>
       <c r="JU2" t="n">
-        <v>-97.17437359767965</v>
+        <v>-351.0063719055274</v>
       </c>
       <c r="JV2" t="n">
-        <v>-91.38697692877841</v>
+        <v>-350.5983523681554</v>
       </c>
       <c r="JW2" t="n">
-        <v>-93.21875340181641</v>
+        <v>-344.6365541204488</v>
       </c>
       <c r="JX2" t="n">
-        <v>-94.93442896817324</v>
+        <v>-343.7150437683521</v>
       </c>
       <c r="JY2" t="n">
-        <v>-95.42065793919549</v>
+        <v>-344.8150780583711</v>
       </c>
       <c r="JZ2" t="n">
-        <v>-89.64200744545087</v>
+        <v>-345.7501594017704</v>
       </c>
       <c r="KA2" t="n">
-        <v>-63.71577795064634</v>
+        <v>-344.1144244698443</v>
       </c>
       <c r="KB2" t="n">
-        <v>-68.78130446873132</v>
+        <v>-344.3026924490746</v>
       </c>
       <c r="KC2" t="n">
-        <v>-73.95900251578865</v>
+        <v>-344.0269033437011</v>
       </c>
       <c r="KD2" t="n">
-        <v>-79.06316945526289</v>
+        <v>-343.7615788191924</v>
       </c>
       <c r="KE2" t="n">
-        <v>-79.39541933393937</v>
+        <v>-345.3285458048015</v>
       </c>
       <c r="KF2" t="n">
-        <v>-79.75565737769226</v>
+        <v>-344.2878471486312</v>
       </c>
       <c r="KG2" t="n">
-        <v>-83.68994823923592</v>
+        <v>-345.0621737879674</v>
       </c>
       <c r="KH2" t="n">
-        <v>-88.40248196542431</v>
+        <v>-346.0981026832833</v>
       </c>
       <c r="KI2" t="n">
-        <v>-90.73413145895286</v>
+        <v>-346.2128502292768</v>
       </c>
       <c r="KJ2" t="n">
-        <v>-86.01956162176776</v>
+        <v>-345.7546040661277</v>
       </c>
       <c r="KK2" t="n">
-        <v>-109.4673845514066</v>
+        <v>-344.3342186573689</v>
       </c>
       <c r="KL2" t="n">
-        <v>-109.1282936700916</v>
+        <v>-344.3285052351446</v>
       </c>
       <c r="KM2" t="n">
-        <v>-108.5082741169719</v>
+        <v>-345.2720980002133</v>
       </c>
       <c r="KN2" t="n">
-        <v>-102.2373802806273</v>
+        <v>-345.8642979940964</v>
       </c>
       <c r="KO2" t="n">
-        <v>-103.5547062320141</v>
+        <v>-346.5805121530036</v>
       </c>
       <c r="KP2" t="n">
-        <v>-105.3708205135083</v>
+        <v>-346.6321377123848</v>
       </c>
       <c r="KQ2" t="n">
-        <v>-106.7638456922349</v>
+        <v>-346.8050175743188</v>
       </c>
       <c r="KR2" t="n">
-        <v>-100.6980526429421</v>
+        <v>-347.5430787265794</v>
       </c>
       <c r="KS2" t="n">
-        <v>-92.84109610737396</v>
+        <v>-347.1756003673714</v>
       </c>
       <c r="KT2" t="n">
-        <v>-93.73257375458897</v>
+        <v>-346.2554607246122</v>
       </c>
       <c r="KU2" t="n">
-        <v>-95.88981837864166</v>
+        <v>-347.0836492173724</v>
       </c>
       <c r="KV2" t="n">
-        <v>-87.81137591128063</v>
+        <v>-347.8065206685165</v>
       </c>
       <c r="KW2" t="n">
-        <v>-95.20793922901538</v>
+        <v>-347.9125230359094</v>
       </c>
       <c r="KX2" t="n">
-        <v>-94.13907671451187</v>
+        <v>-347.8436579474157</v>
       </c>
       <c r="KY2" t="n">
-        <v>-99.57750302818921</v>
+        <v>-348.0467071793171</v>
       </c>
       <c r="KZ2" t="n">
-        <v>-107.1985324578042</v>
+        <v>-347.570947310372</v>
       </c>
       <c r="LA2" t="n">
-        <v>-111.0790395951903</v>
+        <v>-350.1267168027285</v>
       </c>
       <c r="LB2" t="n">
-        <v>-104.2045328462893</v>
+        <v>-348.4624851021163</v>
       </c>
       <c r="LC2" t="n">
-        <v>-97.94674408893661</v>
+        <v>-350.9476362317235</v>
       </c>
       <c r="LD2" t="n">
-        <v>-101.788826857146</v>
+        <v>-350.6025332099717</v>
       </c>
       <c r="LE2" t="n">
-        <v>-107.8103559657095</v>
+        <v>-350.6432212579699</v>
       </c>
       <c r="LF2" t="n">
-        <v>-108.3098516122553</v>
+        <v>-349.4067051937019</v>
       </c>
       <c r="LG2" t="n">
-        <v>-108.7512029023263</v>
+        <v>-349.184168914537</v>
       </c>
       <c r="LH2" t="n">
-        <v>-103.5521292305498</v>
+        <v>-348.9664295641787</v>
       </c>
       <c r="LI2" t="n">
-        <v>-107.2641273426575</v>
+        <v>-347.9608093011019</v>
       </c>
       <c r="LJ2" t="n">
-        <v>-109.3829814555938</v>
+        <v>-347.0200724667786</v>
       </c>
       <c r="LK2" t="n">
-        <v>-101.5111819969394</v>
+        <v>-347.715211724836</v>
       </c>
       <c r="LL2" t="n">
-        <v>-100.667109625117</v>
+        <v>-349.1197559967068</v>
       </c>
       <c r="LM2" t="n">
-        <v>-93.62538240733836</v>
+        <v>-348.2372209164101</v>
       </c>
       <c r="LN2" t="n">
-        <v>-86.67930972055056</v>
+        <v>-347.5973574350288</v>
       </c>
       <c r="LO2" t="n">
-        <v>-89.15792206753514</v>
+        <v>-348.687330839711</v>
       </c>
       <c r="LP2" t="n">
-        <v>-90.37810179708762</v>
+        <v>-349.360685625037</v>
       </c>
       <c r="LQ2" t="n">
-        <v>-91.59312320530817</v>
+        <v>-348.5623631937372</v>
       </c>
       <c r="LR2" t="n">
-        <v>-91.66668683827893</v>
+        <v>-348.0050946215991</v>
       </c>
       <c r="LS2" t="n">
-        <v>-93.44170089373553</v>
+        <v>-346.8393816113834</v>
       </c>
       <c r="LT2" t="n">
-        <v>-94.64284964330867</v>
+        <v>-345.8731985389085</v>
       </c>
       <c r="LU2" t="n">
-        <v>-98.86082654596352</v>
+        <v>-346.0681543193393</v>
       </c>
       <c r="LV2" t="n">
-        <v>-103.3905859210653</v>
+        <v>-347.2324828727768</v>
       </c>
       <c r="LW2" t="n">
-        <v>-109.7071283791726</v>
+        <v>-347.7953333495</v>
       </c>
       <c r="LX2" t="n">
-        <v>-102.2726867447005</v>
+        <v>-348.101063298462</v>
       </c>
       <c r="LY2" t="n">
-        <v>-107.5207932641566</v>
+        <v>-348.0556185399216</v>
       </c>
       <c r="LZ2" t="n">
-        <v>-108.3924049059932</v>
+        <v>-348.9127513076488</v>
       </c>
       <c r="MA2" t="n">
-        <v>-106.4995446502239</v>
+        <v>-347.6359530207171</v>
       </c>
       <c r="MB2" t="n">
-        <v>-106.4636484944706</v>
+        <v>-346.6293129679997</v>
       </c>
       <c r="MC2" t="n">
-        <v>-107.2121237608918</v>
+        <v>-341.6615584190985</v>
       </c>
       <c r="MD2" t="n">
-        <v>-115.2847711942391</v>
+        <v>-340.5880114942508</v>
       </c>
       <c r="ME2" t="n">
-        <v>-109.4535205056571</v>
+        <v>-341.0351911268312</v>
       </c>
       <c r="MF2" t="n">
-        <v>-109.232937758232</v>
+        <v>-340.273871528832</v>
       </c>
       <c r="MG2" t="n">
-        <v>-105.0008943290119</v>
+        <v>-339.5670696555246</v>
       </c>
       <c r="MH2" t="n">
-        <v>-126.0985217742125</v>
+        <v>-339.4006526656291</v>
       </c>
       <c r="MI2" t="n">
-        <v>-130.2119685089565</v>
+        <v>-340.0996699493865</v>
       </c>
       <c r="MJ2" t="n">
-        <v>-125.1837247566461</v>
+        <v>-339.4250695980672</v>
       </c>
       <c r="MK2" t="n">
-        <v>-124.1284377160434</v>
+        <v>-338.992519245642</v>
       </c>
       <c r="ML2" t="n">
-        <v>-143.4781301222616</v>
+        <v>-338.1649832928725</v>
       </c>
       <c r="MM2" t="n">
-        <v>-138.4002529563367</v>
+        <v>-339.199550138292</v>
       </c>
       <c r="MN2" t="n">
-        <v>-138.0589440709757</v>
+        <v>-340.2846024997318</v>
       </c>
       <c r="MO2" t="n">
-        <v>-137.7075141411138</v>
+        <v>-341.2778211102221</v>
       </c>
       <c r="MP2" t="n">
-        <v>-143.9666534877697</v>
+        <v>-340.627683586242</v>
       </c>
       <c r="MQ2" t="n">
-        <v>-152.1916781588552</v>
+        <v>-341.1837618309787</v>
       </c>
       <c r="MR2" t="n">
-        <v>-160.7647856296325</v>
+        <v>-341.1176551793165</v>
       </c>
       <c r="MS2" t="n">
-        <v>-178.4542772391913</v>
+        <v>-341.6520247115528</v>
       </c>
       <c r="MT2" t="n">
-        <v>-170.0782726045366</v>
+        <v>-342.1639372080757</v>
       </c>
       <c r="MU2" t="n">
-        <v>-161.9941960201987</v>
+        <v>-344.3444129372083</v>
       </c>
       <c r="MV2" t="n">
-        <v>-165.9941241396614</v>
+        <v>-346.2817516149609</v>
       </c>
       <c r="MW2" t="n">
-        <v>-156.6729822459838</v>
+        <v>-347.8664250102561</v>
       </c>
       <c r="MX2" t="n">
-        <v>-151.5074990694866</v>
+        <v>-346.5976720294001</v>
       </c>
       <c r="MY2" t="n">
-        <v>-142.7799297356394</v>
+        <v>-348.0463036879396</v>
       </c>
       <c r="MZ2" t="n">
-        <v>-160.8190635742384</v>
+        <v>-349.4112001924168</v>
       </c>
       <c r="NA2" t="n">
-        <v>-156.8295479945616</v>
+        <v>-349.4119850960704</v>
       </c>
       <c r="NB2" t="n">
-        <v>-152.9775289634738</v>
+        <v>-350.6454902423227</v>
       </c>
       <c r="NC2" t="n">
-        <v>-143.3314561205678</v>
+        <v>-350.0786267219556</v>
       </c>
       <c r="ND2" t="n">
-        <v>-141.9336249426983</v>
+        <v>-349.7010839061348</v>
       </c>
       <c r="NE2" t="n">
-        <v>-147.4861291647916</v>
+        <v>-349.3303568918142</v>
       </c>
       <c r="NF2" t="n">
-        <v>-158.0229363474818</v>
+        <v>-348.6160732026532</v>
       </c>
       <c r="NG2" t="n">
-        <v>-155.6679571464386</v>
+        <v>-348.6988080749219</v>
       </c>
       <c r="NH2" t="n">
-        <v>-146.3200931189025</v>
+        <v>-349.7857912034382</v>
       </c>
       <c r="NI2" t="n">
-        <v>-150.3776341354313</v>
+        <v>-349.188416458665</v>
       </c>
       <c r="NJ2" t="n">
-        <v>-155.5671563215722</v>
+        <v>-347.8964610981537</v>
       </c>
       <c r="NK2" t="n">
-        <v>-161.5623959476076</v>
+        <v>-346.9500026501663</v>
       </c>
       <c r="NL2" t="n">
-        <v>-157.8043401280062</v>
+        <v>-347.977019733714</v>
       </c>
       <c r="NM2" t="n">
-        <v>-148.1894756582271</v>
+        <v>-348.2108467842745</v>
       </c>
       <c r="NN2" t="n">
-        <v>-145.6703776081742</v>
+        <v>-348.9495827701066</v>
       </c>
       <c r="NO2" t="n">
-        <v>-136.6402168365219</v>
+        <v>-348.7680640182935</v>
       </c>
       <c r="NP2" t="n">
-        <v>-132.1034408727587</v>
+        <v>-349.8657470538745</v>
       </c>
       <c r="NQ2" t="n">
-        <v>-139.4315302962056</v>
+        <v>-350.3532325998325</v>
       </c>
       <c r="NR2" t="n">
-        <v>-132.0541419571911</v>
+        <v>-350.8073916831695</v>
       </c>
       <c r="NS2" t="n">
-        <v>-130.0367600151916</v>
+        <v>-350.6548045776575</v>
       </c>
       <c r="NT2" t="n">
-        <v>-129.1265044869866</v>
+        <v>-350.9997384489918</v>
       </c>
       <c r="NU2" t="n">
-        <v>-122.2630861351189</v>
+        <v>-351.2249761905728</v>
       </c>
       <c r="NV2" t="n">
-        <v>-115.7471696694332</v>
+        <v>-350.8210785768744</v>
       </c>
       <c r="NW2" t="n">
-        <v>-114.677522297331</v>
+        <v>-350.2874014751586</v>
       </c>
       <c r="NX2" t="n">
-        <v>-114.6482964619376</v>
+        <v>-349.8473395004207</v>
       </c>
       <c r="NY2" t="n">
-        <v>-111.2243883169963</v>
+        <v>-350.7369352855204</v>
       </c>
       <c r="NZ2" t="n">
-        <v>-118.5052093850805</v>
+        <v>-349.9141819607217</v>
       </c>
       <c r="OA2" t="n">
-        <v>-133.2853748148997</v>
+        <v>-349.266820870407</v>
       </c>
       <c r="OB2" t="n">
-        <v>-126.7240934947851</v>
+        <v>-349.3384008584906</v>
       </c>
       <c r="OC2" t="n">
-        <v>-133.5593123121507</v>
+        <v>-349.8325406812764</v>
       </c>
       <c r="OD2" t="n">
-        <v>-141.1470895253964</v>
+        <v>-350.2985693149717</v>
       </c>
       <c r="OE2" t="n">
-        <v>-134.071949370993</v>
+        <v>-350.3529801590778</v>
       </c>
       <c r="OF2" t="n">
-        <v>-140.316659590056</v>
+        <v>-351.002389380827</v>
       </c>
       <c r="OG2" t="n">
-        <v>-145.2583523667819</v>
+        <v>-350.4282595465106</v>
       </c>
       <c r="OH2" t="n">
-        <v>-137.8996721665823</v>
+        <v>-349.5963820528802</v>
       </c>
       <c r="OI2" t="n">
-        <v>-143.8980623888602</v>
+        <v>-349.8049530123633</v>
       </c>
       <c r="OJ2" t="n">
-        <v>-147.5654208204973</v>
+        <v>-350.0010100113925</v>
       </c>
       <c r="OK2" t="n">
-        <v>-150.4926098238746</v>
+        <v>-348.8484918288937</v>
       </c>
       <c r="OL2" t="n">
-        <v>-142.7892953688034</v>
+        <v>-349.1632115302208</v>
       </c>
       <c r="OM2" t="n">
-        <v>-135.4548569776748</v>
+        <v>-350.4148710321498</v>
       </c>
       <c r="ON2" t="n">
-        <v>-133.1065594895998</v>
+        <v>-350.4461231463878</v>
       </c>
       <c r="OO2" t="n">
-        <v>-126.2235834219981</v>
+        <v>-350.6995031635315</v>
       </c>
       <c r="OP2" t="n">
-        <v>-124.5427540203176</v>
+        <v>-349.6590654922126</v>
       </c>
       <c r="OQ2" t="n">
-        <v>-118.3187061378394</v>
+        <v>-350.6164502048353</v>
       </c>
       <c r="OR2" t="n">
-        <v>-125.5017234296795</v>
+        <v>-350.8100493817939</v>
       </c>
       <c r="OS2" t="n">
-        <v>-133.4449742776694</v>
+        <v>-351.034985112474</v>
       </c>
       <c r="OT2" t="n">
-        <v>-129.1605286523792</v>
+        <v>-348.8325533865218</v>
       </c>
       <c r="OU2" t="n">
-        <v>-135.5723642572771</v>
+        <v>-349.2734366560634</v>
       </c>
       <c r="OV2" t="n">
-        <v>-128.5153698777469</v>
+        <v>-350.0076245246438</v>
       </c>
       <c r="OW2" t="n">
-        <v>-135.0877346535551</v>
+        <v>-350.1738997550493</v>
       </c>
       <c r="OX2" t="n">
-        <v>-128.2448239756229</v>
+        <v>-349.9562819596371</v>
       </c>
       <c r="OY2" t="n">
-        <v>-126.7510103209642</v>
+        <v>-349.215281784891</v>
       </c>
       <c r="OZ2" t="n">
-        <v>-126.7145063144593</v>
+        <v>-347.9269261197263</v>
       </c>
       <c r="PA2" t="n">
-        <v>-120.0764702748671</v>
+        <v>-348.2380911778865</v>
       </c>
       <c r="PB2" t="n">
-        <v>-126.2665807850317</v>
+        <v>-348.4106084344261</v>
       </c>
       <c r="PC2" t="n">
-        <v>-133.205696209282</v>
+        <v>-348.176556467949</v>
       </c>
       <c r="PD2" t="n">
-        <v>-126.3891533608922</v>
+        <v>-348.0892353081564</v>
       </c>
       <c r="PE2" t="n">
-        <v>-124.1765345730059</v>
+        <v>-346.8415593144537</v>
       </c>
       <c r="PF2" t="n">
-        <v>-122.9109860077373</v>
+        <v>-346.9915677806924</v>
       </c>
       <c r="PG2" t="n">
-        <v>-119.2735163682572</v>
+        <v>-347.1479489630589</v>
       </c>
       <c r="PH2" t="n">
-        <v>-113.4506459731084</v>
+        <v>-347.7084324245406</v>
       </c>
       <c r="PI2" t="n">
-        <v>-121.0361227476508</v>
+        <v>-348.4217913417347</v>
       </c>
       <c r="PJ2" t="n">
-        <v>-115.1768963855705</v>
+        <v>-347.3163494524339</v>
       </c>
       <c r="PK2" t="n">
-        <v>-109.6465143849016</v>
+        <v>-347.8152058507989</v>
       </c>
       <c r="PL2" t="n">
-        <v>-117.4392173523119</v>
+        <v>-347.3602317276873</v>
       </c>
       <c r="PM2" t="n">
-        <v>-111.8247769064327</v>
+        <v>-347.4194376691041</v>
       </c>
       <c r="PN2" t="n">
-        <v>-111.2962633256756</v>
+        <v>-347.8056711758867</v>
       </c>
       <c r="PO2" t="n">
-        <v>-110.3931730312299</v>
+        <v>-348.0325960749983</v>
       </c>
       <c r="PP2" t="n">
-        <v>-118.0267404055567</v>
+        <v>-348.6856247443206</v>
       </c>
       <c r="PQ2" t="n">
-        <v>-112.5349840716118</v>
+        <v>-348.9302119705791</v>
       </c>
       <c r="PR2" t="n">
-        <v>-120.3588863760801</v>
+        <v>-349.1614384285728</v>
       </c>
       <c r="PS2" t="n">
-        <v>-129.0492792295964</v>
+        <v>-349.181478826056</v>
       </c>
       <c r="PT2" t="n">
-        <v>-124.3760302608455</v>
+        <v>-348.8638088439548</v>
       </c>
       <c r="PU2" t="n">
-        <v>-132.924552419064</v>
+        <v>-349.3478254371482</v>
       </c>
       <c r="PV2" t="n">
-        <v>-130.849001647628</v>
+        <v>-349.0895514744939</v>
       </c>
       <c r="PW2" t="n">
-        <v>-129.0953612392292</v>
+        <v>-348.1744846376438</v>
       </c>
       <c r="PX2" t="n">
-        <v>-124.5141639631022</v>
+        <v>-347.3064487308159</v>
       </c>
       <c r="PY2" t="n">
-        <v>-123.3620460698194</v>
+        <v>-346.4784530914451</v>
       </c>
       <c r="PZ2" t="n">
-        <v>-123.7038676884806</v>
+        <v>-346.4873907170604</v>
       </c>
       <c r="QA2" t="n">
-        <v>-122.6502941379995</v>
+        <v>-347.5529413163033</v>
       </c>
       <c r="QB2" t="n">
-        <v>-123.146267817327</v>
+        <v>-348.5673528849732</v>
       </c>
       <c r="QC2" t="n">
-        <v>-120.9262919289614</v>
+        <v>-348.3873327652101</v>
       </c>
       <c r="QD2" t="n">
-        <v>-121.1149509452529</v>
+        <v>-348.8135726101845</v>
       </c>
       <c r="QE2" t="n">
-        <v>-122.2177685564307</v>
+        <v>-347.8635374094852</v>
       </c>
       <c r="QF2" t="n">
-        <v>-128.0845416945168</v>
+        <v>-348.5989078702223</v>
       </c>
       <c r="QG2" t="n">
-        <v>-127.0661594958251</v>
+        <v>-349.1014590584652</v>
       </c>
       <c r="QH2" t="n">
-        <v>-122.7393705837508</v>
+        <v>-349.3290426080508</v>
       </c>
       <c r="QI2" t="n">
-        <v>-130.2981534910927</v>
+        <v>-349.7308140454418</v>
       </c>
       <c r="QJ2" t="n">
-        <v>-138.7321827646067</v>
+        <v>-350.4700088497796</v>
       </c>
       <c r="QK2" t="n">
-        <v>-137.9639070739599</v>
+        <v>-349.9672900262049</v>
       </c>
       <c r="QL2" t="n">
-        <v>-137.5244106216968</v>
+        <v>-349.4998462063202</v>
       </c>
       <c r="QM2" t="n">
-        <v>-137.7495718198766</v>
+        <v>-349.1425571633968</v>
       </c>
       <c r="QN2" t="n">
-        <v>-142.1184929875909</v>
+        <v>-348.8020126059328</v>
       </c>
       <c r="QO2" t="n">
-        <v>-140.9179396276126</v>
+        <v>-348.084388886315</v>
       </c>
       <c r="QP2" t="n">
-        <v>-145.2008798599734</v>
+        <v>-347.5411751384482</v>
       </c>
       <c r="QQ2" t="n">
-        <v>-144.4559733922362</v>
+        <v>-348.0105483301153</v>
       </c>
       <c r="QR2" t="n">
-        <v>-144.2922833398997</v>
+        <v>-347.1910564945978</v>
       </c>
       <c r="QS2" t="n">
-        <v>-142.0408139352852</v>
+        <v>-347.1996982182116</v>
       </c>
       <c r="QT2" t="n">
-        <v>-146.2221550492713</v>
+        <v>-348.4439339818138</v>
       </c>
       <c r="QU2" t="n">
-        <v>-152.1877746539431</v>
+        <v>-348.0659111417272</v>
       </c>
       <c r="QV2" t="n">
-        <v>-156.1539286886186</v>
+        <v>-348.4860286917139</v>
       </c>
       <c r="QW2" t="n">
-        <v>-154.207115677813</v>
+        <v>-347.9137259049896</v>
       </c>
       <c r="QX2" t="n">
-        <v>-158.6952204870364</v>
+        <v>-347.3165296075829</v>
       </c>
       <c r="QY2" t="n">
-        <v>-162.8982411396009</v>
+        <v>-348.2196301928124</v>
       </c>
       <c r="QZ2" t="n">
-        <v>-167.863311714878</v>
+        <v>-348.8740119426586</v>
       </c>
       <c r="RA2" t="n">
-        <v>-171.1514418544975</v>
+        <v>-348.5490459450871</v>
       </c>
       <c r="RB2" t="n">
-        <v>-169.1115069169927</v>
+        <v>-347.3651152513613</v>
       </c>
       <c r="RC2" t="n">
-        <v>-167.9049217418441</v>
+        <v>-346.8881620462256</v>
       </c>
       <c r="RD2" t="n">
-        <v>-167.4555424033108</v>
+        <v>-346.4388689640727</v>
       </c>
       <c r="RE2" t="n">
-        <v>-169.5353868636481</v>
+        <v>-347.1066006889699</v>
       </c>
       <c r="RF2" t="n">
-        <v>-173.164809706854</v>
+        <v>-347.3648414754824</v>
       </c>
       <c r="RG2" t="n">
-        <v>-177.6034602425505</v>
+        <v>-347.5224338132346</v>
       </c>
       <c r="RH2" t="n">
-        <v>-179.1387487881944</v>
+        <v>-347.6936126228069</v>
       </c>
       <c r="RI2" t="n">
-        <v>-183.5474044391317</v>
+        <v>-347.0969537541705</v>
       </c>
       <c r="RJ2" t="n">
-        <v>-185.1020293782008</v>
+        <v>-348.1612208169135</v>
       </c>
       <c r="RK2" t="n">
-        <v>-187.5831945375161</v>
+        <v>-348.3360561884902</v>
       </c>
       <c r="RL2" t="n">
-        <v>-180.2123173645276</v>
+        <v>-348.5012250014867</v>
       </c>
       <c r="RM2" t="n">
-        <v>-183.2219213999093</v>
+        <v>-349.836276552853</v>
       </c>
       <c r="RN2" t="n">
-        <v>-187.2176047446179</v>
+        <v>-350.7144583261328</v>
       </c>
       <c r="RO2" t="n">
-        <v>-191.9662749847136</v>
+        <v>-350.1589027861234</v>
       </c>
       <c r="RP2" t="n">
-        <v>-193.514602391576</v>
+        <v>-350.3711718865825</v>
       </c>
       <c r="RQ2" t="n">
-        <v>-196.0007856145907</v>
+        <v>-349.4816171108411</v>
       </c>
       <c r="RR2" t="n">
-        <v>-197.3462818591261</v>
+        <v>-348.9477639323458</v>
       </c>
       <c r="RS2" t="n">
-        <v>-199.6743942558588</v>
+        <v>-348.8301488662753</v>
       </c>
       <c r="RT2" t="n">
-        <v>-203.0780277261717</v>
+        <v>-348.6756462089265</v>
       </c>
       <c r="RU2" t="n">
-        <v>-204.4720840130596</v>
+        <v>-347.0795238884299</v>
       </c>
       <c r="RV2" t="n">
-        <v>-206.9118819070873</v>
+        <v>-346.8986605790934</v>
       </c>
       <c r="RW2" t="n">
-        <v>-194.9937554365082</v>
+        <v>-347.8921301542655</v>
       </c>
       <c r="RX2" t="n">
-        <v>-183.616608517795</v>
+        <v>-347.9561721234439</v>
       </c>
       <c r="RY2" t="n">
-        <v>-185.7267806916694</v>
+        <v>-347.951771832061</v>
       </c>
       <c r="RZ2" t="n">
-        <v>-188.9098539501223</v>
+        <v>-348.0397833267861</v>
       </c>
       <c r="SA2" t="n">
-        <v>-190.6885345940777</v>
+        <v>-348.2554357954962</v>
       </c>
       <c r="SB2" t="n">
-        <v>-193.5509362394126</v>
+        <v>-348.4712196422702</v>
       </c>
       <c r="SC2" t="n">
-        <v>-195.0390119797417</v>
+        <v>-347.9957180499569</v>
       </c>
       <c r="SD2" t="n">
-        <v>-197.6141137185094</v>
+        <v>-348.9215949463402</v>
       </c>
       <c r="SE2" t="n">
-        <v>-199.184280512461</v>
+        <v>-347.8316172011</v>
       </c>
       <c r="SF2" t="n">
-        <v>-199.2956950857472</v>
+        <v>-348.0554362250509</v>
       </c>
       <c r="SG2" t="n">
-        <v>-200.4961172624836</v>
+        <v>-348.2687411689764</v>
       </c>
     </row>
     <row r="3">
@@ -3445,1504 +3445,1504 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>284.1461294711114</v>
+        <v>-41.81837611330057</v>
       </c>
       <c r="C3" t="n">
-        <v>388.6627231179451</v>
+        <v>-56.10242540267031</v>
       </c>
       <c r="D3" t="n">
-        <v>457.7117759298916</v>
+        <v>-65.14876654147641</v>
       </c>
       <c r="E3" t="n">
-        <v>502.2487464962589</v>
+        <v>-71.89314868379219</v>
       </c>
       <c r="F3" t="n">
-        <v>538.8124851869107</v>
+        <v>-77.69345072591284</v>
       </c>
       <c r="G3" t="n">
-        <v>566.0779830989298</v>
+        <v>-77.34702145586185</v>
       </c>
       <c r="H3" t="n">
-        <v>584.9545890362085</v>
+        <v>-80.10438788149585</v>
       </c>
       <c r="I3" t="n">
-        <v>599.604407432642</v>
+        <v>-82.75848951167772</v>
       </c>
       <c r="J3" t="n">
-        <v>607.3958479620215</v>
+        <v>-84.66734740160132</v>
       </c>
       <c r="K3" t="n">
-        <v>613.159116541525</v>
+        <v>-82.84685640731416</v>
       </c>
       <c r="L3" t="n">
-        <v>615.8956713855696</v>
+        <v>-84.39915552605041</v>
       </c>
       <c r="M3" t="n">
-        <v>617.7551952325751</v>
+        <v>-81.24472733228251</v>
       </c>
       <c r="N3" t="n">
-        <v>614.7178494469882</v>
+        <v>-81.73038854113916</v>
       </c>
       <c r="O3" t="n">
-        <v>615.2260919585291</v>
+        <v>-78.84210651877137</v>
       </c>
       <c r="P3" t="n">
-        <v>614.743587135334</v>
+        <v>-80.6616362765055</v>
       </c>
       <c r="Q3" t="n">
-        <v>615.4990908719968</v>
+        <v>-81.58421290168775</v>
       </c>
       <c r="R3" t="n">
-        <v>613.4532916502342</v>
+        <v>-78.84440204041556</v>
       </c>
       <c r="S3" t="n">
-        <v>611.1961382074528</v>
+        <v>-80.57861815563909</v>
       </c>
       <c r="T3" t="n">
-        <v>607.1316136314679</v>
+        <v>-81.09282175163889</v>
       </c>
       <c r="U3" t="n">
-        <v>609.8202017080312</v>
+        <v>-78.21517057556525</v>
       </c>
       <c r="V3" t="n">
-        <v>607.9688674620722</v>
+        <v>-79.11924196193515</v>
       </c>
       <c r="W3" t="n">
-        <v>605.6964721557118</v>
+        <v>-76.58709803599064</v>
       </c>
       <c r="X3" t="n">
-        <v>604.3604446093378</v>
+        <v>-77.13377509784287</v>
       </c>
       <c r="Y3" t="n">
-        <v>604.2281020638027</v>
+        <v>-78.33078943469835</v>
       </c>
       <c r="Z3" t="n">
-        <v>601.7581508815105</v>
+        <v>-77.1177063447153</v>
       </c>
       <c r="AA3" t="n">
-        <v>600.1279239742526</v>
+        <v>-78.01594822138345</v>
       </c>
       <c r="AB3" t="n">
-        <v>598.6619531975072</v>
+        <v>-76.81986577640177</v>
       </c>
       <c r="AC3" t="n">
-        <v>597.8312264015614</v>
+        <v>-77.16824160359741</v>
       </c>
       <c r="AD3" t="n">
-        <v>597.9194441698696</v>
+        <v>-77.87202914318718</v>
       </c>
       <c r="AE3" t="n">
-        <v>596.4738174739286</v>
+        <v>-76.06807928869011</v>
       </c>
       <c r="AF3" t="n">
-        <v>592.3765568003215</v>
+        <v>-77.44883062479798</v>
       </c>
       <c r="AG3" t="n">
-        <v>591.360339390883</v>
+        <v>-78.36542751947563</v>
       </c>
       <c r="AH3" t="n">
-        <v>590.0193901470485</v>
+        <v>-77.77790046276122</v>
       </c>
       <c r="AI3" t="n">
-        <v>589.516971213759</v>
+        <v>-78.76694375128541</v>
       </c>
       <c r="AJ3" t="n">
-        <v>585.8664077691645</v>
+        <v>-79.51885177074921</v>
       </c>
       <c r="AK3" t="n">
-        <v>585.3394535725635</v>
+        <v>-80.19960855083039</v>
       </c>
       <c r="AL3" t="n">
-        <v>585.4762611660518</v>
+        <v>-81.2353236446192</v>
       </c>
       <c r="AM3" t="n">
-        <v>586.2743428378661</v>
+        <v>-81.76295745776937</v>
       </c>
       <c r="AN3" t="n">
-        <v>584.383226547691</v>
+        <v>-82.11712228593109</v>
       </c>
       <c r="AO3" t="n">
-        <v>584.6378219363646</v>
+        <v>-82.43242805823189</v>
       </c>
       <c r="AP3" t="n">
-        <v>583.6071001859826</v>
+        <v>-82.42242705068429</v>
       </c>
       <c r="AQ3" t="n">
-        <v>582.6875579544262</v>
+        <v>-82.35388803467247</v>
       </c>
       <c r="AR3" t="n">
-        <v>582.1762287064118</v>
+        <v>-80.43293290320217</v>
       </c>
       <c r="AS3" t="n">
-        <v>581.0660549437875</v>
+        <v>-80.84797396604876</v>
       </c>
       <c r="AT3" t="n">
-        <v>581.3728488638529</v>
+        <v>-81.27620767684448</v>
       </c>
       <c r="AU3" t="n">
-        <v>580.7717995348848</v>
+        <v>-80.61175194602124</v>
       </c>
       <c r="AV3" t="n">
-        <v>580.2239155011735</v>
+        <v>-81.07084580049266</v>
       </c>
       <c r="AW3" t="n">
-        <v>579.2997993743293</v>
+        <v>-80.94368783396685</v>
       </c>
       <c r="AX3" t="n">
-        <v>579.74463901579</v>
+        <v>-80.81610347302602</v>
       </c>
       <c r="AY3" t="n">
-        <v>580.238129103626</v>
+        <v>-81.14066212990539</v>
       </c>
       <c r="AZ3" t="n">
-        <v>576.960979140732</v>
+        <v>-81.47642079146404</v>
       </c>
       <c r="BA3" t="n">
-        <v>583.1952105659647</v>
+        <v>-80.8695444406421</v>
       </c>
       <c r="BB3" t="n">
-        <v>583.2242670720534</v>
+        <v>-81.00902644894614</v>
       </c>
       <c r="BC3" t="n">
-        <v>581.4665102686153</v>
+        <v>-81.24728411291372</v>
       </c>
       <c r="BD3" t="n">
-        <v>581.5363998691181</v>
+        <v>-79.77000740897012</v>
       </c>
       <c r="BE3" t="n">
-        <v>581.3116030046546</v>
+        <v>-80.13787735739685</v>
       </c>
       <c r="BF3" t="n">
-        <v>580.5051231284052</v>
+        <v>-79.1794538864488</v>
       </c>
       <c r="BG3" t="n">
-        <v>577.3780366436363</v>
+        <v>-79.19074103072209</v>
       </c>
       <c r="BH3" t="n">
-        <v>575.7950528485188</v>
+        <v>-79.79737490957835</v>
       </c>
       <c r="BI3" t="n">
-        <v>576.0548442181801</v>
+        <v>-78.72242299550483</v>
       </c>
       <c r="BJ3" t="n">
-        <v>573.5927104341275</v>
+        <v>-78.89199551087985</v>
       </c>
       <c r="BK3" t="n">
-        <v>573.4274205935146</v>
+        <v>-79.20395881739107</v>
       </c>
       <c r="BL3" t="n">
-        <v>573.3598614903678</v>
+        <v>-78.26625708106974</v>
       </c>
       <c r="BM3" t="n">
-        <v>573.7377802437105</v>
+        <v>-78.56457541778717</v>
       </c>
       <c r="BN3" t="n">
-        <v>574.8386945976217</v>
+        <v>-78.7030775302914</v>
       </c>
       <c r="BO3" t="n">
-        <v>574.6556385370127</v>
+        <v>-77.28425268543293</v>
       </c>
       <c r="BP3" t="n">
-        <v>576.0806179992753</v>
+        <v>-77.5658389109132</v>
       </c>
       <c r="BQ3" t="n">
-        <v>577.8303754357165</v>
+        <v>-77.80684519406648</v>
       </c>
       <c r="BR3" t="n">
-        <v>574.9762480826388</v>
+        <v>-76.28786265053199</v>
       </c>
       <c r="BS3" t="n">
-        <v>573.1567737860955</v>
+        <v>-77.06348146175456</v>
       </c>
       <c r="BT3" t="n">
-        <v>570.8985960456122</v>
+        <v>-77.32531643545688</v>
       </c>
       <c r="BU3" t="n">
-        <v>568.7671150596985</v>
+        <v>-77.55161121788474</v>
       </c>
       <c r="BV3" t="n">
-        <v>569.4950341075577</v>
+        <v>-76.69420127897813</v>
       </c>
       <c r="BW3" t="n">
-        <v>571.0449270611538</v>
+        <v>-77.34409520673027</v>
       </c>
       <c r="BX3" t="n">
-        <v>568.9556208663447</v>
+        <v>-77.80869559245969</v>
       </c>
       <c r="BY3" t="n">
-        <v>567.9411675689333</v>
+        <v>-76.81809259380776</v>
       </c>
       <c r="BZ3" t="n">
-        <v>567.6746199101129</v>
+        <v>-77.46071332479988</v>
       </c>
       <c r="CA3" t="n">
-        <v>571.1354001955871</v>
+        <v>-78.1239107320748</v>
       </c>
       <c r="CB3" t="n">
-        <v>572.3568565356662</v>
+        <v>-78.7538357704839</v>
       </c>
       <c r="CC3" t="n">
-        <v>567.1224260347093</v>
+        <v>-79.21875423044563</v>
       </c>
       <c r="CD3" t="n">
-        <v>547.253225020988</v>
+        <v>-78.24398006731182</v>
       </c>
       <c r="CE3" t="n">
-        <v>546.2046164142196</v>
+        <v>-78.4913176314147</v>
       </c>
       <c r="CF3" t="n">
-        <v>510.2384644592092</v>
+        <v>-77.37997072112064</v>
       </c>
       <c r="CG3" t="n">
-        <v>483.3027392040289</v>
+        <v>-77.84604157354299</v>
       </c>
       <c r="CH3" t="n">
-        <v>467.3777295062804</v>
+        <v>-78.08079332803412</v>
       </c>
       <c r="CI3" t="n">
-        <v>445.7895505655231</v>
+        <v>-77.31416307329658</v>
       </c>
       <c r="CJ3" t="n">
-        <v>447.6975626027497</v>
+        <v>-77.82028615197014</v>
       </c>
       <c r="CK3" t="n">
-        <v>436.9976013400579</v>
+        <v>-77.65099557828368</v>
       </c>
       <c r="CL3" t="n">
-        <v>412.6913318845193</v>
+        <v>-75.72560474946039</v>
       </c>
       <c r="CM3" t="n">
-        <v>400.3545585413841</v>
+        <v>-76.13792612963624</v>
       </c>
       <c r="CN3" t="n">
-        <v>401.626959486775</v>
+        <v>-76.85931107397838</v>
       </c>
       <c r="CO3" t="n">
-        <v>398.8104000362885</v>
+        <v>-76.15249824722221</v>
       </c>
       <c r="CP3" t="n">
-        <v>398.6720669634756</v>
+        <v>-76.68732951376197</v>
       </c>
       <c r="CQ3" t="n">
-        <v>406.6222822894375</v>
+        <v>-77.22313439824089</v>
       </c>
       <c r="CR3" t="n">
-        <v>398.7556965587282</v>
+        <v>-77.92554475277156</v>
       </c>
       <c r="CS3" t="n">
-        <v>407.049233497341</v>
+        <v>-77.93802817453862</v>
       </c>
       <c r="CT3" t="n">
-        <v>433.2439851546445</v>
+        <v>-77.94910887588904</v>
       </c>
       <c r="CU3" t="n">
-        <v>411.8665031159523</v>
+        <v>-78.61448328604695</v>
       </c>
       <c r="CV3" t="n">
-        <v>348.4403207800779</v>
+        <v>-78.52594228204218</v>
       </c>
       <c r="CW3" t="n">
-        <v>316.1297864255209</v>
+        <v>-79.23568568649362</v>
       </c>
       <c r="CX3" t="n">
-        <v>292.0528323077529</v>
+        <v>-79.44215359015648</v>
       </c>
       <c r="CY3" t="n">
-        <v>269.6466122770816</v>
+        <v>-78.09760055548263</v>
       </c>
       <c r="CZ3" t="n">
-        <v>259.8867167310652</v>
+        <v>-78.26522915969946</v>
       </c>
       <c r="DA3" t="n">
-        <v>242.0684084972424</v>
+        <v>-78.34509891666758</v>
       </c>
       <c r="DB3" t="n">
-        <v>230.5553049053272</v>
+        <v>-76.88729720307214</v>
       </c>
       <c r="DC3" t="n">
-        <v>225.4763099283273</v>
+        <v>-77.56129211476573</v>
       </c>
       <c r="DD3" t="n">
-        <v>218.139351463582</v>
+        <v>-78.33059517388639</v>
       </c>
       <c r="DE3" t="n">
-        <v>210.1505904043791</v>
+        <v>-79.06029618109552</v>
       </c>
       <c r="DF3" t="n">
-        <v>204.6354816240101</v>
+        <v>-79.49919975246439</v>
       </c>
       <c r="DG3" t="n">
-        <v>204.264088671921</v>
+        <v>-78.66261687090353</v>
       </c>
       <c r="DH3" t="n">
-        <v>204.3719486963203</v>
+        <v>-78.89390330778811</v>
       </c>
       <c r="DI3" t="n">
-        <v>201.1173553525054</v>
+        <v>-79.2587710945318</v>
       </c>
       <c r="DJ3" t="n">
-        <v>195.5198620667102</v>
+        <v>-78.1744469248371</v>
       </c>
       <c r="DK3" t="n">
-        <v>191.2507903522101</v>
+        <v>-78.61800642932803</v>
       </c>
       <c r="DL3" t="n">
-        <v>185.4075092265851</v>
+        <v>-79.30999780432349</v>
       </c>
       <c r="DM3" t="n">
-        <v>179.7795314126101</v>
+        <v>-78.458649830612</v>
       </c>
       <c r="DN3" t="n">
-        <v>172.0146667705778</v>
+        <v>-79.1263500567939</v>
       </c>
       <c r="DO3" t="n">
-        <v>163.1708114602512</v>
+        <v>-79.29860130476847</v>
       </c>
       <c r="DP3" t="n">
-        <v>147.7347345853499</v>
+        <v>-79.45968177450128</v>
       </c>
       <c r="DQ3" t="n">
-        <v>136.6467049138255</v>
+        <v>-80.05735635392098</v>
       </c>
       <c r="DR3" t="n">
-        <v>128.8415288189141</v>
+        <v>-80.38312559471278</v>
       </c>
       <c r="DS3" t="n">
-        <v>122.3829539278343</v>
+        <v>-80.72904895657092</v>
       </c>
       <c r="DT3" t="n">
-        <v>103.6977104626362</v>
+        <v>-79.98960443369789</v>
       </c>
       <c r="DU3" t="n">
-        <v>102.7572983207578</v>
+        <v>-80.30123362473567</v>
       </c>
       <c r="DV3" t="n">
-        <v>106.1780779940123</v>
+        <v>-80.81289146679715</v>
       </c>
       <c r="DW3" t="n">
-        <v>92.8421894267547</v>
+        <v>-80.35187520391639</v>
       </c>
       <c r="DX3" t="n">
-        <v>77.53878534283612</v>
+        <v>-80.54750263840718</v>
       </c>
       <c r="DY3" t="n">
-        <v>80.70925184778204</v>
+        <v>-80.53034886558169</v>
       </c>
       <c r="DZ3" t="n">
-        <v>86.89893682644117</v>
+        <v>-79.62308189782368</v>
       </c>
       <c r="EA3" t="n">
-        <v>81.8363163580086</v>
+        <v>-79.94703093072893</v>
       </c>
       <c r="EB3" t="n">
-        <v>86.14657986032871</v>
+        <v>-80.16248490905311</v>
       </c>
       <c r="EC3" t="n">
-        <v>92.54921004100636</v>
+        <v>-79.45145935311679</v>
       </c>
       <c r="ED3" t="n">
-        <v>85.78909297803536</v>
+        <v>-79.73916885725178</v>
       </c>
       <c r="EE3" t="n">
-        <v>65.11272320372848</v>
+        <v>-79.89687562700288</v>
       </c>
       <c r="EF3" t="n">
-        <v>70.69486948700899</v>
+        <v>-80.04523209503724</v>
       </c>
       <c r="EG3" t="n">
-        <v>74.377495799415</v>
+        <v>-80.21340753016455</v>
       </c>
       <c r="EH3" t="n">
-        <v>62.04135395699721</v>
+        <v>-80.34501322636547</v>
       </c>
       <c r="EI3" t="n">
-        <v>67.42370805598613</v>
+        <v>-80.558757998736</v>
       </c>
       <c r="EJ3" t="n">
-        <v>63.2118812301126</v>
+        <v>-79.30879092445007</v>
       </c>
       <c r="EK3" t="n">
-        <v>71.43766748003293</v>
+        <v>-79.53469936340609</v>
       </c>
       <c r="EL3" t="n">
-        <v>69.53984883324601</v>
+        <v>-79.77417834627995</v>
       </c>
       <c r="EM3" t="n">
-        <v>75.08620265287188</v>
+        <v>-78.97704765595675</v>
       </c>
       <c r="EN3" t="n">
-        <v>82.73973833810737</v>
+        <v>-79.63900317467561</v>
       </c>
       <c r="EO3" t="n">
-        <v>76.47135789082897</v>
+        <v>-79.90170538793724</v>
       </c>
       <c r="EP3" t="n">
-        <v>63.82405614336184</v>
+        <v>-80.15028840058093</v>
       </c>
       <c r="EQ3" t="n">
-        <v>68.89253966635577</v>
+        <v>-80.55355448530835</v>
       </c>
       <c r="ER3" t="n">
-        <v>72.61946180429264</v>
+        <v>-80.10045099595126</v>
       </c>
       <c r="ES3" t="n">
-        <v>77.11156904349923</v>
+        <v>-80.3261775144596</v>
       </c>
       <c r="ET3" t="n">
-        <v>83.02633024964416</v>
+        <v>-80.36250431478219</v>
       </c>
       <c r="EU3" t="n">
-        <v>89.37463549839009</v>
+        <v>-78.95667686573522</v>
       </c>
       <c r="EV3" t="n">
-        <v>91.78281877998967</v>
+        <v>-79.1057288276353</v>
       </c>
       <c r="EW3" t="n">
-        <v>96.68313120762842</v>
+        <v>-79.5275198274354</v>
       </c>
       <c r="EX3" t="n">
-        <v>102.3116636341416</v>
+        <v>-79.1384391239359</v>
       </c>
       <c r="EY3" t="n">
-        <v>95.11819985177847</v>
+        <v>-79.16437352506075</v>
       </c>
       <c r="EZ3" t="n">
-        <v>85.06905821795121</v>
+        <v>-77.46256646116383</v>
       </c>
       <c r="FA3" t="n">
-        <v>93.17262670913993</v>
+        <v>-77.83624917187913</v>
       </c>
       <c r="FB3" t="n">
-        <v>90.72341910906184</v>
+        <v>-78.10759197472962</v>
       </c>
       <c r="FC3" t="n">
-        <v>96.46558133676666</v>
+        <v>-78.36877441715339</v>
       </c>
       <c r="FD3" t="n">
-        <v>100.8906904719964</v>
+        <v>-78.6738209048188</v>
       </c>
       <c r="FE3" t="n">
-        <v>94.16931027633733</v>
+        <v>-77.99193689303843</v>
       </c>
       <c r="FF3" t="n">
-        <v>81.2776346982665</v>
+        <v>-78.08068000764186</v>
       </c>
       <c r="FG3" t="n">
-        <v>84.61703140907855</v>
+        <v>-78.16788894226747</v>
       </c>
       <c r="FH3" t="n">
-        <v>84.64804138471466</v>
+        <v>-78.81934900766231</v>
       </c>
       <c r="FI3" t="n">
-        <v>89.5562342601839</v>
+        <v>-79.43891689658426</v>
       </c>
       <c r="FJ3" t="n">
-        <v>90.09048401306156</v>
+        <v>-79.24058252646616</v>
       </c>
       <c r="FK3" t="n">
-        <v>93.46292495240763</v>
+        <v>-79.73164697648268</v>
       </c>
       <c r="FL3" t="n">
-        <v>96.53196448516594</v>
+        <v>-79.94643929518946</v>
       </c>
       <c r="FM3" t="n">
-        <v>99.39484301680066</v>
+        <v>-80.25821400617593</v>
       </c>
       <c r="FN3" t="n">
-        <v>95.30916765245992</v>
+        <v>-79.35008816772651</v>
       </c>
       <c r="FO3" t="n">
-        <v>91.42511916343393</v>
+        <v>-79.7450306487607</v>
       </c>
       <c r="FP3" t="n">
-        <v>84.97468687718158</v>
+        <v>-78.74782249232925</v>
       </c>
       <c r="FQ3" t="n">
-        <v>86.63991471409662</v>
+        <v>-79.24088511519456</v>
       </c>
       <c r="FR3" t="n">
-        <v>79.88853113589292</v>
+        <v>-79.67775030201797</v>
       </c>
       <c r="FS3" t="n">
-        <v>86.53419955201208</v>
+        <v>-80.09160119472018</v>
       </c>
       <c r="FT3" t="n">
-        <v>93.54666373736703</v>
+        <v>-80.51976895708431</v>
       </c>
       <c r="FU3" t="n">
-        <v>102.007947777621</v>
+        <v>-80.92331517334453</v>
       </c>
       <c r="FV3" t="n">
-        <v>106.8137966298128</v>
+        <v>-80.80275151058149</v>
       </c>
       <c r="FW3" t="n">
-        <v>110.3626499654431</v>
+        <v>-80.68463215315175</v>
       </c>
       <c r="FX3" t="n">
-        <v>115.2504546933719</v>
+        <v>-81.22678244017703</v>
       </c>
       <c r="FY3" t="n">
-        <v>118.0349471195726</v>
+        <v>-81.73748753187814</v>
       </c>
       <c r="FZ3" t="n">
-        <v>119.8601846778503</v>
+        <v>-80.947582303047</v>
       </c>
       <c r="GA3" t="n">
-        <v>124.464339293952</v>
+        <v>-81.16656808506326</v>
       </c>
       <c r="GB3" t="n">
-        <v>129.6349082680817</v>
+        <v>-81.36893879396818</v>
       </c>
       <c r="GC3" t="n">
-        <v>134.6994672913774</v>
+        <v>-81.55733664311053</v>
       </c>
       <c r="GD3" t="n">
-        <v>145.8855210143583</v>
+        <v>-80.71671886927626</v>
       </c>
       <c r="GE3" t="n">
-        <v>147.9295251125614</v>
+        <v>-80.76400787058569</v>
       </c>
       <c r="GF3" t="n">
-        <v>148.5167185738225</v>
+        <v>-80.78980637432238</v>
       </c>
       <c r="GG3" t="n">
-        <v>149.3800222719303</v>
+        <v>-80.81258900460102</v>
       </c>
       <c r="GH3" t="n">
-        <v>150.323193749293</v>
+        <v>-81.06916852344601</v>
       </c>
       <c r="GI3" t="n">
-        <v>151.4917087997263</v>
+        <v>-81.31064136475901</v>
       </c>
       <c r="GJ3" t="n">
-        <v>163.8753822378181</v>
+        <v>-81.30087077775158</v>
       </c>
       <c r="GK3" t="n">
-        <v>165.6417084807359</v>
+        <v>-81.28896238102321</v>
       </c>
       <c r="GL3" t="n">
-        <v>167.2009971637089</v>
+        <v>-80.21506767895741</v>
       </c>
       <c r="GM3" t="n">
-        <v>166.7328808335778</v>
+        <v>-80.35390467982739</v>
       </c>
       <c r="GN3" t="n">
-        <v>175.8324194290882</v>
+        <v>-80.5872666239709</v>
       </c>
       <c r="GO3" t="n">
-        <v>186.0688008837055</v>
+        <v>-80.33038630201627</v>
       </c>
       <c r="GP3" t="n">
-        <v>185.7291538527134</v>
+        <v>-80.52921691683784</v>
       </c>
       <c r="GQ3" t="n">
-        <v>193.0748595485271</v>
+        <v>-80.86520726515697</v>
       </c>
       <c r="GR3" t="n">
-        <v>201.5584234600204</v>
+        <v>-81.33490433000355</v>
       </c>
       <c r="GS3" t="n">
-        <v>200.2322342811259</v>
+        <v>-81.92972452630221</v>
       </c>
       <c r="GT3" t="n">
-        <v>206.326775230873</v>
+        <v>-81.8655502551853</v>
       </c>
       <c r="GU3" t="n">
-        <v>200.0622639347925</v>
+        <v>-82.15524018811902</v>
       </c>
       <c r="GV3" t="n">
-        <v>193.583060627682</v>
+        <v>-82.36908422064413</v>
       </c>
       <c r="GW3" t="n">
-        <v>192.5044374241699</v>
+        <v>-82.36144959839716</v>
       </c>
       <c r="GX3" t="n">
-        <v>197.6399046378702</v>
+        <v>-82.4181531148989</v>
       </c>
       <c r="GY3" t="n">
-        <v>203.9399762648713</v>
+        <v>-82.46795429241098</v>
       </c>
       <c r="GZ3" t="n">
-        <v>202.7788686508233</v>
+        <v>-82.68297419707221</v>
       </c>
       <c r="HA3" t="n">
-        <v>207.839143579274</v>
+        <v>-82.66666966198116</v>
       </c>
       <c r="HB3" t="n">
-        <v>213.8003305317535</v>
+        <v>-81.70789299600442</v>
       </c>
       <c r="HC3" t="n">
-        <v>209.9149413872978</v>
+        <v>-81.72631043502849</v>
       </c>
       <c r="HD3" t="n">
-        <v>207.6606117509875</v>
+        <v>-81.68115637955283</v>
       </c>
       <c r="HE3" t="n">
-        <v>209.985802750444</v>
+        <v>-81.78056205644582</v>
       </c>
       <c r="HF3" t="n">
-        <v>213.8325956551804</v>
+        <v>-81.98040717353859</v>
       </c>
       <c r="HG3" t="n">
-        <v>210.4373258583578</v>
+        <v>-81.28649647195789</v>
       </c>
       <c r="HH3" t="n">
-        <v>214.5609865065838</v>
+        <v>-81.39728508472898</v>
       </c>
       <c r="HI3" t="n">
-        <v>220.1102873897752</v>
+        <v>-80.62897071688603</v>
       </c>
       <c r="HJ3" t="n">
-        <v>214.7251815610524</v>
+        <v>-81.03344107612385</v>
       </c>
       <c r="HK3" t="n">
-        <v>218.2325587882775</v>
+        <v>-80.47301547009725</v>
       </c>
       <c r="HL3" t="n">
-        <v>212.9647536477572</v>
+        <v>-80.68908878669221</v>
       </c>
       <c r="HM3" t="n">
-        <v>214.6235036718854</v>
+        <v>-79.91166055701812</v>
       </c>
       <c r="HN3" t="n">
-        <v>217.4341097787136</v>
+        <v>-80.37454604683111</v>
       </c>
       <c r="HO3" t="n">
-        <v>213.1747336614224</v>
+        <v>-80.67347691651597</v>
       </c>
       <c r="HP3" t="n">
-        <v>215.9794348121702</v>
+        <v>-79.8338057171119</v>
       </c>
       <c r="HQ3" t="n">
-        <v>220.4457765906348</v>
+        <v>-79.57619100042876</v>
       </c>
       <c r="HR3" t="n">
-        <v>214.7034342547828</v>
+        <v>-79.62949352669752</v>
       </c>
       <c r="HS3" t="n">
-        <v>216.0309605959272</v>
+        <v>-79.9456187937468</v>
       </c>
       <c r="HT3" t="n">
-        <v>218.5834927835826</v>
+        <v>-80.24839178810561</v>
       </c>
       <c r="HU3" t="n">
-        <v>213.6132260855531</v>
+        <v>-80.20299393325421</v>
       </c>
       <c r="HV3" t="n">
-        <v>214.3055209109972</v>
+        <v>-80.41124406505315</v>
       </c>
       <c r="HW3" t="n">
-        <v>209.1799251241488</v>
+        <v>-80.61001436446065</v>
       </c>
       <c r="HX3" t="n">
-        <v>203.3938068162832</v>
+        <v>-80.75834301510361</v>
       </c>
       <c r="HY3" t="n">
-        <v>204.2391957570185</v>
+        <v>-80.87909412632813</v>
       </c>
       <c r="HZ3" t="n">
-        <v>206.7729596792065</v>
+        <v>-80.99344004652806</v>
       </c>
       <c r="IA3" t="n">
-        <v>202.5375480303586</v>
+        <v>-81.16201273586397</v>
       </c>
       <c r="IB3" t="n">
-        <v>205.6502150430241</v>
+        <v>-80.2889563925296</v>
       </c>
       <c r="IC3" t="n">
-        <v>210.3002651568479</v>
+        <v>-80.49652197468959</v>
       </c>
       <c r="ID3" t="n">
-        <v>204.3239552793373</v>
+        <v>-80.8274375283174</v>
       </c>
       <c r="IE3" t="n">
-        <v>206.597831682487</v>
+        <v>-80.72122382822357</v>
       </c>
       <c r="IF3" t="n">
-        <v>201.9252470303352</v>
+        <v>-80.87741507278594</v>
       </c>
       <c r="IG3" t="n">
-        <v>204.3041637785733</v>
+        <v>-81.11726353542745</v>
       </c>
       <c r="IH3" t="n">
-        <v>208.6828990579759</v>
+        <v>-81.34415912121956</v>
       </c>
       <c r="II3" t="n">
-        <v>203.068937871693</v>
+        <v>-81.57689195575846</v>
       </c>
       <c r="IJ3" t="n">
-        <v>205.362754420326</v>
+        <v>-81.15649527962874</v>
       </c>
       <c r="IK3" t="n">
-        <v>200.6645804443932</v>
+        <v>-81.1947324952031</v>
       </c>
       <c r="IL3" t="n">
-        <v>203.0745192856552</v>
+        <v>-81.0930876857625</v>
       </c>
       <c r="IM3" t="n">
-        <v>207.4876541056075</v>
+        <v>-80.11300880187522</v>
       </c>
       <c r="IN3" t="n">
-        <v>202.6363545571028</v>
+        <v>-80.44821194251253</v>
       </c>
       <c r="IO3" t="n">
-        <v>204.8111896594216</v>
+        <v>-80.59680850265919</v>
       </c>
       <c r="IP3" t="n">
-        <v>209.4885034194044</v>
+        <v>-79.64597275944347</v>
       </c>
       <c r="IQ3" t="n">
-        <v>205.1040345259356</v>
+        <v>-80.04110956605416</v>
       </c>
       <c r="IR3" t="n">
-        <v>206.2954134578509</v>
+        <v>-80.12939655278537</v>
       </c>
       <c r="IS3" t="n">
-        <v>201.8936300208306</v>
+        <v>-79.03059353272607</v>
       </c>
       <c r="IT3" t="n">
-        <v>203.5371565562264</v>
+        <v>-79.38831322433788</v>
       </c>
       <c r="IU3" t="n">
-        <v>198.0516507113339</v>
+        <v>-79.62708243808605</v>
       </c>
       <c r="IV3" t="n">
-        <v>201.2658166570263</v>
+        <v>-80.10571813198095</v>
       </c>
       <c r="IW3" t="n">
-        <v>206.5290800116718</v>
+        <v>-80.57579463448486</v>
       </c>
       <c r="IX3" t="n">
-        <v>201.5600664607364</v>
+        <v>-80.56509664363114</v>
       </c>
       <c r="IY3" t="n">
-        <v>204.5804263292692</v>
+        <v>-79.0989483604636</v>
       </c>
       <c r="IZ3" t="n">
-        <v>199.8307592423698</v>
+        <v>-79.32063703330819</v>
       </c>
       <c r="JA3" t="n">
-        <v>202.4534554937389</v>
+        <v>-79.69679682024153</v>
       </c>
       <c r="JB3" t="n">
-        <v>198.2957960839593</v>
+        <v>-78.78921270307856</v>
       </c>
       <c r="JC3" t="n">
-        <v>200.9710725814027</v>
+        <v>-79.01285744775764</v>
       </c>
       <c r="JD3" t="n">
-        <v>205.0926240157214</v>
+        <v>-79.44621205994274</v>
       </c>
       <c r="JE3" t="n">
-        <v>198.9907401296528</v>
+        <v>-79.64683340220624</v>
       </c>
       <c r="JF3" t="n">
-        <v>202.1647846153291</v>
+        <v>-78.77335672947549</v>
       </c>
       <c r="JG3" t="n">
-        <v>207.3984439803306</v>
+        <v>-79.29626386046503</v>
       </c>
       <c r="JH3" t="n">
-        <v>202.2383953225196</v>
+        <v>-79.58684693746372</v>
       </c>
       <c r="JI3" t="n">
-        <v>204.6618015286104</v>
+        <v>-79.93945663491928</v>
       </c>
       <c r="JJ3" t="n">
-        <v>199.4111761003315</v>
+        <v>-79.59002986137661</v>
       </c>
       <c r="JK3" t="n">
-        <v>202.6523456877928</v>
+        <v>-79.71629369038901</v>
       </c>
       <c r="JL3" t="n">
-        <v>207.9507740802041</v>
+        <v>-79.95264346304629</v>
       </c>
       <c r="JM3" t="n">
-        <v>203.176751021509</v>
+        <v>-79.93311123347523</v>
       </c>
       <c r="JN3" t="n">
-        <v>203.8412385028057</v>
+        <v>-79.91457369380885</v>
       </c>
       <c r="JO3" t="n">
-        <v>207.4053801318213</v>
+        <v>-79.86411255430325</v>
       </c>
       <c r="JP3" t="n">
-        <v>203.0689908895656</v>
+        <v>-80.2899881120611</v>
       </c>
       <c r="JQ3" t="n">
-        <v>204.498045140047</v>
+        <v>-80.76418088907523</v>
       </c>
       <c r="JR3" t="n">
-        <v>207.1844028700329</v>
+        <v>-80.98162745279554</v>
       </c>
       <c r="JS3" t="n">
-        <v>199.8498190727765</v>
+        <v>-81.26640823401459</v>
       </c>
       <c r="JT3" t="n">
-        <v>181.4790532791981</v>
+        <v>-81.49872481438368</v>
       </c>
       <c r="JU3" t="n">
-        <v>179.182868063035</v>
+        <v>-82.09172320847722</v>
       </c>
       <c r="JV3" t="n">
-        <v>182.7811075927462</v>
+        <v>-82.04655721060971</v>
       </c>
       <c r="JW3" t="n">
-        <v>174.1531480664451</v>
+        <v>-80.72700964428594</v>
       </c>
       <c r="JX3" t="n">
-        <v>166.0245025620671</v>
+        <v>-81.0634630807395</v>
       </c>
       <c r="JY3" t="n">
-        <v>164.9014461927111</v>
+        <v>-80.78675014514633</v>
       </c>
       <c r="JZ3" t="n">
-        <v>169.9851201735937</v>
+        <v>-80.79555195578234</v>
       </c>
       <c r="KA3" t="n">
-        <v>153.8213434682282</v>
+        <v>-81.05252722448625</v>
       </c>
       <c r="KB3" t="n">
-        <v>148.0139249387356</v>
+        <v>-81.04617706239409</v>
       </c>
       <c r="KC3" t="n">
-        <v>133.8219256785862</v>
+        <v>-81.28137919673767</v>
       </c>
       <c r="KD3" t="n">
-        <v>121.0730755261276</v>
+        <v>-81.50284003095292</v>
       </c>
       <c r="KE3" t="n">
-        <v>117.1082922844483</v>
+        <v>-81.71119287295413</v>
       </c>
       <c r="KF3" t="n">
-        <v>105.869944373614</v>
+        <v>-81.97296472376154</v>
       </c>
       <c r="KG3" t="n">
-        <v>102.8857728782388</v>
+        <v>-82.36526008093465</v>
       </c>
       <c r="KH3" t="n">
-        <v>91.32632485305638</v>
+        <v>-82.40880440528299</v>
       </c>
       <c r="KI3" t="n">
-        <v>93.6500558469186</v>
+        <v>-82.09036062852825</v>
       </c>
       <c r="KJ3" t="n">
-        <v>103.2533493567848</v>
+        <v>-82.21169795901294</v>
       </c>
       <c r="KK3" t="n">
-        <v>115.3240317433363</v>
+        <v>-82.57588752168641</v>
       </c>
       <c r="KL3" t="n">
-        <v>117.0817564772166</v>
+        <v>-82.48651212859239</v>
       </c>
       <c r="KM3" t="n">
-        <v>119.3781003488968</v>
+        <v>-82.55753403560885</v>
       </c>
       <c r="KN3" t="n">
-        <v>127.5171287715175</v>
+        <v>-82.55164407175815</v>
       </c>
       <c r="KO3" t="n">
-        <v>123.8069539111789</v>
+        <v>-82.52918208653895</v>
       </c>
       <c r="KP3" t="n">
-        <v>112.431272422936</v>
+        <v>-82.71341410930718</v>
       </c>
       <c r="KQ3" t="n">
-        <v>114.6655185414742</v>
+        <v>-82.84484782999667</v>
       </c>
       <c r="KR3" t="n">
-        <v>124.2408135905961</v>
+        <v>-83.02868437458254</v>
       </c>
       <c r="KS3" t="n">
-        <v>134.8840713471923</v>
+        <v>-82.9251587318487</v>
       </c>
       <c r="KT3" t="n">
-        <v>135.2512480870298</v>
+        <v>-83.09581818557504</v>
       </c>
       <c r="KU3" t="n">
-        <v>133.9047299704353</v>
+        <v>-82.9947873690334</v>
       </c>
       <c r="KV3" t="n">
-        <v>140.4065913864621</v>
+        <v>-83.17914407882589</v>
       </c>
       <c r="KW3" t="n">
-        <v>136.8640598589943</v>
+        <v>-83.15202875055388</v>
       </c>
       <c r="KX3" t="n">
-        <v>142.5506944398095</v>
+        <v>-83.21195291065324</v>
       </c>
       <c r="KY3" t="n">
-        <v>139.1266467193788</v>
+        <v>-83.06913954628897</v>
       </c>
       <c r="KZ3" t="n">
-        <v>135.5961599907946</v>
+        <v>-83.1111020349893</v>
       </c>
       <c r="LA3" t="n">
-        <v>129.3725307194963</v>
+        <v>-83.07076292390485</v>
       </c>
       <c r="LB3" t="n">
-        <v>135.9151501983268</v>
+        <v>-83.0944348566924</v>
       </c>
       <c r="LC3" t="n">
-        <v>144.0530860936889</v>
+        <v>-83.49154107881874</v>
       </c>
       <c r="LD3" t="n">
-        <v>138.4264725893288</v>
+        <v>-83.32814800558629</v>
       </c>
       <c r="LE3" t="n">
-        <v>132.1322090322802</v>
+        <v>-83.44516643717417</v>
       </c>
       <c r="LF3" t="n">
-        <v>130.4554516149491</v>
+        <v>-83.76736267167425</v>
       </c>
       <c r="LG3" t="n">
-        <v>128.891356754288</v>
+        <v>-83.87765420622522</v>
       </c>
       <c r="LH3" t="n">
-        <v>126.9806205485545</v>
+        <v>-83.97875592739869</v>
       </c>
       <c r="LI3" t="n">
-        <v>128.3206696160174</v>
+        <v>-84.40603812147273</v>
       </c>
       <c r="LJ3" t="n">
-        <v>126.3700888778963</v>
+        <v>-84.23101777036992</v>
       </c>
       <c r="LK3" t="n">
-        <v>132.5518030137402</v>
+        <v>-83.92861488936798</v>
       </c>
       <c r="LL3" t="n">
-        <v>129.6067744446811</v>
+        <v>-83.47163466957412</v>
       </c>
       <c r="LM3" t="n">
-        <v>135.0590928983062</v>
+        <v>-83.19428395096654</v>
       </c>
       <c r="LN3" t="n">
-        <v>141.909637110365</v>
+        <v>-83.38183039695859</v>
       </c>
       <c r="LO3" t="n">
-        <v>139.060755242399</v>
+        <v>-83.32405806837667</v>
       </c>
       <c r="LP3" t="n">
-        <v>143.240296969359</v>
+        <v>-83.12538691812713</v>
       </c>
       <c r="LQ3" t="n">
-        <v>148.8959985993357</v>
+        <v>-82.89126748636927</v>
       </c>
       <c r="LR3" t="n">
-        <v>146.1018703730507</v>
+        <v>-82.82606001157325</v>
       </c>
       <c r="LS3" t="n">
-        <v>148.9963818499325</v>
+        <v>-82.78177042036941</v>
       </c>
       <c r="LT3" t="n">
-        <v>145.0016238873647</v>
+        <v>-82.90390186101352</v>
       </c>
       <c r="LU3" t="n">
-        <v>147.7463416240473</v>
+        <v>-82.76584808099892</v>
       </c>
       <c r="LV3" t="n">
-        <v>151.8483623270719</v>
+        <v>-82.70115950119973</v>
       </c>
       <c r="LW3" t="n">
-        <v>144.1501250449129</v>
+        <v>-82.73756482205975</v>
       </c>
       <c r="LX3" t="n">
-        <v>148.88322799702</v>
+        <v>-82.60649193724491</v>
       </c>
       <c r="LY3" t="n">
-        <v>141.361716494136</v>
+        <v>-82.57184931111561</v>
       </c>
       <c r="LZ3" t="n">
-        <v>144.155060057836</v>
+        <v>-82.6744736476103</v>
       </c>
       <c r="MA3" t="n">
-        <v>140.2693625320288</v>
+        <v>-82.86155556884232</v>
       </c>
       <c r="MB3" t="n">
-        <v>143.0372834956694</v>
+        <v>-82.4394818634533</v>
       </c>
       <c r="MC3" t="n">
-        <v>147.213647971513</v>
+        <v>-81.07640739819722</v>
       </c>
       <c r="MD3" t="n">
-        <v>139.5024253334795</v>
+        <v>-81.38485156114638</v>
       </c>
       <c r="ME3" t="n">
-        <v>144.579354327702</v>
+        <v>-81.50858804287597</v>
       </c>
       <c r="MF3" t="n">
-        <v>140.2213754545504</v>
+        <v>-81.48869382145702</v>
       </c>
       <c r="MG3" t="n">
-        <v>145.2384677636824</v>
+        <v>-81.47277239651694</v>
       </c>
       <c r="MH3" t="n">
-        <v>152.1572137157755</v>
+        <v>-81.77204895727482</v>
       </c>
       <c r="MI3" t="n">
-        <v>143.098601823679</v>
+        <v>-81.66191729625075</v>
       </c>
       <c r="MJ3" t="n">
-        <v>139.196304656766</v>
+        <v>-81.63440338498737</v>
       </c>
       <c r="MK3" t="n">
-        <v>141.7117531130466</v>
+        <v>-81.82744530359645</v>
       </c>
       <c r="ML3" t="n">
-        <v>146.2095478224738</v>
+        <v>-81.69705829950249</v>
       </c>
       <c r="MM3" t="n">
-        <v>142.0732664781917</v>
+        <v>-81.86542334563488</v>
       </c>
       <c r="MN3" t="n">
-        <v>144.3066205438935</v>
+        <v>-81.51441196520878</v>
       </c>
       <c r="MO3" t="n">
-        <v>147.9017645407441</v>
+        <v>-81.45840011518293</v>
       </c>
       <c r="MP3" t="n">
-        <v>139.9684109058188</v>
+        <v>-81.6579219088063</v>
       </c>
       <c r="MQ3" t="n">
-        <v>136.4233587423452</v>
+        <v>-81.86418335901524</v>
       </c>
       <c r="MR3" t="n">
-        <v>134.0362622664065</v>
+        <v>-81.86479610658802</v>
       </c>
       <c r="MS3" t="n">
-        <v>140.5290260414443</v>
+        <v>-81.69157270060786</v>
       </c>
       <c r="MT3" t="n">
-        <v>136.6943873015165</v>
+        <v>-81.52821043840437</v>
       </c>
       <c r="MU3" t="n">
-        <v>133.0650910618001</v>
+        <v>-81.51937292712014</v>
       </c>
       <c r="MV3" t="n">
-        <v>125.9371648403949</v>
+        <v>-81.63830772274908</v>
       </c>
       <c r="MW3" t="n">
-        <v>130.6034150554724</v>
+        <v>-81.65568892236868</v>
       </c>
       <c r="MX3" t="n">
-        <v>126.88396739437</v>
+        <v>-81.66263711367959</v>
       </c>
       <c r="MY3" t="n">
-        <v>131.5628033041538</v>
+        <v>-81.47232884383352</v>
       </c>
       <c r="MZ3" t="n">
-        <v>138.0411729500021</v>
+        <v>-81.29292607040946</v>
       </c>
       <c r="NA3" t="n">
-        <v>133.2288157371436</v>
+        <v>-81.62112010878816</v>
       </c>
       <c r="NB3" t="n">
-        <v>128.6714702361515</v>
+        <v>-81.79270409423459</v>
       </c>
       <c r="NC3" t="n">
-        <v>133.2500577388689</v>
+        <v>-81.55600191519132</v>
       </c>
       <c r="ND3" t="n">
-        <v>128.7240048087639</v>
+        <v>-81.73388655009937</v>
       </c>
       <c r="NE3" t="n">
-        <v>124.9339011910941</v>
+        <v>-81.90330537312485</v>
       </c>
       <c r="NF3" t="n">
-        <v>121.6082949926636</v>
+        <v>-82.15293801298705</v>
       </c>
       <c r="NG3" t="n">
-        <v>118.0334912996013</v>
+        <v>-81.93625657253509</v>
       </c>
       <c r="NH3" t="n">
-        <v>123.7439076319408</v>
+        <v>-81.96334272024824</v>
       </c>
       <c r="NI3" t="n">
-        <v>117.1557152173618</v>
+        <v>-82.09403961606684</v>
       </c>
       <c r="NJ3" t="n">
-        <v>114.5062209174008</v>
+        <v>-82.51411974466518</v>
       </c>
       <c r="NK3" t="n">
-        <v>112.9323548882283</v>
+        <v>-82.76191341660946</v>
       </c>
       <c r="NL3" t="n">
-        <v>110.3373941302454</v>
+        <v>-82.88386671520971</v>
       </c>
       <c r="NM3" t="n">
-        <v>116.2904679240169</v>
+        <v>-82.99460864242538</v>
       </c>
       <c r="NN3" t="n">
-        <v>113.2940023094268</v>
+        <v>-83.12696446540031</v>
       </c>
       <c r="NO3" t="n">
-        <v>119.1787746295832</v>
+        <v>-83.21281267913635</v>
       </c>
       <c r="NP3" t="n">
-        <v>116.1024326243714</v>
+        <v>-83.17735160554675</v>
       </c>
       <c r="NQ3" t="n">
-        <v>115.2439610341068</v>
+        <v>-83.27284436375369</v>
       </c>
       <c r="NR3" t="n">
-        <v>112.4765060374782</v>
+        <v>-83.36086908713392</v>
       </c>
       <c r="NS3" t="n">
-        <v>116.4889407519095</v>
+        <v>-83.41633929844268</v>
       </c>
       <c r="NT3" t="n">
-        <v>121.8031846315022</v>
+        <v>-83.08686787121249</v>
       </c>
       <c r="NU3" t="n">
-        <v>118.6927342073943</v>
+        <v>-82.93274437166811</v>
       </c>
       <c r="NV3" t="n">
-        <v>115.7326435735513</v>
+        <v>-82.74453026473829</v>
       </c>
       <c r="NW3" t="n">
-        <v>119.4045621097778</v>
+        <v>-82.4757612914173</v>
       </c>
       <c r="NX3" t="n">
-        <v>124.3153139622427</v>
+        <v>-82.66930050149212</v>
       </c>
       <c r="NY3" t="n">
-        <v>121.6603979054182</v>
+        <v>-82.75619071990239</v>
       </c>
       <c r="NZ3" t="n">
-        <v>121.004052716246</v>
+        <v>-82.67343190824644</v>
       </c>
       <c r="OA3" t="n">
-        <v>120.8922190723851</v>
+        <v>-82.72673742465537</v>
       </c>
       <c r="OB3" t="n">
-        <v>117.9402785378514</v>
+        <v>-82.55108448788394</v>
       </c>
       <c r="OC3" t="n">
-        <v>117.513147373601</v>
+        <v>-82.63765148624911</v>
       </c>
       <c r="OD3" t="n">
-        <v>118.1459632933443</v>
+        <v>-82.71961643688128</v>
       </c>
       <c r="OE3" t="n">
-        <v>115.4112789587664</v>
+        <v>-82.76949828421715</v>
       </c>
       <c r="OF3" t="n">
-        <v>115.2161537571661</v>
+        <v>-82.83342561559266</v>
       </c>
       <c r="OG3" t="n">
-        <v>109.5863692845184</v>
+        <v>-82.82700944206917</v>
       </c>
       <c r="OH3" t="n">
-        <v>107.2731515750917</v>
+        <v>-82.8345952376482</v>
       </c>
       <c r="OI3" t="n">
-        <v>107.4414681713426</v>
+        <v>-82.51860702262951</v>
       </c>
       <c r="OJ3" t="n">
-        <v>101.8222027884644</v>
+        <v>-82.2186281446031</v>
       </c>
       <c r="OK3" t="n">
-        <v>96.59613964238692</v>
+        <v>-82.01263032329524</v>
       </c>
       <c r="OL3" t="n">
-        <v>95.14897249294337</v>
+        <v>-81.90597974313417</v>
       </c>
       <c r="OM3" t="n">
-        <v>93.83410489651337</v>
+        <v>-81.69966217114818</v>
       </c>
       <c r="ON3" t="n">
-        <v>99.17803855604834</v>
+        <v>-81.48531566877179</v>
       </c>
       <c r="OO3" t="n">
-        <v>97.73736066376296</v>
+        <v>-81.86174954556694</v>
       </c>
       <c r="OP3" t="n">
-        <v>102.8403915433785</v>
+        <v>-81.992410721197</v>
       </c>
       <c r="OQ3" t="n">
-        <v>101.3238754661598</v>
+        <v>-81.93339990852029</v>
       </c>
       <c r="OR3" t="n">
-        <v>102.2761536382251</v>
+        <v>-81.89409115242336</v>
       </c>
       <c r="OS3" t="n">
-        <v>104.2306971349218</v>
+        <v>-81.92274428161525</v>
       </c>
       <c r="OT3" t="n">
-        <v>103.2149232049434</v>
+        <v>-82.11565775153782</v>
       </c>
       <c r="OU3" t="n">
-        <v>104.1309664324937</v>
+        <v>-82.02754921199379</v>
       </c>
       <c r="OV3" t="n">
-        <v>102.7091155234197</v>
+        <v>-82.28359570850034</v>
       </c>
       <c r="OW3" t="n">
-        <v>103.620097376271</v>
+        <v>-82.03970313000785</v>
       </c>
       <c r="OX3" t="n">
-        <v>102.1962554372022</v>
+        <v>-81.92633618809496</v>
       </c>
       <c r="OY3" t="n">
-        <v>107.3289533734873</v>
+        <v>-82.09348962806745</v>
       </c>
       <c r="OZ3" t="n">
-        <v>113.5675916801117</v>
+        <v>-82.32175186135976</v>
       </c>
       <c r="PA3" t="n">
-        <v>111.7874432680695</v>
+        <v>-82.39084530817149</v>
       </c>
       <c r="PB3" t="n">
-        <v>112.4709572901662</v>
+        <v>-82.7052163522491</v>
       </c>
       <c r="PC3" t="n">
-        <v>114.1538522381345</v>
+        <v>-82.54428328555288</v>
       </c>
       <c r="PD3" t="n">
-        <v>112.1590865121435</v>
+        <v>-82.16289586481346</v>
       </c>
       <c r="PE3" t="n">
-        <v>116.8705675699481</v>
+        <v>-82.51386729289969</v>
       </c>
       <c r="PF3" t="n">
-        <v>122.757937758282</v>
+        <v>-82.65121381413637</v>
       </c>
       <c r="PG3" t="n">
-        <v>120.8469411839871</v>
+        <v>-82.5564076972247</v>
       </c>
       <c r="PH3" t="n">
-        <v>118.4623043861592</v>
+        <v>-82.35846204696074</v>
       </c>
       <c r="PI3" t="n">
-        <v>118.5335499507583</v>
+        <v>-82.1582940851565</v>
       </c>
       <c r="PJ3" t="n">
-        <v>116.2252974072147</v>
+        <v>-82.36313329201343</v>
       </c>
       <c r="PK3" t="n">
-        <v>114.0224533792901</v>
+        <v>-82.19897330964623</v>
       </c>
       <c r="PL3" t="n">
-        <v>114.254531364969</v>
+        <v>-82.31270758364666</v>
       </c>
       <c r="PM3" t="n">
-        <v>112.1949202771899</v>
+        <v>-82.25604670734256</v>
       </c>
       <c r="PN3" t="n">
-        <v>116.7947424234934</v>
+        <v>-82.54324067084681</v>
       </c>
       <c r="PO3" t="n">
-        <v>114.9637760959153</v>
+        <v>-82.56234015445916</v>
       </c>
       <c r="PP3" t="n">
-        <v>115.0220083564245</v>
+        <v>-82.44099541394296</v>
       </c>
       <c r="PQ3" t="n">
-        <v>112.8615344124693</v>
+        <v>-82.15545283680565</v>
       </c>
       <c r="PR3" t="n">
-        <v>113.1500357298158</v>
+        <v>-81.88467328284207</v>
       </c>
       <c r="PS3" t="n">
-        <v>114.4557890902781</v>
+        <v>-82.08067307707582</v>
       </c>
       <c r="PT3" t="n">
-        <v>112.169838827413</v>
+        <v>-82.25507890955927</v>
       </c>
       <c r="PU3" t="n">
-        <v>112.2429776202471</v>
+        <v>-82.36834761071137</v>
       </c>
       <c r="PV3" t="n">
-        <v>109.9232901769288</v>
+        <v>-82.35629038166226</v>
       </c>
       <c r="PW3" t="n">
-        <v>114.7018962835534</v>
+        <v>-82.41628265978225</v>
       </c>
       <c r="PX3" t="n">
-        <v>112.116682145159</v>
+        <v>-82.47297324143864</v>
       </c>
       <c r="PY3" t="n">
-        <v>116.4035379800968</v>
+        <v>-82.51055467702319</v>
       </c>
       <c r="PZ3" t="n">
-        <v>121.8104886586069</v>
+        <v>-82.5336673284732</v>
       </c>
       <c r="QA3" t="n">
-        <v>118.8049241664259</v>
+        <v>-82.69861511846698</v>
       </c>
       <c r="QB3" t="n">
-        <v>122.5617651695364</v>
+        <v>-82.85436584072782</v>
       </c>
       <c r="QC3" t="n">
-        <v>120.3274122145887</v>
+        <v>-82.77329243680595</v>
       </c>
       <c r="QD3" t="n">
-        <v>124.2126700711763</v>
+        <v>-82.71724172888543</v>
       </c>
       <c r="QE3" t="n">
-        <v>129.2762519904312</v>
+        <v>-82.63698001196911</v>
       </c>
       <c r="QF3" t="n">
-        <v>122.434929096422</v>
+        <v>-82.51704177214773</v>
       </c>
       <c r="QG3" t="n">
-        <v>126.1419593300077</v>
+        <v>-82.66840976427396</v>
       </c>
       <c r="QH3" t="n">
-        <v>122.6909250814976</v>
+        <v>-82.92349284296264</v>
       </c>
       <c r="QI3" t="n">
-        <v>121.1755782619638</v>
+        <v>-83.05774515730414</v>
       </c>
       <c r="QJ3" t="n">
-        <v>120.6423392078466</v>
+        <v>-83.194658449385</v>
       </c>
       <c r="QK3" t="n">
-        <v>116.2314582076643</v>
+        <v>-83.16558099456783</v>
       </c>
       <c r="QL3" t="n">
-        <v>118.9655252077865</v>
+        <v>-83.19356256847068</v>
       </c>
       <c r="QM3" t="n">
-        <v>122.7520715496479</v>
+        <v>-82.96966075772917</v>
       </c>
       <c r="QN3" t="n">
-        <v>115.9393521777232</v>
+        <v>-82.75598998556914</v>
       </c>
       <c r="QO3" t="n">
-        <v>119.1509774756491</v>
+        <v>-82.62197916755137</v>
       </c>
       <c r="QP3" t="n">
-        <v>112.9403929526693</v>
+        <v>-82.27411803536138</v>
       </c>
       <c r="QQ3" t="n">
-        <v>116.0713633521288</v>
+        <v>-82.14211373891131</v>
       </c>
       <c r="QR3" t="n">
-        <v>120.240848964493</v>
+        <v>-81.98918515993246</v>
       </c>
       <c r="QS3" t="n">
-        <v>116.855687816518</v>
+        <v>-82.20648536233787</v>
       </c>
       <c r="QT3" t="n">
-        <v>110.6316069882133</v>
+        <v>-81.9423880641543</v>
       </c>
       <c r="QU3" t="n">
-        <v>109.2641071840518</v>
+        <v>-81.85884599038471</v>
       </c>
       <c r="QV3" t="n">
-        <v>102.5096431752891</v>
+        <v>-81.92246420891637</v>
       </c>
       <c r="QW3" t="n">
-        <v>105.9438121641891</v>
+        <v>-81.99202019826868</v>
       </c>
       <c r="QX3" t="n">
-        <v>99.81667007213615</v>
+        <v>-82.16660866022333</v>
       </c>
       <c r="QY3" t="n">
-        <v>94.03706564404065</v>
+        <v>-82.22030575682388</v>
       </c>
       <c r="QZ3" t="n">
-        <v>88.90649611591697</v>
+        <v>-82.37578701438719</v>
       </c>
       <c r="RA3" t="n">
-        <v>84.34449899471045</v>
+        <v>-82.40424156089844</v>
       </c>
       <c r="RB3" t="n">
-        <v>82.15970345543123</v>
+        <v>-82.16295396841949</v>
       </c>
       <c r="RC3" t="n">
-        <v>80.82137010156652</v>
+        <v>-82.0690442494667</v>
       </c>
       <c r="RD3" t="n">
-        <v>80.36038186317529</v>
+        <v>-81.98065749083572</v>
       </c>
       <c r="RE3" t="n">
-        <v>76.12859504290773</v>
+        <v>-81.88183951818463</v>
       </c>
       <c r="RF3" t="n">
-        <v>76.57655524739158</v>
+        <v>-81.8263677542744</v>
       </c>
       <c r="RG3" t="n">
-        <v>77.89033247854856</v>
+        <v>-81.47875196391959</v>
       </c>
       <c r="RH3" t="n">
-        <v>73.47819543682516</v>
+        <v>-81.73718180346496</v>
       </c>
       <c r="RI3" t="n">
-        <v>74.37234693096445</v>
+        <v>-81.68727413431151</v>
       </c>
       <c r="RJ3" t="n">
-        <v>69.916876971364</v>
+        <v>-81.82332332570461</v>
       </c>
       <c r="RK3" t="n">
-        <v>66.0172242536194</v>
+        <v>-82.00537506275474</v>
       </c>
       <c r="RL3" t="n">
-        <v>66.61279567877827</v>
+        <v>-82.17878232742439</v>
       </c>
       <c r="RM3" t="n">
-        <v>62.94173315271426</v>
+        <v>-82.31177299314622</v>
       </c>
       <c r="RN3" t="n">
-        <v>59.82899154970661</v>
+        <v>-82.39934542276228</v>
       </c>
       <c r="RO3" t="n">
-        <v>57.29353663924133</v>
+        <v>-82.6112902543691</v>
       </c>
       <c r="RP3" t="n">
-        <v>54.11371344995129</v>
+        <v>-82.51092827659744</v>
       </c>
       <c r="RQ3" t="n">
-        <v>51.44278621841933</v>
+        <v>-82.21485406730956</v>
       </c>
       <c r="RR3" t="n">
-        <v>48.10238441226114</v>
+        <v>-82.437077450339</v>
       </c>
       <c r="RS3" t="n">
-        <v>45.2270325232091</v>
+        <v>-82.56309389743436</v>
       </c>
       <c r="RT3" t="n">
-        <v>42.82672590918311</v>
+        <v>-82.63339548396763</v>
       </c>
       <c r="RU3" t="n">
-        <v>40.47753296928415</v>
+        <v>-82.50184159460125</v>
       </c>
       <c r="RV3" t="n">
-        <v>38.5772894940271</v>
+        <v>-82.62060570577545</v>
       </c>
       <c r="RW3" t="n">
-        <v>39.33733689211017</v>
+        <v>-82.56381684477498</v>
       </c>
       <c r="RX3" t="n">
-        <v>40.15428287397964</v>
+        <v>-82.28190657633431</v>
       </c>
       <c r="RY3" t="n">
-        <v>38.32623153458966</v>
+        <v>-82.225658204637</v>
       </c>
       <c r="RZ3" t="n">
-        <v>36.90633650721468</v>
+        <v>-82.49007060996978</v>
       </c>
       <c r="SA3" t="n">
-        <v>35.20280626325135</v>
+        <v>-82.49084122128104</v>
       </c>
       <c r="SB3" t="n">
-        <v>33.88420140050282</v>
+        <v>-82.43247357846394</v>
       </c>
       <c r="SC3" t="n">
-        <v>32.5666588198557</v>
+        <v>-82.35414926062434</v>
       </c>
       <c r="SD3" t="n">
-        <v>31.61391447392468</v>
+        <v>-82.25700427678487</v>
       </c>
       <c r="SE3" t="n">
-        <v>30.3831665133793</v>
+        <v>-82.52087787672562</v>
       </c>
       <c r="SF3" t="n">
-        <v>29.46803855253505</v>
+        <v>-82.49661298383663</v>
       </c>
       <c r="SG3" t="n">
-        <v>28.89435273119552</v>
+        <v>-82.47315200813827</v>
       </c>
     </row>
   </sheetData>
